--- a/BRBY.L.xlsx
+++ b/BRBY.L.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4A41FD-12C0-4805-A381-84ADCA622EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E537B0-91C6-4A6A-BDF3-AE69729BBD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{C3EE2D3B-35B1-4886-BA08-2254D8777D41}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>Burberry</t>
   </si>
@@ -165,14 +165,74 @@
     <t>H125</t>
   </si>
   <si>
-    <t>Q225</t>
+    <t>FQ425</t>
+  </si>
+  <si>
+    <t>FY20</t>
+  </si>
+  <si>
+    <t>FY21</t>
+  </si>
+  <si>
+    <t>FY22</t>
+  </si>
+  <si>
+    <t>FY23</t>
+  </si>
+  <si>
+    <t>FY24</t>
+  </si>
+  <si>
+    <t>FY25</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>FY26 outlook: profitable growth</t>
+  </si>
+  <si>
+    <t>Accessoires</t>
+  </si>
+  <si>
+    <t>Womenswear</t>
+  </si>
+  <si>
+    <t>Menswear</t>
+  </si>
+  <si>
+    <t>Childrenswear and other</t>
+  </si>
+  <si>
+    <t>Store Growth</t>
+  </si>
+  <si>
+    <t>APAC Growth</t>
+  </si>
+  <si>
+    <t>EMEIA Growth</t>
+  </si>
+  <si>
+    <t>America Growth</t>
+  </si>
+  <si>
+    <t>Revenue Growth</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Operating Margin</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +256,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -214,11 +290,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -228,10 +305,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -563,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D318A59-04E4-437E-917F-15FBBC078F39}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:J6"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +668,7 @@
         <v>3</v>
       </c>
       <c r="I2">
-        <v>7.57</v>
+        <v>9.48</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -595,7 +676,7 @@
         <v>4</v>
       </c>
       <c r="I3" s="4">
-        <v>357.3</v>
+        <v>358.4</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>42</v>
@@ -610,7 +691,7 @@
       </c>
       <c r="I4" s="4">
         <f>+I2*I3</f>
-        <v>2704.761</v>
+        <v>3397.6320000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -621,7 +702,7 @@
         <v>6</v>
       </c>
       <c r="I5" s="4">
-        <v>430</v>
+        <v>813</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>42</v>
@@ -632,8 +713,8 @@
         <v>7</v>
       </c>
       <c r="I6" s="4">
-        <f>1+299+106</f>
-        <v>406</v>
+        <f>105+438+300</f>
+        <v>843</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>42</v>
@@ -645,7 +726,17 @@
       </c>
       <c r="I7" s="4">
         <f>+I4-I5+I6</f>
-        <v>2680.761</v>
+        <v>3427.6320000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -658,13 +749,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3C5E70-D9BC-490B-A35F-97759AFDB091}">
-  <dimension ref="A1:BL241"/>
+  <dimension ref="A1:BL245"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,7 +789,24 @@
         <v>40</v>
       </c>
       <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="J2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="3" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -711,14 +819,19 @@
       <c r="G3" s="4">
         <v>242</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="4">
+        <f>+O3</f>
+        <v>237</v>
+      </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
+      <c r="O3" s="4">
+        <v>237</v>
+      </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
@@ -764,14 +877,19 @@
       <c r="G4" s="4">
         <v>100</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="4">
+        <f t="shared" ref="H4:H7" si="0">+O4</f>
+        <v>100</v>
+      </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
+      <c r="O4" s="4">
+        <v>100</v>
+      </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
@@ -817,14 +935,19 @@
       <c r="G5" s="4">
         <v>87</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="4">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+      <c r="O5" s="4">
+        <v>85</v>
+      </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
@@ -872,14 +995,31 @@
       <c r="G6" s="6">
         <v>429</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="6">
+        <v>429</v>
+      </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
+      <c r="K6" s="6">
+        <f t="shared" ref="K6:N6" si="1">+SUM(K3:K5)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <f>+SUM(O3:O5)</f>
+        <v>422</v>
+      </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="4"/>
@@ -925,14 +1065,19 @@
       <c r="G7" s="4">
         <v>33</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
+      <c r="O7" s="4">
+        <v>33</v>
+      </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -1017,25 +1162,35 @@
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4">
-        <v>584</v>
-      </c>
-      <c r="F9" s="4"/>
+        <v>498</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" ref="F9:F12" si="2">+N9-E9</f>
+        <v>557</v>
+      </c>
       <c r="G9" s="4">
-        <v>444</v>
-      </c>
-      <c r="H9" s="4"/>
+        <v>367</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" ref="H9:H12" si="3">+O9-G9</f>
+        <v>574</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
+      <c r="N9" s="4">
+        <v>1055</v>
+      </c>
+      <c r="O9" s="4">
+        <v>941</v>
+      </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -1072,25 +1227,35 @@
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4">
-        <v>485</v>
-      </c>
-      <c r="F10" s="4"/>
+        <v>391</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="2"/>
+        <v>469</v>
+      </c>
       <c r="G10" s="4">
-        <v>392</v>
-      </c>
-      <c r="H10" s="4"/>
+        <v>313</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="3"/>
+        <v>405</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
+      <c r="N10" s="4">
+        <v>860</v>
+      </c>
+      <c r="O10" s="4">
+        <v>718</v>
+      </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -1127,25 +1292,35 @@
     </row>
     <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4">
-        <v>296</v>
-      </c>
-      <c r="F11" s="4"/>
+        <v>399</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="2"/>
+        <v>443</v>
+      </c>
       <c r="G11" s="4">
-        <v>218</v>
-      </c>
-      <c r="H11" s="4"/>
+        <v>324</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="3"/>
+        <v>408</v>
+      </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
+      <c r="N11" s="4">
+        <v>842</v>
+      </c>
+      <c r="O11" s="4">
+        <v>732</v>
+      </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
@@ -1182,25 +1357,35 @@
     </row>
     <row r="12" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4">
-        <v>1124</v>
-      </c>
-      <c r="F12" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
       <c r="G12" s="4">
-        <v>885</v>
-      </c>
-      <c r="H12" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
+      <c r="N12" s="4">
+        <v>149</v>
+      </c>
+      <c r="O12" s="4">
+        <v>104</v>
+      </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -1234,44 +1419,38 @@
       <c r="AT12" s="4"/>
       <c r="AU12" s="4"/>
       <c r="AV12" s="4"/>
-      <c r="AW12" s="4"/>
-      <c r="AX12" s="4"/>
-      <c r="AY12" s="4"/>
-      <c r="AZ12" s="4"/>
-      <c r="BA12" s="4"/>
-      <c r="BB12" s="4"/>
-      <c r="BC12" s="4"/>
-      <c r="BD12" s="4"/>
-      <c r="BE12" s="4"/>
-      <c r="BF12" s="4"/>
-      <c r="BG12" s="4"/>
-      <c r="BH12" s="4"/>
-      <c r="BI12" s="4"/>
-      <c r="BJ12" s="4"/>
-      <c r="BK12" s="4"/>
-      <c r="BL12" s="4"/>
     </row>
     <row r="13" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4">
-        <v>241</v>
-      </c>
-      <c r="F13" s="4"/>
+        <v>584</v>
+      </c>
+      <c r="F13" s="4">
+        <f>+N13-E13</f>
+        <v>702</v>
+      </c>
       <c r="G13" s="4">
-        <v>169</v>
-      </c>
-      <c r="H13" s="4"/>
+        <v>444</v>
+      </c>
+      <c r="H13" s="4">
+        <f>+O13-G13</f>
+        <v>599</v>
+      </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
+      <c r="N13" s="4">
+        <v>1286</v>
+      </c>
+      <c r="O13" s="4">
+        <v>1043</v>
+      </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
@@ -1305,44 +1484,38 @@
       <c r="AT13" s="4"/>
       <c r="AU13" s="4"/>
       <c r="AV13" s="4"/>
-      <c r="AW13" s="4"/>
-      <c r="AX13" s="4"/>
-      <c r="AY13" s="4"/>
-      <c r="AZ13" s="4"/>
-      <c r="BA13" s="4"/>
-      <c r="BB13" s="4"/>
-      <c r="BC13" s="4"/>
-      <c r="BD13" s="4"/>
-      <c r="BE13" s="4"/>
-      <c r="BF13" s="4"/>
-      <c r="BG13" s="4"/>
-      <c r="BH13" s="4"/>
-      <c r="BI13" s="4"/>
-      <c r="BJ13" s="4"/>
-      <c r="BK13" s="4"/>
-      <c r="BL13" s="4"/>
     </row>
     <row r="14" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4">
-        <v>31</v>
-      </c>
-      <c r="F14" s="4"/>
+        <v>485</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" ref="F14:F30" si="4">+N14-E14</f>
+        <v>532</v>
+      </c>
       <c r="G14" s="4">
-        <v>32</v>
-      </c>
-      <c r="H14" s="4"/>
+        <v>392</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" ref="H14:H30" si="5">+O14-G14</f>
+        <v>450</v>
+      </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
+      <c r="N14" s="4">
+        <v>1017</v>
+      </c>
+      <c r="O14" s="4">
+        <v>842</v>
+      </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
@@ -1376,58 +1549,38 @@
       <c r="AT14" s="4"/>
       <c r="AU14" s="4"/>
       <c r="AV14" s="4"/>
-      <c r="AW14" s="4"/>
-      <c r="AX14" s="4"/>
-      <c r="AY14" s="4"/>
-      <c r="AZ14" s="4"/>
-      <c r="BA14" s="4"/>
-      <c r="BB14" s="4"/>
-      <c r="BC14" s="4"/>
-      <c r="BD14" s="4"/>
-      <c r="BE14" s="4"/>
-      <c r="BF14" s="4"/>
-      <c r="BG14" s="4"/>
-      <c r="BH14" s="4"/>
-      <c r="BI14" s="4"/>
-      <c r="BJ14" s="4"/>
-      <c r="BK14" s="4"/>
-      <c r="BL14" s="4"/>
     </row>
     <row r="15" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="6">
-        <f>+SUM(C12:C14)</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="6">
-        <f t="shared" ref="D15:H15" si="0">+SUM(D12:D14)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="6">
-        <f t="shared" si="0"/>
-        <v>1396</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="6">
-        <f t="shared" si="0"/>
-        <v>1086</v>
-      </c>
-      <c r="H15" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4">
+        <v>296</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="4"/>
+        <v>307</v>
+      </c>
+      <c r="G15" s="4">
+        <v>218</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="5"/>
+        <v>292</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
+      <c r="N15" s="4">
+        <v>603</v>
+      </c>
+      <c r="O15" s="4">
+        <v>510</v>
+      </c>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
@@ -1461,44 +1614,38 @@
       <c r="AT15" s="4"/>
       <c r="AU15" s="4"/>
       <c r="AV15" s="4"/>
-      <c r="AW15" s="4"/>
-      <c r="AX15" s="4"/>
-      <c r="AY15" s="4"/>
-      <c r="AZ15" s="4"/>
-      <c r="BA15" s="4"/>
-      <c r="BB15" s="4"/>
-      <c r="BC15" s="4"/>
-      <c r="BD15" s="4"/>
-      <c r="BE15" s="4"/>
-      <c r="BF15" s="4"/>
-      <c r="BG15" s="4"/>
-      <c r="BH15" s="4"/>
-      <c r="BI15" s="4"/>
-      <c r="BJ15" s="4"/>
-      <c r="BK15" s="4"/>
-      <c r="BL15" s="4"/>
     </row>
     <row r="16" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4">
-        <v>421</v>
-      </c>
-      <c r="F16" s="4"/>
+        <v>1124</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="4"/>
+        <v>1276</v>
+      </c>
       <c r="G16" s="4">
-        <v>397</v>
-      </c>
-      <c r="H16" s="4"/>
+        <v>885</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="5"/>
+        <v>1191</v>
+      </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
+      <c r="N16" s="4">
+        <v>2400</v>
+      </c>
+      <c r="O16" s="4">
+        <v>2076</v>
+      </c>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
@@ -1551,39 +1698,35 @@
     </row>
     <row r="17" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="4">
-        <f t="shared" ref="C17:F17" si="1">+C15-C16</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="4">
-        <f t="shared" si="1"/>
-        <v>975</v>
+        <v>241</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>265</v>
       </c>
       <c r="G17" s="4">
-        <f>+G15-G16</f>
-        <v>689</v>
+        <v>169</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" ref="H17" si="2">+H15-H16</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>150</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
+      <c r="N17" s="4">
+        <v>506</v>
+      </c>
+      <c r="O17" s="4">
+        <v>319</v>
+      </c>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
@@ -1636,25 +1779,35 @@
     </row>
     <row r="18" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4">
-        <v>758</v>
-      </c>
-      <c r="F18" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
       <c r="G18" s="4">
-        <v>755</v>
-      </c>
-      <c r="H18" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
+      <c r="N18" s="4">
+        <v>62</v>
+      </c>
+      <c r="O18" s="4">
+        <v>66</v>
+      </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
@@ -1706,26 +1859,44 @@
       <c r="BL18" s="4"/>
     </row>
     <row r="19" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4">
-        <v>6</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4">
-        <v>13</v>
-      </c>
-      <c r="H19" s="4"/>
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="6">
+        <f>+SUM(C16:C18)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" ref="D19:H19" si="6">+SUM(D16:D18)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="6"/>
+        <v>1396</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="6"/>
+        <v>1572</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" si="6"/>
+        <v>1086</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" si="6"/>
+        <v>1375</v>
+      </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
+      <c r="N19" s="6">
+        <v>2968</v>
+      </c>
+      <c r="O19" s="6">
+        <v>2461</v>
+      </c>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
@@ -1778,39 +1949,35 @@
     </row>
     <row r="20" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="4">
-        <f t="shared" ref="C20:F20" si="3">+C17-C18+C19</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="4">
-        <f t="shared" si="3"/>
-        <v>223</v>
+        <v>421</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>538</v>
       </c>
       <c r="G20" s="4">
-        <f>+G17-G18+G19</f>
-        <v>-53</v>
+        <v>397</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" ref="H20" si="4">+H17-H18+H19</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>526</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
+      <c r="N20" s="4">
+        <v>959</v>
+      </c>
+      <c r="O20" s="4">
+        <v>923</v>
+      </c>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
@@ -1863,25 +2030,45 @@
     </row>
     <row r="21" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" ref="C21:F21" si="7">+C19-C20</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="E21" s="4">
-        <v>20</v>
-      </c>
-      <c r="F21" s="4"/>
+        <f t="shared" si="7"/>
+        <v>975</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="7"/>
+        <v>1034</v>
+      </c>
       <c r="G21" s="4">
-        <v>11</v>
-      </c>
-      <c r="H21" s="4"/>
+        <f>+G19-G20</f>
+        <v>689</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" ref="H21" si="8">+H19-H20</f>
+        <v>849</v>
+      </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
+      <c r="N21" s="4">
+        <f>+N19-N20</f>
+        <v>2009</v>
+      </c>
+      <c r="O21" s="4">
+        <f>+O19-O20</f>
+        <v>1538</v>
+      </c>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
@@ -1934,25 +2121,35 @@
     </row>
     <row r="22" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4">
-        <v>24</v>
-      </c>
-      <c r="F22" s="4"/>
+        <v>758</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="4"/>
+        <v>846</v>
+      </c>
       <c r="G22" s="4">
-        <v>38</v>
-      </c>
-      <c r="H22" s="4"/>
+        <v>755</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="5"/>
+        <v>757</v>
+      </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
+      <c r="N22" s="4">
+        <v>1604</v>
+      </c>
+      <c r="O22" s="4">
+        <v>1512</v>
+      </c>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
@@ -2005,39 +2202,35 @@
     </row>
     <row r="23" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="4">
-        <f t="shared" ref="C23:F23" si="5">+C20+C21-C22</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="4">
+        <v>27</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4">
+        <v>6</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="G23" s="4">
+        <v>13</v>
+      </c>
+      <c r="H23" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="4">
-        <f t="shared" si="5"/>
-        <v>219</v>
-      </c>
-      <c r="F23" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="4">
-        <f>+G20+G21-G22</f>
-        <v>-80</v>
-      </c>
-      <c r="H23" s="4">
-        <f>+H20+H21-H22</f>
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
+      <c r="N23" s="4">
+        <v>13</v>
+      </c>
+      <c r="O23" s="4">
+        <v>-29</v>
+      </c>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
@@ -2090,25 +2283,57 @@
     </row>
     <row r="24" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" ref="C24:F24" si="9">+C21-C22+C23</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="E24" s="4">
-        <v>60</v>
-      </c>
-      <c r="F24" s="4"/>
+        <f t="shared" si="9"/>
+        <v>223</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="9"/>
+        <v>195</v>
+      </c>
       <c r="G24" s="4">
-        <v>-6</v>
-      </c>
-      <c r="H24" s="4"/>
+        <f>+G21-G22+G23</f>
+        <v>-53</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" ref="H24:O24" si="10">+H21-H22+H23</f>
+        <v>50</v>
+      </c>
       <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
+      <c r="J24" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="4">
+        <f t="shared" si="10"/>
+        <v>418</v>
+      </c>
+      <c r="O24" s="4">
+        <f t="shared" si="10"/>
+        <v>-3</v>
+      </c>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
@@ -2161,39 +2386,35 @@
     </row>
     <row r="25" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="4">
-        <f t="shared" ref="C25:F25" si="6">+C23-C24</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="4">
-        <f t="shared" si="6"/>
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
       <c r="G25" s="4">
-        <f>+G23-G24</f>
-        <v>-74</v>
+        <v>11</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" ref="H25" si="7">+H23-H24</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
+      <c r="N25" s="4">
+        <v>31</v>
+      </c>
+      <c r="O25" s="4">
+        <v>25</v>
+      </c>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
@@ -2246,25 +2467,35 @@
     </row>
     <row r="26" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4">
-        <v>1</v>
-      </c>
-      <c r="F26" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
       <c r="G26" s="4">
-        <v>0</v>
-      </c>
-      <c r="H26" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
+      <c r="N26" s="4">
+        <v>66</v>
+      </c>
+      <c r="O26" s="4">
+        <v>88</v>
+      </c>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
@@ -2317,39 +2548,57 @@
     </row>
     <row r="27" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" ref="C27:D27" si="8">+C25-C26</f>
+        <f t="shared" ref="C27:F27" si="11">+C24+C25-C26</f>
         <v>0</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E27" s="4">
-        <f>+E25-E26</f>
-        <v>158</v>
+        <f t="shared" si="11"/>
+        <v>219</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" ref="F27:H27" si="9">+F25-F26</f>
+        <f t="shared" si="11"/>
+        <v>164</v>
+      </c>
+      <c r="G27" s="4">
+        <f>+G24+G25-G26</f>
+        <v>-80</v>
+      </c>
+      <c r="H27" s="4">
+        <f>+H24+H25-H26</f>
+        <v>14</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4">
+        <f t="shared" ref="J27:O27" si="12">+J24+J25-J26</f>
         <v>0</v>
       </c>
-      <c r="G27" s="4">
-        <f t="shared" si="9"/>
-        <v>-74</v>
-      </c>
-      <c r="H27" s="4">
-        <f t="shared" si="9"/>
+      <c r="K27" s="4">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
+      <c r="L27" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="4">
+        <f t="shared" si="12"/>
+        <v>383</v>
+      </c>
+      <c r="O27" s="4">
+        <f t="shared" si="12"/>
+        <v>-66</v>
+      </c>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
@@ -2401,19 +2650,36 @@
       <c r="BL27" s="4"/>
     </row>
     <row r="28" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
+      <c r="E28" s="4">
+        <v>60</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="G28" s="4">
+        <v>-6</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
+      <c r="N28" s="4">
+        <v>112</v>
+      </c>
+      <c r="O28" s="4">
+        <v>9</v>
+      </c>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
@@ -2466,39 +2732,57 @@
     </row>
     <row r="29" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="3" t="e">
-        <f t="shared" ref="C29:D29" si="10">+C27/C30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D29" s="3" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E29" s="3">
-        <f>+E27/E30</f>
-        <v>0.42347896006432589</v>
-      </c>
-      <c r="F29" s="3" t="e">
-        <f t="shared" ref="F29:H29" si="11">+F27/F30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G29" s="3">
-        <f t="shared" si="11"/>
-        <v>-0.20710887209627762</v>
-      </c>
-      <c r="H29" s="3" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>33</v>
+      </c>
+      <c r="C29" s="4">
+        <f t="shared" ref="C29:F29" si="13">+C27-C28</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="13"/>
+        <v>159</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" si="13"/>
+        <v>112</v>
+      </c>
+      <c r="G29" s="4">
+        <f>+G27-G28</f>
+        <v>-74</v>
+      </c>
+      <c r="H29" s="4">
+        <f t="shared" ref="H29:O29" si="14">+H27-H28</f>
+        <v>-1</v>
       </c>
       <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
+      <c r="J29" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="4">
+        <f t="shared" si="14"/>
+        <v>271</v>
+      </c>
+      <c r="O29" s="4">
+        <f t="shared" si="14"/>
+        <v>-75</v>
+      </c>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
@@ -2551,25 +2835,35 @@
     </row>
     <row r="30" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4">
-        <v>373.1</v>
-      </c>
-      <c r="F30" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="G30" s="4">
-        <v>357.3</v>
-      </c>
-      <c r="H30" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
+      <c r="N30" s="4">
+        <v>1</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0</v>
+      </c>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
@@ -2621,19 +2915,58 @@
       <c r="BL30" s="4"/>
     </row>
     <row r="31" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="4">
+        <f t="shared" ref="C31:D31" si="15">+C29-C30</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <f>+E29-E30</f>
+        <v>158</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" ref="F31:O31" si="16">+F29-F30</f>
+        <v>112</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="16"/>
+        <v>-74</v>
+      </c>
+      <c r="H31" s="4">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
       <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
+      <c r="J31" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="4">
+        <f t="shared" si="16"/>
+        <v>270</v>
+      </c>
+      <c r="O31" s="4">
+        <f t="shared" si="16"/>
+        <v>-75</v>
+      </c>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
@@ -2748,20 +3081,56 @@
       <c r="BK32" s="4"/>
       <c r="BL32" s="4"/>
     </row>
-    <row r="33" spans="3:64" x14ac:dyDescent="0.25">
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
+    <row r="33" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="3" t="e">
+        <f t="shared" ref="C33:D33" si="17">+C31/C34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D33" s="3" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E33" s="3">
+        <f>+E31/E34</f>
+        <v>0.42347896006432589</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" ref="F33:H33" si="18">+F31/F34</f>
+        <v>0.30584380120152921</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="18"/>
+        <v>-0.20710887209627762</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" si="18"/>
+        <v>-2.7901785714285715E-3</v>
+      </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
+      <c r="K33" s="3" t="e">
+        <f t="shared" ref="K33:N33" si="19">+K31/K34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L33" s="3" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M33" s="3" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N33" s="3">
+        <f t="shared" si="19"/>
+        <v>0.73730202075368656</v>
+      </c>
+      <c r="O33" s="3">
+        <f>+O31/O34</f>
+        <v>-0.20926339285714288</v>
+      </c>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
@@ -2812,20 +3181,37 @@
       <c r="BK33" s="4"/>
       <c r="BL33" s="4"/>
     </row>
-    <row r="34" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="E34" s="4">
+        <v>373.1</v>
+      </c>
+      <c r="F34" s="4">
+        <f>+N34</f>
+        <v>366.2</v>
+      </c>
+      <c r="G34" s="4">
+        <v>357.3</v>
+      </c>
+      <c r="H34" s="4">
+        <f>+O34</f>
+        <v>358.4</v>
+      </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
+      <c r="N34" s="4">
+        <v>366.2</v>
+      </c>
+      <c r="O34" s="4">
+        <v>358.4</v>
+      </c>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
@@ -2876,7 +3262,7 @@
       <c r="BK34" s="4"/>
       <c r="BL34" s="4"/>
     </row>
-    <row r="35" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:64" x14ac:dyDescent="0.25">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -2940,20 +3326,50 @@
       <c r="BK35" s="4"/>
       <c r="BL35" s="4"/>
     </row>
-    <row r="36" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
+      <c r="E36" s="8" t="e">
+        <f t="shared" ref="E36:G36" si="20">+E6/C6-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F36" s="8" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G36" s="8">
+        <f t="shared" si="20"/>
+        <v>1.6587677725118377E-2</v>
+      </c>
+      <c r="H36" s="8" t="e">
+        <f>+H6/F6-1</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
+      <c r="K36" s="4" t="e">
+        <f t="shared" ref="K36:O36" si="21">+K6/J6-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L36" s="4" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M36" s="4" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N36" s="4" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O36" s="4" t="e">
+        <f>+O6/N6-1</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
@@ -3004,20 +3420,50 @@
       <c r="BK36" s="4"/>
       <c r="BL36" s="4"/>
     </row>
-    <row r="37" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
+      <c r="E37" s="8" t="e">
+        <f t="shared" ref="E37:G39" si="22">+E13/C13-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F37" s="8" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G37" s="8">
+        <f t="shared" si="22"/>
+        <v>-0.23972602739726023</v>
+      </c>
+      <c r="H37" s="8">
+        <f>+H13/F13-1</f>
+        <v>-0.14672364672364668</v>
+      </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
+      <c r="K37" s="8" t="e">
+        <f t="shared" ref="K37:O38" si="23">+K13/J13-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L37" s="8" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M37" s="8" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N37" s="8" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O37" s="8">
+        <f t="shared" ref="O37:O38" si="24">+O13/N13-1</f>
+        <v>-0.18895800933125972</v>
+      </c>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
@@ -3068,20 +3514,50 @@
       <c r="BK37" s="4"/>
       <c r="BL37" s="4"/>
     </row>
-    <row r="38" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
+      <c r="E38" s="8" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F38" s="8" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G38" s="8">
+        <f t="shared" si="22"/>
+        <v>-0.19175257731958761</v>
+      </c>
+      <c r="H38" s="8">
+        <f t="shared" ref="H38:H39" si="25">+H14/F14-1</f>
+        <v>-0.15413533834586468</v>
+      </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
+      <c r="K38" s="8" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L38" s="8" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M38" s="8" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N38" s="8" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O38" s="8">
+        <f t="shared" si="24"/>
+        <v>-0.17207472959685344</v>
+      </c>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
@@ -3132,20 +3608,50 @@
       <c r="BK38" s="4"/>
       <c r="BL38" s="4"/>
     </row>
-    <row r="39" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
+      <c r="E39" s="8" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F39" s="8" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G39" s="8">
+        <f t="shared" si="22"/>
+        <v>-0.26351351351351349</v>
+      </c>
+      <c r="H39" s="8">
+        <f t="shared" si="25"/>
+        <v>-4.8859934853420217E-2</v>
+      </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
+      <c r="K39" s="8" t="e">
+        <f t="shared" ref="K39:O39" si="26">+K15/J15-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L39" s="8" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M39" s="8" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N39" s="8" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O39" s="8">
+        <f>+O15/N15-1</f>
+        <v>-0.154228855721393</v>
+      </c>
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
@@ -3196,30 +3702,60 @@
       <c r="BK39" s="4"/>
       <c r="BL39" s="4"/>
     </row>
-    <row r="40" spans="3:64" x14ac:dyDescent="0.25">
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="4"/>
+    <row r="40" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="9" t="e">
+        <f t="shared" ref="E40:G40" si="27">+E19/C19-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F40" s="9" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G40" s="9">
+        <f t="shared" si="27"/>
+        <v>-0.22206303724928367</v>
+      </c>
+      <c r="H40" s="9">
+        <f>+H19/F19-1</f>
+        <v>-0.12531806615776087</v>
+      </c>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="9" t="e">
+        <f t="shared" ref="K40:O40" si="28">+K19/J19-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L40" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M40" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N40" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O40" s="9">
+        <f>+O19/N19-1</f>
+        <v>-0.17082210242587603</v>
+      </c>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
       <c r="Z40" s="4"/>
       <c r="AA40" s="4"/>
       <c r="AB40" s="4"/>
@@ -3260,20 +3796,59 @@
       <c r="BK40" s="4"/>
       <c r="BL40" s="4"/>
     </row>
-    <row r="41" spans="3:64" x14ac:dyDescent="0.25">
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
+    <row r="41" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="8" t="e">
+        <f t="shared" ref="C41:H41" si="29">+C21/C19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D41" s="8" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E41" s="8">
+        <f t="shared" si="29"/>
+        <v>0.6984240687679083</v>
+      </c>
+      <c r="F41" s="8">
+        <f t="shared" si="29"/>
+        <v>0.65776081424936383</v>
+      </c>
+      <c r="G41" s="8">
+        <f t="shared" si="29"/>
+        <v>0.63443830570902393</v>
+      </c>
+      <c r="H41" s="8">
+        <f>+H21/H19</f>
+        <v>0.61745454545454548</v>
+      </c>
       <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
+      <c r="J41" s="8" t="e">
+        <f t="shared" ref="J41:O41" si="30">+J21/J19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K41" s="8" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L41" s="8" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M41" s="8" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N41" s="8">
+        <f t="shared" si="30"/>
+        <v>0.67688679245283023</v>
+      </c>
+      <c r="O41" s="8">
+        <f t="shared" si="30"/>
+        <v>0.62494920763917106</v>
+      </c>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
@@ -3324,20 +3899,59 @@
       <c r="BK41" s="4"/>
       <c r="BL41" s="4"/>
     </row>
-    <row r="42" spans="3:64" x14ac:dyDescent="0.25">
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
+    <row r="42" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="8" t="e">
+        <f t="shared" ref="C42:H42" si="31">+C24/C19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D42" s="8" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E42" s="8">
+        <f t="shared" si="31"/>
+        <v>0.15974212034383956</v>
+      </c>
+      <c r="F42" s="8">
+        <f t="shared" si="31"/>
+        <v>0.12404580152671756</v>
+      </c>
+      <c r="G42" s="8">
+        <f t="shared" si="31"/>
+        <v>-4.8802946593001842E-2</v>
+      </c>
+      <c r="H42" s="8">
+        <f>+H24/H19</f>
+        <v>3.6363636363636362E-2</v>
+      </c>
       <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
+      <c r="J42" s="8" t="e">
+        <f t="shared" ref="J42:O42" si="32">+J24/J19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K42" s="8" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L42" s="8" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M42" s="8" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N42" s="8">
+        <f t="shared" si="32"/>
+        <v>0.14083557951482481</v>
+      </c>
+      <c r="O42" s="8">
+        <f t="shared" si="32"/>
+        <v>-1.2190166598943519E-3</v>
+      </c>
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
@@ -3388,20 +4002,59 @@
       <c r="BK42" s="4"/>
       <c r="BL42" s="4"/>
     </row>
-    <row r="43" spans="3:64" x14ac:dyDescent="0.25">
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
+    <row r="43" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="8" t="e">
+        <f t="shared" ref="C43:H43" si="33">+C28/C27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D43" s="8" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E43" s="8">
+        <f t="shared" si="33"/>
+        <v>0.27397260273972601</v>
+      </c>
+      <c r="F43" s="8">
+        <f t="shared" si="33"/>
+        <v>0.31707317073170732</v>
+      </c>
+      <c r="G43" s="8">
+        <f t="shared" si="33"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H43" s="8">
+        <f>+H28/H27</f>
+        <v>1.0714285714285714</v>
+      </c>
       <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
+      <c r="J43" s="8" t="e">
+        <f t="shared" ref="J43:O43" si="34">+J28/J27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K43" s="8" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L43" s="8" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M43" s="8" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N43" s="8">
+        <f t="shared" si="34"/>
+        <v>0.29242819843342038</v>
+      </c>
+      <c r="O43" s="8">
+        <f t="shared" si="34"/>
+        <v>-0.13636363636363635</v>
+      </c>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
@@ -3452,7 +4105,7 @@
       <c r="BK43" s="4"/>
       <c r="BL43" s="4"/>
     </row>
-    <row r="44" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:64" x14ac:dyDescent="0.25">
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -3516,7 +4169,7 @@
       <c r="BK44" s="4"/>
       <c r="BL44" s="4"/>
     </row>
-    <row r="45" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:64" x14ac:dyDescent="0.25">
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -3580,7 +4233,7 @@
       <c r="BK45" s="4"/>
       <c r="BL45" s="4"/>
     </row>
-    <row r="46" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:64" x14ac:dyDescent="0.25">
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -3644,7 +4297,7 @@
       <c r="BK46" s="4"/>
       <c r="BL46" s="4"/>
     </row>
-    <row r="47" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:64" x14ac:dyDescent="0.25">
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -3708,7 +4361,7 @@
       <c r="BK47" s="4"/>
       <c r="BL47" s="4"/>
     </row>
-    <row r="48" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:64" x14ac:dyDescent="0.25">
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -16124,6 +16777,262 @@
       <c r="BK241" s="4"/>
       <c r="BL241" s="4"/>
     </row>
+    <row r="242" spans="3:64" x14ac:dyDescent="0.25">
+      <c r="C242" s="4"/>
+      <c r="D242" s="4"/>
+      <c r="E242" s="4"/>
+      <c r="F242" s="4"/>
+      <c r="G242" s="4"/>
+      <c r="H242" s="4"/>
+      <c r="I242" s="4"/>
+      <c r="J242" s="4"/>
+      <c r="K242" s="4"/>
+      <c r="L242" s="4"/>
+      <c r="M242" s="4"/>
+      <c r="N242" s="4"/>
+      <c r="O242" s="4"/>
+      <c r="P242" s="4"/>
+      <c r="Q242" s="4"/>
+      <c r="R242" s="4"/>
+      <c r="S242" s="4"/>
+      <c r="T242" s="4"/>
+      <c r="U242" s="4"/>
+      <c r="V242" s="4"/>
+      <c r="W242" s="4"/>
+      <c r="X242" s="4"/>
+      <c r="Y242" s="4"/>
+      <c r="Z242" s="4"/>
+      <c r="AA242" s="4"/>
+      <c r="AB242" s="4"/>
+      <c r="AC242" s="4"/>
+      <c r="AD242" s="4"/>
+      <c r="AE242" s="4"/>
+      <c r="AF242" s="4"/>
+      <c r="AG242" s="4"/>
+      <c r="AH242" s="4"/>
+      <c r="AI242" s="4"/>
+      <c r="AJ242" s="4"/>
+      <c r="AK242" s="4"/>
+      <c r="AL242" s="4"/>
+      <c r="AM242" s="4"/>
+      <c r="AN242" s="4"/>
+      <c r="AO242" s="4"/>
+      <c r="AP242" s="4"/>
+      <c r="AQ242" s="4"/>
+      <c r="AR242" s="4"/>
+      <c r="AS242" s="4"/>
+      <c r="AT242" s="4"/>
+      <c r="AU242" s="4"/>
+      <c r="AV242" s="4"/>
+      <c r="AW242" s="4"/>
+      <c r="AX242" s="4"/>
+      <c r="AY242" s="4"/>
+      <c r="AZ242" s="4"/>
+      <c r="BA242" s="4"/>
+      <c r="BB242" s="4"/>
+      <c r="BC242" s="4"/>
+      <c r="BD242" s="4"/>
+      <c r="BE242" s="4"/>
+      <c r="BF242" s="4"/>
+      <c r="BG242" s="4"/>
+      <c r="BH242" s="4"/>
+      <c r="BI242" s="4"/>
+      <c r="BJ242" s="4"/>
+      <c r="BK242" s="4"/>
+      <c r="BL242" s="4"/>
+    </row>
+    <row r="243" spans="3:64" x14ac:dyDescent="0.25">
+      <c r="C243" s="4"/>
+      <c r="D243" s="4"/>
+      <c r="E243" s="4"/>
+      <c r="F243" s="4"/>
+      <c r="G243" s="4"/>
+      <c r="H243" s="4"/>
+      <c r="I243" s="4"/>
+      <c r="J243" s="4"/>
+      <c r="K243" s="4"/>
+      <c r="L243" s="4"/>
+      <c r="M243" s="4"/>
+      <c r="N243" s="4"/>
+      <c r="O243" s="4"/>
+      <c r="P243" s="4"/>
+      <c r="Q243" s="4"/>
+      <c r="R243" s="4"/>
+      <c r="S243" s="4"/>
+      <c r="T243" s="4"/>
+      <c r="U243" s="4"/>
+      <c r="V243" s="4"/>
+      <c r="W243" s="4"/>
+      <c r="X243" s="4"/>
+      <c r="Y243" s="4"/>
+      <c r="Z243" s="4"/>
+      <c r="AA243" s="4"/>
+      <c r="AB243" s="4"/>
+      <c r="AC243" s="4"/>
+      <c r="AD243" s="4"/>
+      <c r="AE243" s="4"/>
+      <c r="AF243" s="4"/>
+      <c r="AG243" s="4"/>
+      <c r="AH243" s="4"/>
+      <c r="AI243" s="4"/>
+      <c r="AJ243" s="4"/>
+      <c r="AK243" s="4"/>
+      <c r="AL243" s="4"/>
+      <c r="AM243" s="4"/>
+      <c r="AN243" s="4"/>
+      <c r="AO243" s="4"/>
+      <c r="AP243" s="4"/>
+      <c r="AQ243" s="4"/>
+      <c r="AR243" s="4"/>
+      <c r="AS243" s="4"/>
+      <c r="AT243" s="4"/>
+      <c r="AU243" s="4"/>
+      <c r="AV243" s="4"/>
+      <c r="AW243" s="4"/>
+      <c r="AX243" s="4"/>
+      <c r="AY243" s="4"/>
+      <c r="AZ243" s="4"/>
+      <c r="BA243" s="4"/>
+      <c r="BB243" s="4"/>
+      <c r="BC243" s="4"/>
+      <c r="BD243" s="4"/>
+      <c r="BE243" s="4"/>
+      <c r="BF243" s="4"/>
+      <c r="BG243" s="4"/>
+      <c r="BH243" s="4"/>
+      <c r="BI243" s="4"/>
+      <c r="BJ243" s="4"/>
+      <c r="BK243" s="4"/>
+      <c r="BL243" s="4"/>
+    </row>
+    <row r="244" spans="3:64" x14ac:dyDescent="0.25">
+      <c r="C244" s="4"/>
+      <c r="D244" s="4"/>
+      <c r="E244" s="4"/>
+      <c r="F244" s="4"/>
+      <c r="G244" s="4"/>
+      <c r="H244" s="4"/>
+      <c r="I244" s="4"/>
+      <c r="J244" s="4"/>
+      <c r="K244" s="4"/>
+      <c r="L244" s="4"/>
+      <c r="M244" s="4"/>
+      <c r="N244" s="4"/>
+      <c r="O244" s="4"/>
+      <c r="P244" s="4"/>
+      <c r="Q244" s="4"/>
+      <c r="R244" s="4"/>
+      <c r="S244" s="4"/>
+      <c r="T244" s="4"/>
+      <c r="U244" s="4"/>
+      <c r="V244" s="4"/>
+      <c r="W244" s="4"/>
+      <c r="X244" s="4"/>
+      <c r="Y244" s="4"/>
+      <c r="Z244" s="4"/>
+      <c r="AA244" s="4"/>
+      <c r="AB244" s="4"/>
+      <c r="AC244" s="4"/>
+      <c r="AD244" s="4"/>
+      <c r="AE244" s="4"/>
+      <c r="AF244" s="4"/>
+      <c r="AG244" s="4"/>
+      <c r="AH244" s="4"/>
+      <c r="AI244" s="4"/>
+      <c r="AJ244" s="4"/>
+      <c r="AK244" s="4"/>
+      <c r="AL244" s="4"/>
+      <c r="AM244" s="4"/>
+      <c r="AN244" s="4"/>
+      <c r="AO244" s="4"/>
+      <c r="AP244" s="4"/>
+      <c r="AQ244" s="4"/>
+      <c r="AR244" s="4"/>
+      <c r="AS244" s="4"/>
+      <c r="AT244" s="4"/>
+      <c r="AU244" s="4"/>
+      <c r="AV244" s="4"/>
+      <c r="AW244" s="4"/>
+      <c r="AX244" s="4"/>
+      <c r="AY244" s="4"/>
+      <c r="AZ244" s="4"/>
+      <c r="BA244" s="4"/>
+      <c r="BB244" s="4"/>
+      <c r="BC244" s="4"/>
+      <c r="BD244" s="4"/>
+      <c r="BE244" s="4"/>
+      <c r="BF244" s="4"/>
+      <c r="BG244" s="4"/>
+      <c r="BH244" s="4"/>
+      <c r="BI244" s="4"/>
+      <c r="BJ244" s="4"/>
+      <c r="BK244" s="4"/>
+      <c r="BL244" s="4"/>
+    </row>
+    <row r="245" spans="3:64" x14ac:dyDescent="0.25">
+      <c r="C245" s="4"/>
+      <c r="D245" s="4"/>
+      <c r="E245" s="4"/>
+      <c r="F245" s="4"/>
+      <c r="G245" s="4"/>
+      <c r="H245" s="4"/>
+      <c r="I245" s="4"/>
+      <c r="J245" s="4"/>
+      <c r="K245" s="4"/>
+      <c r="L245" s="4"/>
+      <c r="M245" s="4"/>
+      <c r="N245" s="4"/>
+      <c r="O245" s="4"/>
+      <c r="P245" s="4"/>
+      <c r="Q245" s="4"/>
+      <c r="R245" s="4"/>
+      <c r="S245" s="4"/>
+      <c r="T245" s="4"/>
+      <c r="U245" s="4"/>
+      <c r="V245" s="4"/>
+      <c r="W245" s="4"/>
+      <c r="X245" s="4"/>
+      <c r="Y245" s="4"/>
+      <c r="Z245" s="4"/>
+      <c r="AA245" s="4"/>
+      <c r="AB245" s="4"/>
+      <c r="AC245" s="4"/>
+      <c r="AD245" s="4"/>
+      <c r="AE245" s="4"/>
+      <c r="AF245" s="4"/>
+      <c r="AG245" s="4"/>
+      <c r="AH245" s="4"/>
+      <c r="AI245" s="4"/>
+      <c r="AJ245" s="4"/>
+      <c r="AK245" s="4"/>
+      <c r="AL245" s="4"/>
+      <c r="AM245" s="4"/>
+      <c r="AN245" s="4"/>
+      <c r="AO245" s="4"/>
+      <c r="AP245" s="4"/>
+      <c r="AQ245" s="4"/>
+      <c r="AR245" s="4"/>
+      <c r="AS245" s="4"/>
+      <c r="AT245" s="4"/>
+      <c r="AU245" s="4"/>
+      <c r="AV245" s="4"/>
+      <c r="AW245" s="4"/>
+      <c r="AX245" s="4"/>
+      <c r="AY245" s="4"/>
+      <c r="AZ245" s="4"/>
+      <c r="BA245" s="4"/>
+      <c r="BB245" s="4"/>
+      <c r="BC245" s="4"/>
+      <c r="BD245" s="4"/>
+      <c r="BE245" s="4"/>
+      <c r="BF245" s="4"/>
+      <c r="BG245" s="4"/>
+      <c r="BH245" s="4"/>
+      <c r="BI245" s="4"/>
+      <c r="BJ245" s="4"/>
+      <c r="BK245" s="4"/>
+      <c r="BL245" s="4"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{33D47459-849F-4542-A880-18DF3E1185D8}"/>

--- a/BRBY.L.xlsx
+++ b/BRBY.L.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E537B0-91C6-4A6A-BDF3-AE69729BBD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDAEE0B-7D4B-486B-98C5-4D92A933C038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{C3EE2D3B-35B1-4886-BA08-2254D8777D41}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{C3EE2D3B-35B1-4886-BA08-2254D8777D41}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>Burberry</t>
   </si>
@@ -165,9 +165,6 @@
     <t>H125</t>
   </si>
   <si>
-    <t>FQ425</t>
-  </si>
-  <si>
     <t>FY20</t>
   </si>
   <si>
@@ -226,6 +223,15 @@
   </si>
   <si>
     <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>CEO: Joshua Schulman</t>
+  </si>
+  <si>
+    <t>CFO: Kate Ferry</t>
+  </si>
+  <si>
+    <t>Q126</t>
   </si>
 </sst>
 </file>
@@ -646,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D318A59-04E4-437E-917F-15FBBC078F39}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,7 +674,7 @@
         <v>3</v>
       </c>
       <c r="I2">
-        <v>9.48</v>
+        <v>12.835000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -679,7 +685,7 @@
         <v>358.4</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -691,7 +697,7 @@
       </c>
       <c r="I4" s="4">
         <f>+I2*I3</f>
-        <v>3397.6320000000001</v>
+        <v>4600.0640000000003</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -705,7 +711,7 @@
         <v>813</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -717,7 +723,7 @@
         <v>843</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -726,17 +732,23 @@
       </c>
       <c r="I7" s="4">
         <f>+I4-I5+I6</f>
-        <v>3427.6320000000001</v>
+        <v>4630.0640000000003</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="H9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="H10" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -751,11 +763,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3C5E70-D9BC-490B-A35F-97759AFDB091}">
   <dimension ref="A1:BL245"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,22 +802,22 @@
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:64" x14ac:dyDescent="0.25">
@@ -1162,7 +1174,7 @@
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1227,7 +1239,7 @@
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1292,7 +1304,7 @@
     </row>
     <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1357,7 +1369,7 @@
     </row>
     <row r="12" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -3328,7 +3340,7 @@
     </row>
     <row r="36" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -3351,7 +3363,7 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4" t="e">
-        <f t="shared" ref="K36:O36" si="21">+K6/J6-1</f>
+        <f t="shared" ref="K36:N36" si="21">+K6/J6-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L36" s="4" t="e">
@@ -3422,7 +3434,7 @@
     </row>
     <row r="37" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -3445,7 +3457,7 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="8" t="e">
-        <f t="shared" ref="K37:O38" si="23">+K13/J13-1</f>
+        <f t="shared" ref="K37:N38" si="23">+K13/J13-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L37" s="8" t="e">
@@ -3516,7 +3528,7 @@
     </row>
     <row r="38" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -3610,7 +3622,7 @@
     </row>
     <row r="39" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -3633,7 +3645,7 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="8" t="e">
-        <f t="shared" ref="K39:O39" si="26">+K15/J15-1</f>
+        <f t="shared" ref="K39:N39" si="26">+K15/J15-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L39" s="8" t="e">
@@ -3704,7 +3716,7 @@
     </row>
     <row r="40" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -3727,7 +3739,7 @@
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="9" t="e">
-        <f t="shared" ref="K40:O40" si="28">+K19/J19-1</f>
+        <f t="shared" ref="K40:N40" si="28">+K19/J19-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L40" s="9" t="e">
@@ -3798,10 +3810,10 @@
     </row>
     <row r="41" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41" s="8" t="e">
-        <f t="shared" ref="C41:H41" si="29">+C21/C19</f>
+        <f t="shared" ref="C41:G41" si="29">+C21/C19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D41" s="8" t="e">
@@ -3901,10 +3913,10 @@
     </row>
     <row r="42" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42" s="8" t="e">
-        <f t="shared" ref="C42:H42" si="31">+C24/C19</f>
+        <f t="shared" ref="C42:G42" si="31">+C24/C19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D42" s="8" t="e">
@@ -4004,10 +4016,10 @@
     </row>
     <row r="43" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" s="8" t="e">
-        <f t="shared" ref="C43:H43" si="33">+C28/C27</f>
+        <f t="shared" ref="C43:G43" si="33">+C28/C27</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D43" s="8" t="e">

--- a/BRBY.L.xlsx
+++ b/BRBY.L.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDAEE0B-7D4B-486B-98C5-4D92A933C038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF7598B-15A7-4321-A56D-8DFB5B500F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{C3EE2D3B-35B1-4886-BA08-2254D8777D41}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{C3EE2D3B-35B1-4886-BA08-2254D8777D41}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -238,7 +238,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,12 +247,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -271,12 +269,25 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -301,19 +312,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -652,47 +664,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D318A59-04E4-437E-917F-15FBBC078F39}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:J6"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>12.835000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="4">
         <v>358.4</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="4">
@@ -700,34 +713,34 @@
         <v>4600.0640000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="4">
         <v>813</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="4">
         <f>105+438+300</f>
         <v>843</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="4">
@@ -735,19 +748,19 @@
         <v>4630.0640000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -763,65 +776,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3C5E70-D9BC-490B-A35F-97759AFDB091}">
   <dimension ref="A1:BL245"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="C2" s="5" t="s">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5" t="s">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="4"/>
@@ -878,8 +892,8 @@
       <c r="AU3" s="4"/>
       <c r="AV3" s="4"/>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="4"/>
@@ -936,8 +950,8 @@
       <c r="AU4" s="4"/>
       <c r="AV4" s="4"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="4"/>
@@ -994,8 +1008,8 @@
       <c r="AU5" s="4"/>
       <c r="AV5" s="4"/>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="6"/>
@@ -1066,8 +1080,8 @@
       <c r="AU6" s="4"/>
       <c r="AV6" s="4"/>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="4"/>
@@ -1124,7 +1138,7 @@
       <c r="AU7" s="4"/>
       <c r="AV7" s="4"/>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.2">
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1172,8 +1186,8 @@
       <c r="AU8" s="4"/>
       <c r="AV8" s="4"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C9" s="4"/>
@@ -1237,8 +1251,8 @@
       <c r="AU9" s="4"/>
       <c r="AV9" s="4"/>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C10" s="4"/>
@@ -1302,8 +1316,8 @@
       <c r="AU10" s="4"/>
       <c r="AV10" s="4"/>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C11" s="4"/>
@@ -1367,8 +1381,8 @@
       <c r="AU11" s="4"/>
       <c r="AV11" s="4"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C12" s="4"/>
@@ -1432,8 +1446,8 @@
       <c r="AU12" s="4"/>
       <c r="AV12" s="4"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="4"/>
@@ -1497,8 +1511,8 @@
       <c r="AU13" s="4"/>
       <c r="AV13" s="4"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="4"/>
@@ -1562,8 +1576,8 @@
       <c r="AU14" s="4"/>
       <c r="AV14" s="4"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="4"/>
@@ -1627,8 +1641,8 @@
       <c r="AU15" s="4"/>
       <c r="AV15" s="4"/>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="4"/>
@@ -1708,8 +1722,8 @@
       <c r="BK16" s="4"/>
       <c r="BL16" s="4"/>
     </row>
-    <row r="17" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="4"/>
@@ -1789,8 +1803,8 @@
       <c r="BK17" s="4"/>
       <c r="BL17" s="4"/>
     </row>
-    <row r="18" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="4"/>
@@ -1870,8 +1884,8 @@
       <c r="BK18" s="4"/>
       <c r="BL18" s="4"/>
     </row>
-    <row r="19" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+    <row r="19" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="6">
@@ -1959,8 +1973,8 @@
       <c r="BK19" s="4"/>
       <c r="BL19" s="4"/>
     </row>
-    <row r="20" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="4"/>
@@ -2040,8 +2054,8 @@
       <c r="BK20" s="4"/>
       <c r="BL20" s="4"/>
     </row>
-    <row r="21" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="4">
@@ -2131,8 +2145,8 @@
       <c r="BK21" s="4"/>
       <c r="BL21" s="4"/>
     </row>
-    <row r="22" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="4"/>
@@ -2212,8 +2226,8 @@
       <c r="BK22" s="4"/>
       <c r="BL22" s="4"/>
     </row>
-    <row r="23" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="4"/>
@@ -2293,8 +2307,8 @@
       <c r="BK23" s="4"/>
       <c r="BL23" s="4"/>
     </row>
-    <row r="24" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="4">
@@ -2396,8 +2410,8 @@
       <c r="BK24" s="4"/>
       <c r="BL24" s="4"/>
     </row>
-    <row r="25" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="4"/>
@@ -2477,8 +2491,8 @@
       <c r="BK25" s="4"/>
       <c r="BL25" s="4"/>
     </row>
-    <row r="26" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="4"/>
@@ -2558,8 +2572,8 @@
       <c r="BK26" s="4"/>
       <c r="BL26" s="4"/>
     </row>
-    <row r="27" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="4">
@@ -2661,8 +2675,8 @@
       <c r="BK27" s="4"/>
       <c r="BL27" s="4"/>
     </row>
-    <row r="28" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="4"/>
@@ -2742,8 +2756,8 @@
       <c r="BK28" s="4"/>
       <c r="BL28" s="4"/>
     </row>
-    <row r="29" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="4">
@@ -2845,8 +2859,8 @@
       <c r="BK29" s="4"/>
       <c r="BL29" s="4"/>
     </row>
-    <row r="30" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="4"/>
@@ -2926,8 +2940,8 @@
       <c r="BK30" s="4"/>
       <c r="BL30" s="4"/>
     </row>
-    <row r="31" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="31" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C31" s="4">
@@ -3029,7 +3043,7 @@
       <c r="BK31" s="4"/>
       <c r="BL31" s="4"/>
     </row>
-    <row r="32" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:64" x14ac:dyDescent="0.2">
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -3093,53 +3107,53 @@
       <c r="BK32" s="4"/>
       <c r="BL32" s="4"/>
     </row>
-    <row r="33" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="33" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="3" t="e">
+      <c r="C33" s="7" t="e">
         <f t="shared" ref="C33:D33" si="17">+C31/C34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D33" s="3" t="e">
+      <c r="D33" s="7" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="7">
         <f>+E31/E34</f>
         <v>0.42347896006432589</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="7">
         <f t="shared" ref="F33:H33" si="18">+F31/F34</f>
         <v>0.30584380120152921</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="7">
         <f t="shared" si="18"/>
         <v>-0.20710887209627762</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="7">
         <f t="shared" si="18"/>
         <v>-2.7901785714285715E-3</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="3" t="e">
+      <c r="K33" s="7" t="e">
         <f t="shared" ref="K33:N33" si="19">+K31/K34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L33" s="3" t="e">
+      <c r="L33" s="7" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M33" s="3" t="e">
+      <c r="M33" s="7" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="7">
         <f t="shared" si="19"/>
         <v>0.73730202075368656</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33" s="7">
         <f>+O31/O34</f>
         <v>-0.20926339285714288</v>
       </c>
@@ -3193,8 +3207,8 @@
       <c r="BK33" s="4"/>
       <c r="BL33" s="4"/>
     </row>
-    <row r="34" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="34" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="4"/>
@@ -3274,7 +3288,7 @@
       <c r="BK34" s="4"/>
       <c r="BL34" s="4"/>
     </row>
-    <row r="35" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:64" x14ac:dyDescent="0.2">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -3338,8 +3352,8 @@
       <c r="BK35" s="4"/>
       <c r="BL35" s="4"/>
     </row>
-    <row r="36" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="36" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C36" s="4"/>
@@ -3432,8 +3446,8 @@
       <c r="BK36" s="4"/>
       <c r="BL36" s="4"/>
     </row>
-    <row r="37" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="37" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C37" s="4"/>
@@ -3526,8 +3540,8 @@
       <c r="BK37" s="4"/>
       <c r="BL37" s="4"/>
     </row>
-    <row r="38" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="38" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C38" s="4"/>
@@ -3620,8 +3634,8 @@
       <c r="BK38" s="4"/>
       <c r="BL38" s="4"/>
     </row>
-    <row r="39" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="39" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C39" s="4"/>
@@ -3714,8 +3728,8 @@
       <c r="BK39" s="4"/>
       <c r="BL39" s="4"/>
     </row>
-    <row r="40" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
+    <row r="40" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B40" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C40" s="6"/>
@@ -3808,8 +3822,8 @@
       <c r="BK40" s="4"/>
       <c r="BL40" s="4"/>
     </row>
-    <row r="41" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="41" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C41" s="8" t="e">
@@ -3911,8 +3925,8 @@
       <c r="BK41" s="4"/>
       <c r="BL41" s="4"/>
     </row>
-    <row r="42" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="42" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C42" s="8" t="e">
@@ -4014,8 +4028,8 @@
       <c r="BK42" s="4"/>
       <c r="BL42" s="4"/>
     </row>
-    <row r="43" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="43" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C43" s="8" t="e">
@@ -4117,7 +4131,7 @@
       <c r="BK43" s="4"/>
       <c r="BL43" s="4"/>
     </row>
-    <row r="44" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:64" x14ac:dyDescent="0.2">
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -4181,7 +4195,7 @@
       <c r="BK44" s="4"/>
       <c r="BL44" s="4"/>
     </row>
-    <row r="45" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:64" x14ac:dyDescent="0.2">
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -4245,7 +4259,7 @@
       <c r="BK45" s="4"/>
       <c r="BL45" s="4"/>
     </row>
-    <row r="46" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:64" x14ac:dyDescent="0.2">
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -4309,7 +4323,7 @@
       <c r="BK46" s="4"/>
       <c r="BL46" s="4"/>
     </row>
-    <row r="47" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:64" x14ac:dyDescent="0.2">
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -4373,7 +4387,7 @@
       <c r="BK47" s="4"/>
       <c r="BL47" s="4"/>
     </row>
-    <row r="48" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:64" x14ac:dyDescent="0.2">
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -4437,7 +4451,7 @@
       <c r="BK48" s="4"/>
       <c r="BL48" s="4"/>
     </row>
-    <row r="49" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -4501,7 +4515,7 @@
       <c r="BK49" s="4"/>
       <c r="BL49" s="4"/>
     </row>
-    <row r="50" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -4565,7 +4579,7 @@
       <c r="BK50" s="4"/>
       <c r="BL50" s="4"/>
     </row>
-    <row r="51" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -4629,7 +4643,7 @@
       <c r="BK51" s="4"/>
       <c r="BL51" s="4"/>
     </row>
-    <row r="52" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -4693,7 +4707,7 @@
       <c r="BK52" s="4"/>
       <c r="BL52" s="4"/>
     </row>
-    <row r="53" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -4757,7 +4771,7 @@
       <c r="BK53" s="4"/>
       <c r="BL53" s="4"/>
     </row>
-    <row r="54" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -4821,7 +4835,7 @@
       <c r="BK54" s="4"/>
       <c r="BL54" s="4"/>
     </row>
-    <row r="55" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -4885,7 +4899,7 @@
       <c r="BK55" s="4"/>
       <c r="BL55" s="4"/>
     </row>
-    <row r="56" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -4949,7 +4963,7 @@
       <c r="BK56" s="4"/>
       <c r="BL56" s="4"/>
     </row>
-    <row r="57" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -5013,7 +5027,7 @@
       <c r="BK57" s="4"/>
       <c r="BL57" s="4"/>
     </row>
-    <row r="58" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -5077,7 +5091,7 @@
       <c r="BK58" s="4"/>
       <c r="BL58" s="4"/>
     </row>
-    <row r="59" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -5141,7 +5155,7 @@
       <c r="BK59" s="4"/>
       <c r="BL59" s="4"/>
     </row>
-    <row r="60" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -5205,7 +5219,7 @@
       <c r="BK60" s="4"/>
       <c r="BL60" s="4"/>
     </row>
-    <row r="61" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -5269,7 +5283,7 @@
       <c r="BK61" s="4"/>
       <c r="BL61" s="4"/>
     </row>
-    <row r="62" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -5333,7 +5347,7 @@
       <c r="BK62" s="4"/>
       <c r="BL62" s="4"/>
     </row>
-    <row r="63" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -5397,7 +5411,7 @@
       <c r="BK63" s="4"/>
       <c r="BL63" s="4"/>
     </row>
-    <row r="64" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -5461,7 +5475,7 @@
       <c r="BK64" s="4"/>
       <c r="BL64" s="4"/>
     </row>
-    <row r="65" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -5525,7 +5539,7 @@
       <c r="BK65" s="4"/>
       <c r="BL65" s="4"/>
     </row>
-    <row r="66" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -5589,7 +5603,7 @@
       <c r="BK66" s="4"/>
       <c r="BL66" s="4"/>
     </row>
-    <row r="67" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -5653,7 +5667,7 @@
       <c r="BK67" s="4"/>
       <c r="BL67" s="4"/>
     </row>
-    <row r="68" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -5717,7 +5731,7 @@
       <c r="BK68" s="4"/>
       <c r="BL68" s="4"/>
     </row>
-    <row r="69" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -5781,7 +5795,7 @@
       <c r="BK69" s="4"/>
       <c r="BL69" s="4"/>
     </row>
-    <row r="70" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -5845,7 +5859,7 @@
       <c r="BK70" s="4"/>
       <c r="BL70" s="4"/>
     </row>
-    <row r="71" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
@@ -5909,7 +5923,7 @@
       <c r="BK71" s="4"/>
       <c r="BL71" s="4"/>
     </row>
-    <row r="72" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
@@ -5973,7 +5987,7 @@
       <c r="BK72" s="4"/>
       <c r="BL72" s="4"/>
     </row>
-    <row r="73" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
@@ -6037,7 +6051,7 @@
       <c r="BK73" s="4"/>
       <c r="BL73" s="4"/>
     </row>
-    <row r="74" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
@@ -6101,7 +6115,7 @@
       <c r="BK74" s="4"/>
       <c r="BL74" s="4"/>
     </row>
-    <row r="75" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -6165,7 +6179,7 @@
       <c r="BK75" s="4"/>
       <c r="BL75" s="4"/>
     </row>
-    <row r="76" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
@@ -6229,7 +6243,7 @@
       <c r="BK76" s="4"/>
       <c r="BL76" s="4"/>
     </row>
-    <row r="77" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -6293,7 +6307,7 @@
       <c r="BK77" s="4"/>
       <c r="BL77" s="4"/>
     </row>
-    <row r="78" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
@@ -6357,7 +6371,7 @@
       <c r="BK78" s="4"/>
       <c r="BL78" s="4"/>
     </row>
-    <row r="79" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -6421,7 +6435,7 @@
       <c r="BK79" s="4"/>
       <c r="BL79" s="4"/>
     </row>
-    <row r="80" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
@@ -6485,7 +6499,7 @@
       <c r="BK80" s="4"/>
       <c r="BL80" s="4"/>
     </row>
-    <row r="81" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -6549,7 +6563,7 @@
       <c r="BK81" s="4"/>
       <c r="BL81" s="4"/>
     </row>
-    <row r="82" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
@@ -6613,7 +6627,7 @@
       <c r="BK82" s="4"/>
       <c r="BL82" s="4"/>
     </row>
-    <row r="83" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -6677,7 +6691,7 @@
       <c r="BK83" s="4"/>
       <c r="BL83" s="4"/>
     </row>
-    <row r="84" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
@@ -6741,7 +6755,7 @@
       <c r="BK84" s="4"/>
       <c r="BL84" s="4"/>
     </row>
-    <row r="85" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
@@ -6805,7 +6819,7 @@
       <c r="BK85" s="4"/>
       <c r="BL85" s="4"/>
     </row>
-    <row r="86" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
@@ -6869,7 +6883,7 @@
       <c r="BK86" s="4"/>
       <c r="BL86" s="4"/>
     </row>
-    <row r="87" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -6933,7 +6947,7 @@
       <c r="BK87" s="4"/>
       <c r="BL87" s="4"/>
     </row>
-    <row r="88" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
@@ -6997,7 +7011,7 @@
       <c r="BK88" s="4"/>
       <c r="BL88" s="4"/>
     </row>
-    <row r="89" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
@@ -7061,7 +7075,7 @@
       <c r="BK89" s="4"/>
       <c r="BL89" s="4"/>
     </row>
-    <row r="90" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -7125,7 +7139,7 @@
       <c r="BK90" s="4"/>
       <c r="BL90" s="4"/>
     </row>
-    <row r="91" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
@@ -7189,7 +7203,7 @@
       <c r="BK91" s="4"/>
       <c r="BL91" s="4"/>
     </row>
-    <row r="92" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
@@ -7253,7 +7267,7 @@
       <c r="BK92" s="4"/>
       <c r="BL92" s="4"/>
     </row>
-    <row r="93" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -7317,7 +7331,7 @@
       <c r="BK93" s="4"/>
       <c r="BL93" s="4"/>
     </row>
-    <row r="94" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
@@ -7381,7 +7395,7 @@
       <c r="BK94" s="4"/>
       <c r="BL94" s="4"/>
     </row>
-    <row r="95" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
@@ -7445,7 +7459,7 @@
       <c r="BK95" s="4"/>
       <c r="BL95" s="4"/>
     </row>
-    <row r="96" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
@@ -7509,7 +7523,7 @@
       <c r="BK96" s="4"/>
       <c r="BL96" s="4"/>
     </row>
-    <row r="97" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
@@ -7573,7 +7587,7 @@
       <c r="BK97" s="4"/>
       <c r="BL97" s="4"/>
     </row>
-    <row r="98" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
@@ -7637,7 +7651,7 @@
       <c r="BK98" s="4"/>
       <c r="BL98" s="4"/>
     </row>
-    <row r="99" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
@@ -7701,7 +7715,7 @@
       <c r="BK99" s="4"/>
       <c r="BL99" s="4"/>
     </row>
-    <row r="100" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -7765,7 +7779,7 @@
       <c r="BK100" s="4"/>
       <c r="BL100" s="4"/>
     </row>
-    <row r="101" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
@@ -7829,7 +7843,7 @@
       <c r="BK101" s="4"/>
       <c r="BL101" s="4"/>
     </row>
-    <row r="102" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
@@ -7893,7 +7907,7 @@
       <c r="BK102" s="4"/>
       <c r="BL102" s="4"/>
     </row>
-    <row r="103" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
@@ -7957,7 +7971,7 @@
       <c r="BK103" s="4"/>
       <c r="BL103" s="4"/>
     </row>
-    <row r="104" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
@@ -8021,7 +8035,7 @@
       <c r="BK104" s="4"/>
       <c r="BL104" s="4"/>
     </row>
-    <row r="105" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
@@ -8085,7 +8099,7 @@
       <c r="BK105" s="4"/>
       <c r="BL105" s="4"/>
     </row>
-    <row r="106" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
@@ -8149,7 +8163,7 @@
       <c r="BK106" s="4"/>
       <c r="BL106" s="4"/>
     </row>
-    <row r="107" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
@@ -8213,7 +8227,7 @@
       <c r="BK107" s="4"/>
       <c r="BL107" s="4"/>
     </row>
-    <row r="108" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
@@ -8277,7 +8291,7 @@
       <c r="BK108" s="4"/>
       <c r="BL108" s="4"/>
     </row>
-    <row r="109" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -8341,7 +8355,7 @@
       <c r="BK109" s="4"/>
       <c r="BL109" s="4"/>
     </row>
-    <row r="110" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
@@ -8405,7 +8419,7 @@
       <c r="BK110" s="4"/>
       <c r="BL110" s="4"/>
     </row>
-    <row r="111" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -8469,7 +8483,7 @@
       <c r="BK111" s="4"/>
       <c r="BL111" s="4"/>
     </row>
-    <row r="112" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -8533,7 +8547,7 @@
       <c r="BK112" s="4"/>
       <c r="BL112" s="4"/>
     </row>
-    <row r="113" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -8597,7 +8611,7 @@
       <c r="BK113" s="4"/>
       <c r="BL113" s="4"/>
     </row>
-    <row r="114" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -8661,7 +8675,7 @@
       <c r="BK114" s="4"/>
       <c r="BL114" s="4"/>
     </row>
-    <row r="115" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -8725,7 +8739,7 @@
       <c r="BK115" s="4"/>
       <c r="BL115" s="4"/>
     </row>
-    <row r="116" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
@@ -8789,7 +8803,7 @@
       <c r="BK116" s="4"/>
       <c r="BL116" s="4"/>
     </row>
-    <row r="117" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -8853,7 +8867,7 @@
       <c r="BK117" s="4"/>
       <c r="BL117" s="4"/>
     </row>
-    <row r="118" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -8917,7 +8931,7 @@
       <c r="BK118" s="4"/>
       <c r="BL118" s="4"/>
     </row>
-    <row r="119" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -8981,7 +8995,7 @@
       <c r="BK119" s="4"/>
       <c r="BL119" s="4"/>
     </row>
-    <row r="120" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
@@ -9045,7 +9059,7 @@
       <c r="BK120" s="4"/>
       <c r="BL120" s="4"/>
     </row>
-    <row r="121" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -9109,7 +9123,7 @@
       <c r="BK121" s="4"/>
       <c r="BL121" s="4"/>
     </row>
-    <row r="122" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
@@ -9173,7 +9187,7 @@
       <c r="BK122" s="4"/>
       <c r="BL122" s="4"/>
     </row>
-    <row r="123" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
@@ -9237,7 +9251,7 @@
       <c r="BK123" s="4"/>
       <c r="BL123" s="4"/>
     </row>
-    <row r="124" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
@@ -9301,7 +9315,7 @@
       <c r="BK124" s="4"/>
       <c r="BL124" s="4"/>
     </row>
-    <row r="125" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
@@ -9365,7 +9379,7 @@
       <c r="BK125" s="4"/>
       <c r="BL125" s="4"/>
     </row>
-    <row r="126" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
@@ -9429,7 +9443,7 @@
       <c r="BK126" s="4"/>
       <c r="BL126" s="4"/>
     </row>
-    <row r="127" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
@@ -9493,7 +9507,7 @@
       <c r="BK127" s="4"/>
       <c r="BL127" s="4"/>
     </row>
-    <row r="128" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
@@ -9557,7 +9571,7 @@
       <c r="BK128" s="4"/>
       <c r="BL128" s="4"/>
     </row>
-    <row r="129" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
@@ -9621,7 +9635,7 @@
       <c r="BK129" s="4"/>
       <c r="BL129" s="4"/>
     </row>
-    <row r="130" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
@@ -9685,7 +9699,7 @@
       <c r="BK130" s="4"/>
       <c r="BL130" s="4"/>
     </row>
-    <row r="131" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
@@ -9749,7 +9763,7 @@
       <c r="BK131" s="4"/>
       <c r="BL131" s="4"/>
     </row>
-    <row r="132" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
@@ -9813,7 +9827,7 @@
       <c r="BK132" s="4"/>
       <c r="BL132" s="4"/>
     </row>
-    <row r="133" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
@@ -9877,7 +9891,7 @@
       <c r="BK133" s="4"/>
       <c r="BL133" s="4"/>
     </row>
-    <row r="134" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
@@ -9941,7 +9955,7 @@
       <c r="BK134" s="4"/>
       <c r="BL134" s="4"/>
     </row>
-    <row r="135" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
@@ -10005,7 +10019,7 @@
       <c r="BK135" s="4"/>
       <c r="BL135" s="4"/>
     </row>
-    <row r="136" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
@@ -10069,7 +10083,7 @@
       <c r="BK136" s="4"/>
       <c r="BL136" s="4"/>
     </row>
-    <row r="137" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
@@ -10133,7 +10147,7 @@
       <c r="BK137" s="4"/>
       <c r="BL137" s="4"/>
     </row>
-    <row r="138" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
@@ -10197,7 +10211,7 @@
       <c r="BK138" s="4"/>
       <c r="BL138" s="4"/>
     </row>
-    <row r="139" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
@@ -10261,7 +10275,7 @@
       <c r="BK139" s="4"/>
       <c r="BL139" s="4"/>
     </row>
-    <row r="140" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
@@ -10325,7 +10339,7 @@
       <c r="BK140" s="4"/>
       <c r="BL140" s="4"/>
     </row>
-    <row r="141" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
@@ -10389,7 +10403,7 @@
       <c r="BK141" s="4"/>
       <c r="BL141" s="4"/>
     </row>
-    <row r="142" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
@@ -10453,7 +10467,7 @@
       <c r="BK142" s="4"/>
       <c r="BL142" s="4"/>
     </row>
-    <row r="143" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
@@ -10517,7 +10531,7 @@
       <c r="BK143" s="4"/>
       <c r="BL143" s="4"/>
     </row>
-    <row r="144" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
@@ -10581,7 +10595,7 @@
       <c r="BK144" s="4"/>
       <c r="BL144" s="4"/>
     </row>
-    <row r="145" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
@@ -10645,7 +10659,7 @@
       <c r="BK145" s="4"/>
       <c r="BL145" s="4"/>
     </row>
-    <row r="146" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
@@ -10709,7 +10723,7 @@
       <c r="BK146" s="4"/>
       <c r="BL146" s="4"/>
     </row>
-    <row r="147" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
@@ -10773,7 +10787,7 @@
       <c r="BK147" s="4"/>
       <c r="BL147" s="4"/>
     </row>
-    <row r="148" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
@@ -10837,7 +10851,7 @@
       <c r="BK148" s="4"/>
       <c r="BL148" s="4"/>
     </row>
-    <row r="149" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
@@ -10901,7 +10915,7 @@
       <c r="BK149" s="4"/>
       <c r="BL149" s="4"/>
     </row>
-    <row r="150" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
@@ -10965,7 +10979,7 @@
       <c r="BK150" s="4"/>
       <c r="BL150" s="4"/>
     </row>
-    <row r="151" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
@@ -11029,7 +11043,7 @@
       <c r="BK151" s="4"/>
       <c r="BL151" s="4"/>
     </row>
-    <row r="152" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
@@ -11093,7 +11107,7 @@
       <c r="BK152" s="4"/>
       <c r="BL152" s="4"/>
     </row>
-    <row r="153" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
@@ -11157,7 +11171,7 @@
       <c r="BK153" s="4"/>
       <c r="BL153" s="4"/>
     </row>
-    <row r="154" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
@@ -11221,7 +11235,7 @@
       <c r="BK154" s="4"/>
       <c r="BL154" s="4"/>
     </row>
-    <row r="155" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
@@ -11285,7 +11299,7 @@
       <c r="BK155" s="4"/>
       <c r="BL155" s="4"/>
     </row>
-    <row r="156" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
@@ -11349,7 +11363,7 @@
       <c r="BK156" s="4"/>
       <c r="BL156" s="4"/>
     </row>
-    <row r="157" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
@@ -11413,7 +11427,7 @@
       <c r="BK157" s="4"/>
       <c r="BL157" s="4"/>
     </row>
-    <row r="158" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
@@ -11477,7 +11491,7 @@
       <c r="BK158" s="4"/>
       <c r="BL158" s="4"/>
     </row>
-    <row r="159" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
@@ -11541,7 +11555,7 @@
       <c r="BK159" s="4"/>
       <c r="BL159" s="4"/>
     </row>
-    <row r="160" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
@@ -11605,7 +11619,7 @@
       <c r="BK160" s="4"/>
       <c r="BL160" s="4"/>
     </row>
-    <row r="161" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
@@ -11669,7 +11683,7 @@
       <c r="BK161" s="4"/>
       <c r="BL161" s="4"/>
     </row>
-    <row r="162" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
@@ -11733,7 +11747,7 @@
       <c r="BK162" s="4"/>
       <c r="BL162" s="4"/>
     </row>
-    <row r="163" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
@@ -11797,7 +11811,7 @@
       <c r="BK163" s="4"/>
       <c r="BL163" s="4"/>
     </row>
-    <row r="164" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
@@ -11861,7 +11875,7 @@
       <c r="BK164" s="4"/>
       <c r="BL164" s="4"/>
     </row>
-    <row r="165" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
@@ -11925,7 +11939,7 @@
       <c r="BK165" s="4"/>
       <c r="BL165" s="4"/>
     </row>
-    <row r="166" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
@@ -11989,7 +12003,7 @@
       <c r="BK166" s="4"/>
       <c r="BL166" s="4"/>
     </row>
-    <row r="167" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
@@ -12053,7 +12067,7 @@
       <c r="BK167" s="4"/>
       <c r="BL167" s="4"/>
     </row>
-    <row r="168" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
@@ -12117,7 +12131,7 @@
       <c r="BK168" s="4"/>
       <c r="BL168" s="4"/>
     </row>
-    <row r="169" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
@@ -12181,7 +12195,7 @@
       <c r="BK169" s="4"/>
       <c r="BL169" s="4"/>
     </row>
-    <row r="170" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
@@ -12245,7 +12259,7 @@
       <c r="BK170" s="4"/>
       <c r="BL170" s="4"/>
     </row>
-    <row r="171" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
@@ -12309,7 +12323,7 @@
       <c r="BK171" s="4"/>
       <c r="BL171" s="4"/>
     </row>
-    <row r="172" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
@@ -12373,7 +12387,7 @@
       <c r="BK172" s="4"/>
       <c r="BL172" s="4"/>
     </row>
-    <row r="173" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
@@ -12437,7 +12451,7 @@
       <c r="BK173" s="4"/>
       <c r="BL173" s="4"/>
     </row>
-    <row r="174" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
@@ -12501,7 +12515,7 @@
       <c r="BK174" s="4"/>
       <c r="BL174" s="4"/>
     </row>
-    <row r="175" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
@@ -12565,7 +12579,7 @@
       <c r="BK175" s="4"/>
       <c r="BL175" s="4"/>
     </row>
-    <row r="176" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
@@ -12629,7 +12643,7 @@
       <c r="BK176" s="4"/>
       <c r="BL176" s="4"/>
     </row>
-    <row r="177" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
@@ -12693,7 +12707,7 @@
       <c r="BK177" s="4"/>
       <c r="BL177" s="4"/>
     </row>
-    <row r="178" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
@@ -12757,7 +12771,7 @@
       <c r="BK178" s="4"/>
       <c r="BL178" s="4"/>
     </row>
-    <row r="179" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
@@ -12821,7 +12835,7 @@
       <c r="BK179" s="4"/>
       <c r="BL179" s="4"/>
     </row>
-    <row r="180" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
@@ -12885,7 +12899,7 @@
       <c r="BK180" s="4"/>
       <c r="BL180" s="4"/>
     </row>
-    <row r="181" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
@@ -12949,7 +12963,7 @@
       <c r="BK181" s="4"/>
       <c r="BL181" s="4"/>
     </row>
-    <row r="182" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
@@ -13013,7 +13027,7 @@
       <c r="BK182" s="4"/>
       <c r="BL182" s="4"/>
     </row>
-    <row r="183" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
@@ -13077,7 +13091,7 @@
       <c r="BK183" s="4"/>
       <c r="BL183" s="4"/>
     </row>
-    <row r="184" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
@@ -13141,7 +13155,7 @@
       <c r="BK184" s="4"/>
       <c r="BL184" s="4"/>
     </row>
-    <row r="185" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
@@ -13205,7 +13219,7 @@
       <c r="BK185" s="4"/>
       <c r="BL185" s="4"/>
     </row>
-    <row r="186" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
@@ -13269,7 +13283,7 @@
       <c r="BK186" s="4"/>
       <c r="BL186" s="4"/>
     </row>
-    <row r="187" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
@@ -13333,7 +13347,7 @@
       <c r="BK187" s="4"/>
       <c r="BL187" s="4"/>
     </row>
-    <row r="188" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
@@ -13397,7 +13411,7 @@
       <c r="BK188" s="4"/>
       <c r="BL188" s="4"/>
     </row>
-    <row r="189" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
@@ -13461,7 +13475,7 @@
       <c r="BK189" s="4"/>
       <c r="BL189" s="4"/>
     </row>
-    <row r="190" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
@@ -13525,7 +13539,7 @@
       <c r="BK190" s="4"/>
       <c r="BL190" s="4"/>
     </row>
-    <row r="191" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
@@ -13589,7 +13603,7 @@
       <c r="BK191" s="4"/>
       <c r="BL191" s="4"/>
     </row>
-    <row r="192" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
@@ -13653,7 +13667,7 @@
       <c r="BK192" s="4"/>
       <c r="BL192" s="4"/>
     </row>
-    <row r="193" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
@@ -13717,7 +13731,7 @@
       <c r="BK193" s="4"/>
       <c r="BL193" s="4"/>
     </row>
-    <row r="194" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
@@ -13781,7 +13795,7 @@
       <c r="BK194" s="4"/>
       <c r="BL194" s="4"/>
     </row>
-    <row r="195" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
@@ -13845,7 +13859,7 @@
       <c r="BK195" s="4"/>
       <c r="BL195" s="4"/>
     </row>
-    <row r="196" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
@@ -13909,7 +13923,7 @@
       <c r="BK196" s="4"/>
       <c r="BL196" s="4"/>
     </row>
-    <row r="197" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
@@ -13973,7 +13987,7 @@
       <c r="BK197" s="4"/>
       <c r="BL197" s="4"/>
     </row>
-    <row r="198" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
@@ -14037,7 +14051,7 @@
       <c r="BK198" s="4"/>
       <c r="BL198" s="4"/>
     </row>
-    <row r="199" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
@@ -14101,7 +14115,7 @@
       <c r="BK199" s="4"/>
       <c r="BL199" s="4"/>
     </row>
-    <row r="200" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
@@ -14165,7 +14179,7 @@
       <c r="BK200" s="4"/>
       <c r="BL200" s="4"/>
     </row>
-    <row r="201" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
@@ -14229,7 +14243,7 @@
       <c r="BK201" s="4"/>
       <c r="BL201" s="4"/>
     </row>
-    <row r="202" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
@@ -14293,7 +14307,7 @@
       <c r="BK202" s="4"/>
       <c r="BL202" s="4"/>
     </row>
-    <row r="203" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
@@ -14357,7 +14371,7 @@
       <c r="BK203" s="4"/>
       <c r="BL203" s="4"/>
     </row>
-    <row r="204" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
@@ -14421,7 +14435,7 @@
       <c r="BK204" s="4"/>
       <c r="BL204" s="4"/>
     </row>
-    <row r="205" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
@@ -14485,7 +14499,7 @@
       <c r="BK205" s="4"/>
       <c r="BL205" s="4"/>
     </row>
-    <row r="206" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
@@ -14549,7 +14563,7 @@
       <c r="BK206" s="4"/>
       <c r="BL206" s="4"/>
     </row>
-    <row r="207" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
@@ -14613,7 +14627,7 @@
       <c r="BK207" s="4"/>
       <c r="BL207" s="4"/>
     </row>
-    <row r="208" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
@@ -14677,7 +14691,7 @@
       <c r="BK208" s="4"/>
       <c r="BL208" s="4"/>
     </row>
-    <row r="209" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
@@ -14741,7 +14755,7 @@
       <c r="BK209" s="4"/>
       <c r="BL209" s="4"/>
     </row>
-    <row r="210" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
@@ -14805,7 +14819,7 @@
       <c r="BK210" s="4"/>
       <c r="BL210" s="4"/>
     </row>
-    <row r="211" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
@@ -14869,7 +14883,7 @@
       <c r="BK211" s="4"/>
       <c r="BL211" s="4"/>
     </row>
-    <row r="212" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
@@ -14933,7 +14947,7 @@
       <c r="BK212" s="4"/>
       <c r="BL212" s="4"/>
     </row>
-    <row r="213" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
@@ -14997,7 +15011,7 @@
       <c r="BK213" s="4"/>
       <c r="BL213" s="4"/>
     </row>
-    <row r="214" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
@@ -15061,7 +15075,7 @@
       <c r="BK214" s="4"/>
       <c r="BL214" s="4"/>
     </row>
-    <row r="215" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
@@ -15125,7 +15139,7 @@
       <c r="BK215" s="4"/>
       <c r="BL215" s="4"/>
     </row>
-    <row r="216" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
@@ -15189,7 +15203,7 @@
       <c r="BK216" s="4"/>
       <c r="BL216" s="4"/>
     </row>
-    <row r="217" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
@@ -15253,7 +15267,7 @@
       <c r="BK217" s="4"/>
       <c r="BL217" s="4"/>
     </row>
-    <row r="218" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
@@ -15317,7 +15331,7 @@
       <c r="BK218" s="4"/>
       <c r="BL218" s="4"/>
     </row>
-    <row r="219" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
@@ -15381,7 +15395,7 @@
       <c r="BK219" s="4"/>
       <c r="BL219" s="4"/>
     </row>
-    <row r="220" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
@@ -15445,7 +15459,7 @@
       <c r="BK220" s="4"/>
       <c r="BL220" s="4"/>
     </row>
-    <row r="221" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
@@ -15509,7 +15523,7 @@
       <c r="BK221" s="4"/>
       <c r="BL221" s="4"/>
     </row>
-    <row r="222" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
@@ -15573,7 +15587,7 @@
       <c r="BK222" s="4"/>
       <c r="BL222" s="4"/>
     </row>
-    <row r="223" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
@@ -15637,7 +15651,7 @@
       <c r="BK223" s="4"/>
       <c r="BL223" s="4"/>
     </row>
-    <row r="224" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
@@ -15701,7 +15715,7 @@
       <c r="BK224" s="4"/>
       <c r="BL224" s="4"/>
     </row>
-    <row r="225" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
@@ -15765,7 +15779,7 @@
       <c r="BK225" s="4"/>
       <c r="BL225" s="4"/>
     </row>
-    <row r="226" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
@@ -15829,7 +15843,7 @@
       <c r="BK226" s="4"/>
       <c r="BL226" s="4"/>
     </row>
-    <row r="227" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
@@ -15893,7 +15907,7 @@
       <c r="BK227" s="4"/>
       <c r="BL227" s="4"/>
     </row>
-    <row r="228" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
@@ -15957,7 +15971,7 @@
       <c r="BK228" s="4"/>
       <c r="BL228" s="4"/>
     </row>
-    <row r="229" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
@@ -16021,7 +16035,7 @@
       <c r="BK229" s="4"/>
       <c r="BL229" s="4"/>
     </row>
-    <row r="230" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
@@ -16085,7 +16099,7 @@
       <c r="BK230" s="4"/>
       <c r="BL230" s="4"/>
     </row>
-    <row r="231" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
@@ -16149,7 +16163,7 @@
       <c r="BK231" s="4"/>
       <c r="BL231" s="4"/>
     </row>
-    <row r="232" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
@@ -16213,7 +16227,7 @@
       <c r="BK232" s="4"/>
       <c r="BL232" s="4"/>
     </row>
-    <row r="233" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
@@ -16277,7 +16291,7 @@
       <c r="BK233" s="4"/>
       <c r="BL233" s="4"/>
     </row>
-    <row r="234" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
@@ -16341,7 +16355,7 @@
       <c r="BK234" s="4"/>
       <c r="BL234" s="4"/>
     </row>
-    <row r="235" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
@@ -16405,7 +16419,7 @@
       <c r="BK235" s="4"/>
       <c r="BL235" s="4"/>
     </row>
-    <row r="236" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
@@ -16469,7 +16483,7 @@
       <c r="BK236" s="4"/>
       <c r="BL236" s="4"/>
     </row>
-    <row r="237" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
@@ -16533,7 +16547,7 @@
       <c r="BK237" s="4"/>
       <c r="BL237" s="4"/>
     </row>
-    <row r="238" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
@@ -16597,7 +16611,7 @@
       <c r="BK238" s="4"/>
       <c r="BL238" s="4"/>
     </row>
-    <row r="239" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
@@ -16661,7 +16675,7 @@
       <c r="BK239" s="4"/>
       <c r="BL239" s="4"/>
     </row>
-    <row r="240" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
@@ -16725,7 +16739,7 @@
       <c r="BK240" s="4"/>
       <c r="BL240" s="4"/>
     </row>
-    <row r="241" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
@@ -16789,7 +16803,7 @@
       <c r="BK241" s="4"/>
       <c r="BL241" s="4"/>
     </row>
-    <row r="242" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
@@ -16853,7 +16867,7 @@
       <c r="BK242" s="4"/>
       <c r="BL242" s="4"/>
     </row>
-    <row r="243" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
@@ -16917,7 +16931,7 @@
       <c r="BK243" s="4"/>
       <c r="BL243" s="4"/>
     </row>
-    <row r="244" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
@@ -16981,7 +16995,7 @@
       <c r="BK244" s="4"/>
       <c r="BL244" s="4"/>
     </row>
-    <row r="245" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="4"/>

--- a/BRBY.L.xlsx
+++ b/BRBY.L.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF7598B-15A7-4321-A56D-8DFB5B500F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF5D258-1A4F-4889-9847-F448F8357700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{C3EE2D3B-35B1-4886-BA08-2254D8777D41}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{C3EE2D3B-35B1-4886-BA08-2254D8777D41}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
   <si>
     <t>Burberry</t>
   </si>
@@ -231,20 +231,35 @@
     <t>CFO: Kate Ferry</t>
   </si>
   <si>
-    <t>Q126</t>
+    <t>H126</t>
+  </si>
+  <si>
+    <t>H226</t>
+  </si>
+  <si>
+    <t>Q226</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -309,23 +324,29 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -664,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D318A59-04E4-437E-917F-15FBBC078F39}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -687,7 +708,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="2">
-        <v>12.835000000000001</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -695,10 +716,10 @@
         <v>4</v>
       </c>
       <c r="I3" s="4">
-        <v>358.4</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>64</v>
+        <v>360.4</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -710,7 +731,7 @@
       </c>
       <c r="I4" s="4">
         <f>+I2*I3</f>
-        <v>4600.0640000000003</v>
+        <v>4310.384</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -721,10 +742,10 @@
         <v>6</v>
       </c>
       <c r="I5" s="4">
-        <v>813</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>64</v>
+        <v>452</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -732,11 +753,11 @@
         <v>7</v>
       </c>
       <c r="I6" s="4">
-        <f>105+438+300</f>
-        <v>843</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>64</v>
+        <f>517+28</f>
+        <v>545</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -745,7 +766,7 @@
       </c>
       <c r="I7" s="4">
         <f>+I4-I5+I6</f>
-        <v>4630.0640000000003</v>
+        <v>4403.384</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -774,13 +795,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3C5E70-D9BC-490B-A35F-97759AFDB091}">
-  <dimension ref="A1:BL245"/>
+  <dimension ref="A1:BN245"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="I36" sqref="I36:I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -790,12 +811,12 @@
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
@@ -814,2236 +835,2574 @@
       <c r="H2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
+      <c r="I2" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12">
         <v>242</v>
       </c>
-      <c r="H3" s="4">
-        <f>+O3</f>
+      <c r="H3" s="12">
+        <f>+Q3</f>
         <v>237</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4">
+      <c r="I3" s="12">
+        <f>120+116</f>
+        <v>236</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12">
         <v>237</v>
       </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4"/>
-      <c r="AK3" s="4"/>
-      <c r="AL3" s="4"/>
-      <c r="AM3" s="4"/>
-      <c r="AN3" s="4"/>
-      <c r="AO3" s="4"/>
-      <c r="AP3" s="4"/>
-      <c r="AQ3" s="4"/>
-      <c r="AR3" s="4"/>
-      <c r="AS3" s="4"/>
-      <c r="AT3" s="4"/>
-      <c r="AU3" s="4"/>
-      <c r="AV3" s="4"/>
-    </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="12"/>
+      <c r="AM3" s="12"/>
+      <c r="AN3" s="12"/>
+      <c r="AO3" s="12"/>
+      <c r="AP3" s="12"/>
+      <c r="AQ3" s="12"/>
+      <c r="AR3" s="12"/>
+      <c r="AS3" s="12"/>
+      <c r="AT3" s="12"/>
+      <c r="AU3" s="12"/>
+      <c r="AV3" s="12"/>
+      <c r="AW3" s="12"/>
+      <c r="AX3" s="12"/>
+      <c r="AY3" s="12"/>
+      <c r="AZ3" s="12"/>
+      <c r="BA3" s="12"/>
+      <c r="BB3" s="12"/>
+      <c r="BC3" s="12"/>
+      <c r="BD3" s="12"/>
+      <c r="BE3" s="12"/>
+      <c r="BF3" s="12"/>
+      <c r="BG3" s="12"/>
+      <c r="BH3" s="12"/>
+      <c r="BI3" s="12"/>
+      <c r="BJ3" s="12"/>
+      <c r="BK3" s="12"/>
+      <c r="BL3" s="12"/>
+      <c r="BM3" s="12"/>
+      <c r="BN3" s="12"/>
+    </row>
+    <row r="4" spans="1:66" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12">
         <v>100</v>
       </c>
-      <c r="H4" s="4">
-        <f t="shared" ref="H4:H7" si="0">+O4</f>
+      <c r="H4" s="12">
+        <f t="shared" ref="H4:H7" si="0">+Q4</f>
         <v>100</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4">
+      <c r="I4" s="12">
+        <v>98</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12">
         <v>100</v>
       </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="4"/>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="4"/>
-      <c r="AR4" s="4"/>
-      <c r="AS4" s="4"/>
-      <c r="AT4" s="4"/>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="4"/>
-    </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="12"/>
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="12"/>
+      <c r="AP4" s="12"/>
+      <c r="AQ4" s="12"/>
+      <c r="AR4" s="12"/>
+      <c r="AS4" s="12"/>
+      <c r="AT4" s="12"/>
+      <c r="AU4" s="12"/>
+      <c r="AV4" s="12"/>
+      <c r="AW4" s="12"/>
+      <c r="AX4" s="12"/>
+      <c r="AY4" s="12"/>
+      <c r="AZ4" s="12"/>
+      <c r="BA4" s="12"/>
+      <c r="BB4" s="12"/>
+      <c r="BC4" s="12"/>
+      <c r="BD4" s="12"/>
+      <c r="BE4" s="12"/>
+      <c r="BF4" s="12"/>
+      <c r="BG4" s="12"/>
+      <c r="BH4" s="12"/>
+      <c r="BI4" s="12"/>
+      <c r="BJ4" s="12"/>
+      <c r="BK4" s="12"/>
+      <c r="BL4" s="12"/>
+      <c r="BM4" s="12"/>
+      <c r="BN4" s="12"/>
+    </row>
+    <row r="5" spans="1:66" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12">
         <v>87</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="12">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4">
+      <c r="I5" s="12">
+        <v>81</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12">
         <v>85</v>
       </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="4"/>
-      <c r="AJ5" s="4"/>
-      <c r="AK5" s="4"/>
-      <c r="AL5" s="4"/>
-      <c r="AM5" s="4"/>
-      <c r="AN5" s="4"/>
-      <c r="AO5" s="4"/>
-      <c r="AP5" s="4"/>
-      <c r="AQ5" s="4"/>
-      <c r="AR5" s="4"/>
-      <c r="AS5" s="4"/>
-      <c r="AT5" s="4"/>
-      <c r="AU5" s="4"/>
-      <c r="AV5" s="4"/>
-    </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="12"/>
+      <c r="AO5" s="12"/>
+      <c r="AP5" s="12"/>
+      <c r="AQ5" s="12"/>
+      <c r="AR5" s="12"/>
+      <c r="AS5" s="12"/>
+      <c r="AT5" s="12"/>
+      <c r="AU5" s="12"/>
+      <c r="AV5" s="12"/>
+      <c r="AW5" s="12"/>
+      <c r="AX5" s="12"/>
+      <c r="AY5" s="12"/>
+      <c r="AZ5" s="12"/>
+      <c r="BA5" s="12"/>
+      <c r="BB5" s="12"/>
+      <c r="BC5" s="12"/>
+      <c r="BD5" s="12"/>
+      <c r="BE5" s="12"/>
+      <c r="BF5" s="12"/>
+      <c r="BG5" s="12"/>
+      <c r="BH5" s="12"/>
+      <c r="BI5" s="12"/>
+      <c r="BJ5" s="12"/>
+      <c r="BK5" s="12"/>
+      <c r="BL5" s="12"/>
+      <c r="BM5" s="12"/>
+      <c r="BN5" s="12"/>
+    </row>
+    <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13">
         <v>422</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6">
+      <c r="F6" s="13"/>
+      <c r="G6" s="13">
+        <f>+SUM(G3:G5)</f>
         <v>429</v>
       </c>
-      <c r="H6" s="6">
-        <v>429</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6">
-        <f t="shared" ref="K6:N6" si="1">+SUM(K3:K5)</f>
+      <c r="H6" s="13">
+        <f>+SUM(H3:H5)</f>
+        <v>422</v>
+      </c>
+      <c r="I6" s="13">
+        <f>+SUM(I3:I5)</f>
+        <v>415</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13">
+        <f t="shared" ref="M6:P6" si="1">+SUM(M3:M5)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="6">
+      <c r="N6" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M6" s="6">
+      <c r="O6" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N6" s="6">
+      <c r="P6" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="6">
-        <f>+SUM(O3:O5)</f>
+      <c r="Q6" s="13">
+        <f>+SUM(Q3:Q5)</f>
         <v>422</v>
       </c>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="4"/>
-      <c r="AM6" s="4"/>
-      <c r="AN6" s="4"/>
-      <c r="AO6" s="4"/>
-      <c r="AP6" s="4"/>
-      <c r="AQ6" s="4"/>
-      <c r="AR6" s="4"/>
-      <c r="AS6" s="4"/>
-      <c r="AT6" s="4"/>
-      <c r="AU6" s="4"/>
-      <c r="AV6" s="4"/>
-    </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="12"/>
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="12"/>
+      <c r="AS6" s="12"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12"/>
+      <c r="AV6" s="12"/>
+      <c r="AW6" s="12"/>
+      <c r="AX6" s="12"/>
+      <c r="AY6" s="12"/>
+      <c r="AZ6" s="12"/>
+      <c r="BA6" s="12"/>
+      <c r="BB6" s="12"/>
+      <c r="BC6" s="12"/>
+      <c r="BD6" s="12"/>
+      <c r="BE6" s="12"/>
+      <c r="BF6" s="12"/>
+      <c r="BG6" s="12"/>
+      <c r="BH6" s="12"/>
+      <c r="BI6" s="12"/>
+      <c r="BJ6" s="12"/>
+      <c r="BK6" s="12"/>
+      <c r="BL6" s="12"/>
+      <c r="BM6" s="12"/>
+      <c r="BN6" s="12"/>
+    </row>
+    <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12">
         <v>33</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="12">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4">
+      <c r="I7" s="12">
+        <v>31</v>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12">
         <v>33</v>
       </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4"/>
-      <c r="AN7" s="4"/>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="4"/>
-      <c r="AR7" s="4"/>
-      <c r="AS7" s="4"/>
-      <c r="AT7" s="4"/>
-      <c r="AU7" s="4"/>
-      <c r="AV7" s="4"/>
-    </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="4"/>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="4"/>
-      <c r="AR8" s="4"/>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="4"/>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="4"/>
-    </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="12"/>
+      <c r="AM7" s="12"/>
+      <c r="AN7" s="12"/>
+      <c r="AO7" s="12"/>
+      <c r="AP7" s="12"/>
+      <c r="AQ7" s="12"/>
+      <c r="AR7" s="12"/>
+      <c r="AS7" s="12"/>
+      <c r="AT7" s="12"/>
+      <c r="AU7" s="12"/>
+      <c r="AV7" s="12"/>
+      <c r="AW7" s="12"/>
+      <c r="AX7" s="12"/>
+      <c r="AY7" s="12"/>
+      <c r="AZ7" s="12"/>
+      <c r="BA7" s="12"/>
+      <c r="BB7" s="12"/>
+      <c r="BC7" s="12"/>
+      <c r="BD7" s="12"/>
+      <c r="BE7" s="12"/>
+      <c r="BF7" s="12"/>
+      <c r="BG7" s="12"/>
+      <c r="BH7" s="12"/>
+      <c r="BI7" s="12"/>
+      <c r="BJ7" s="12"/>
+      <c r="BK7" s="12"/>
+      <c r="BL7" s="12"/>
+      <c r="BM7" s="12"/>
+      <c r="BN7" s="12"/>
+    </row>
+    <row r="8" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="12"/>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="12"/>
+      <c r="AN8" s="12"/>
+      <c r="AO8" s="12"/>
+      <c r="AP8" s="12"/>
+      <c r="AQ8" s="12"/>
+      <c r="AR8" s="12"/>
+      <c r="AS8" s="12"/>
+      <c r="AT8" s="12"/>
+      <c r="AU8" s="12"/>
+      <c r="AV8" s="12"/>
+      <c r="AW8" s="12"/>
+      <c r="AX8" s="12"/>
+      <c r="AY8" s="12"/>
+      <c r="AZ8" s="12"/>
+      <c r="BA8" s="12"/>
+      <c r="BB8" s="12"/>
+      <c r="BC8" s="12"/>
+      <c r="BD8" s="12"/>
+      <c r="BE8" s="12"/>
+      <c r="BF8" s="12"/>
+      <c r="BG8" s="12"/>
+      <c r="BH8" s="12"/>
+      <c r="BI8" s="12"/>
+      <c r="BJ8" s="12"/>
+      <c r="BK8" s="12"/>
+      <c r="BL8" s="12"/>
+      <c r="BM8" s="12"/>
+      <c r="BN8" s="12"/>
+    </row>
+    <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12">
         <v>498</v>
       </c>
-      <c r="F9" s="4">
-        <f t="shared" ref="F9:F12" si="2">+N9-E9</f>
+      <c r="F9" s="12">
+        <f t="shared" ref="F9:F12" si="2">+P9-E9</f>
         <v>557</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="12">
         <v>367</v>
       </c>
-      <c r="H9" s="4">
-        <f t="shared" ref="H9:H12" si="3">+O9-G9</f>
+      <c r="H9" s="12">
+        <f t="shared" ref="H9:H12" si="3">+Q9-G9</f>
         <v>574</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4">
+      <c r="I9" s="12">
+        <v>343</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12">
         <v>1055</v>
       </c>
-      <c r="O9" s="4">
+      <c r="Q9" s="12">
         <v>941</v>
       </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="4"/>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="4"/>
-      <c r="AM9" s="4"/>
-      <c r="AN9" s="4"/>
-      <c r="AO9" s="4"/>
-      <c r="AP9" s="4"/>
-      <c r="AQ9" s="4"/>
-      <c r="AR9" s="4"/>
-      <c r="AS9" s="4"/>
-      <c r="AT9" s="4"/>
-      <c r="AU9" s="4"/>
-      <c r="AV9" s="4"/>
-    </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12"/>
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="12"/>
+      <c r="AO9" s="12"/>
+      <c r="AP9" s="12"/>
+      <c r="AQ9" s="12"/>
+      <c r="AR9" s="12"/>
+      <c r="AS9" s="12"/>
+      <c r="AT9" s="12"/>
+      <c r="AU9" s="12"/>
+      <c r="AV9" s="12"/>
+      <c r="AW9" s="12"/>
+      <c r="AX9" s="12"/>
+      <c r="AY9" s="12"/>
+      <c r="AZ9" s="12"/>
+      <c r="BA9" s="12"/>
+      <c r="BB9" s="12"/>
+      <c r="BC9" s="12"/>
+      <c r="BD9" s="12"/>
+      <c r="BE9" s="12"/>
+      <c r="BF9" s="12"/>
+      <c r="BG9" s="12"/>
+      <c r="BH9" s="12"/>
+      <c r="BI9" s="12"/>
+      <c r="BJ9" s="12"/>
+      <c r="BK9" s="12"/>
+      <c r="BL9" s="12"/>
+      <c r="BM9" s="12"/>
+      <c r="BN9" s="12"/>
+    </row>
+    <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12">
         <v>391</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="12">
         <f t="shared" si="2"/>
         <v>469</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="12">
         <v>313</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="12">
         <f t="shared" si="3"/>
         <v>405</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4">
+      <c r="I10" s="12">
+        <v>313</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12">
         <v>860</v>
       </c>
-      <c r="O10" s="4">
+      <c r="Q10" s="12">
         <v>718</v>
       </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="4"/>
-      <c r="AH10" s="4"/>
-      <c r="AI10" s="4"/>
-      <c r="AJ10" s="4"/>
-      <c r="AK10" s="4"/>
-      <c r="AL10" s="4"/>
-      <c r="AM10" s="4"/>
-      <c r="AN10" s="4"/>
-      <c r="AO10" s="4"/>
-      <c r="AP10" s="4"/>
-      <c r="AQ10" s="4"/>
-      <c r="AR10" s="4"/>
-      <c r="AS10" s="4"/>
-      <c r="AT10" s="4"/>
-      <c r="AU10" s="4"/>
-      <c r="AV10" s="4"/>
-    </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="12"/>
+      <c r="AG10" s="12"/>
+      <c r="AH10" s="12"/>
+      <c r="AI10" s="12"/>
+      <c r="AJ10" s="12"/>
+      <c r="AK10" s="12"/>
+      <c r="AL10" s="12"/>
+      <c r="AM10" s="12"/>
+      <c r="AN10" s="12"/>
+      <c r="AO10" s="12"/>
+      <c r="AP10" s="12"/>
+      <c r="AQ10" s="12"/>
+      <c r="AR10" s="12"/>
+      <c r="AS10" s="12"/>
+      <c r="AT10" s="12"/>
+      <c r="AU10" s="12"/>
+      <c r="AV10" s="12"/>
+      <c r="AW10" s="12"/>
+      <c r="AX10" s="12"/>
+      <c r="AY10" s="12"/>
+      <c r="AZ10" s="12"/>
+      <c r="BA10" s="12"/>
+      <c r="BB10" s="12"/>
+      <c r="BC10" s="12"/>
+      <c r="BD10" s="12"/>
+      <c r="BE10" s="12"/>
+      <c r="BF10" s="12"/>
+      <c r="BG10" s="12"/>
+      <c r="BH10" s="12"/>
+      <c r="BI10" s="12"/>
+      <c r="BJ10" s="12"/>
+      <c r="BK10" s="12"/>
+      <c r="BL10" s="12"/>
+      <c r="BM10" s="12"/>
+      <c r="BN10" s="12"/>
+    </row>
+    <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12">
         <v>399</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="12">
         <f t="shared" si="2"/>
         <v>443</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="12">
         <v>324</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="12">
         <f t="shared" si="3"/>
         <v>408</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4">
+      <c r="I11" s="12">
+        <v>324</v>
+      </c>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12">
         <v>842</v>
       </c>
-      <c r="O11" s="4">
+      <c r="Q11" s="12">
         <v>732</v>
       </c>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="4"/>
-      <c r="AJ11" s="4"/>
-      <c r="AK11" s="4"/>
-      <c r="AL11" s="4"/>
-      <c r="AM11" s="4"/>
-      <c r="AN11" s="4"/>
-      <c r="AO11" s="4"/>
-      <c r="AP11" s="4"/>
-      <c r="AQ11" s="4"/>
-      <c r="AR11" s="4"/>
-      <c r="AS11" s="4"/>
-      <c r="AT11" s="4"/>
-      <c r="AU11" s="4"/>
-      <c r="AV11" s="4"/>
-    </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="12"/>
+      <c r="AK11" s="12"/>
+      <c r="AL11" s="12"/>
+      <c r="AM11" s="12"/>
+      <c r="AN11" s="12"/>
+      <c r="AO11" s="12"/>
+      <c r="AP11" s="12"/>
+      <c r="AQ11" s="12"/>
+      <c r="AR11" s="12"/>
+      <c r="AS11" s="12"/>
+      <c r="AT11" s="12"/>
+      <c r="AU11" s="12"/>
+      <c r="AV11" s="12"/>
+      <c r="AW11" s="12"/>
+      <c r="AX11" s="12"/>
+      <c r="AY11" s="12"/>
+      <c r="AZ11" s="12"/>
+      <c r="BA11" s="12"/>
+      <c r="BB11" s="12"/>
+      <c r="BC11" s="12"/>
+      <c r="BD11" s="12"/>
+      <c r="BE11" s="12"/>
+      <c r="BF11" s="12"/>
+      <c r="BG11" s="12"/>
+      <c r="BH11" s="12"/>
+      <c r="BI11" s="12"/>
+      <c r="BJ11" s="12"/>
+      <c r="BK11" s="12"/>
+      <c r="BL11" s="12"/>
+      <c r="BM11" s="12"/>
+      <c r="BN11" s="12"/>
+    </row>
+    <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12">
         <v>77</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="12">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="12">
         <v>50</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="12">
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4">
+      <c r="I12" s="12">
+        <v>50</v>
+      </c>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12">
         <v>149</v>
       </c>
-      <c r="O12" s="4">
+      <c r="Q12" s="12">
         <v>104</v>
       </c>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="4"/>
-      <c r="AK12" s="4"/>
-      <c r="AL12" s="4"/>
-      <c r="AM12" s="4"/>
-      <c r="AN12" s="4"/>
-      <c r="AO12" s="4"/>
-      <c r="AP12" s="4"/>
-      <c r="AQ12" s="4"/>
-      <c r="AR12" s="4"/>
-      <c r="AS12" s="4"/>
-      <c r="AT12" s="4"/>
-      <c r="AU12" s="4"/>
-      <c r="AV12" s="4"/>
-    </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="12"/>
+      <c r="AL12" s="12"/>
+      <c r="AM12" s="12"/>
+      <c r="AN12" s="12"/>
+      <c r="AO12" s="12"/>
+      <c r="AP12" s="12"/>
+      <c r="AQ12" s="12"/>
+      <c r="AR12" s="12"/>
+      <c r="AS12" s="12"/>
+      <c r="AT12" s="12"/>
+      <c r="AU12" s="12"/>
+      <c r="AV12" s="12"/>
+      <c r="AW12" s="12"/>
+      <c r="AX12" s="12"/>
+      <c r="AY12" s="12"/>
+      <c r="AZ12" s="12"/>
+      <c r="BA12" s="12"/>
+      <c r="BB12" s="12"/>
+      <c r="BC12" s="12"/>
+      <c r="BD12" s="12"/>
+      <c r="BE12" s="12"/>
+      <c r="BF12" s="12"/>
+      <c r="BG12" s="12"/>
+      <c r="BH12" s="12"/>
+      <c r="BI12" s="12"/>
+      <c r="BJ12" s="12"/>
+      <c r="BK12" s="12"/>
+      <c r="BL12" s="12"/>
+      <c r="BM12" s="12"/>
+      <c r="BN12" s="12"/>
+    </row>
+    <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4">
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12">
         <v>584</v>
       </c>
-      <c r="F13" s="4">
-        <f>+N13-E13</f>
+      <c r="F13" s="12">
+        <f>+P13-E13</f>
         <v>702</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="12">
         <v>444</v>
       </c>
-      <c r="H13" s="4">
-        <f>+O13-G13</f>
+      <c r="H13" s="12">
+        <f>+Q13-G13</f>
         <v>599</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4">
+      <c r="I13" s="12">
+        <f>152+253</f>
+        <v>405</v>
+      </c>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12">
         <v>1286</v>
       </c>
-      <c r="O13" s="4">
+      <c r="Q13" s="12">
         <v>1043</v>
       </c>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
-      <c r="AI13" s="4"/>
-      <c r="AJ13" s="4"/>
-      <c r="AK13" s="4"/>
-      <c r="AL13" s="4"/>
-      <c r="AM13" s="4"/>
-      <c r="AN13" s="4"/>
-      <c r="AO13" s="4"/>
-      <c r="AP13" s="4"/>
-      <c r="AQ13" s="4"/>
-      <c r="AR13" s="4"/>
-      <c r="AS13" s="4"/>
-      <c r="AT13" s="4"/>
-      <c r="AU13" s="4"/>
-      <c r="AV13" s="4"/>
-    </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="12"/>
+      <c r="AI13" s="12"/>
+      <c r="AJ13" s="12"/>
+      <c r="AK13" s="12"/>
+      <c r="AL13" s="12"/>
+      <c r="AM13" s="12"/>
+      <c r="AN13" s="12"/>
+      <c r="AO13" s="12"/>
+      <c r="AP13" s="12"/>
+      <c r="AQ13" s="12"/>
+      <c r="AR13" s="12"/>
+      <c r="AS13" s="12"/>
+      <c r="AT13" s="12"/>
+      <c r="AU13" s="12"/>
+      <c r="AV13" s="12"/>
+      <c r="AW13" s="12"/>
+      <c r="AX13" s="12"/>
+      <c r="AY13" s="12"/>
+      <c r="AZ13" s="12"/>
+      <c r="BA13" s="12"/>
+      <c r="BB13" s="12"/>
+      <c r="BC13" s="12"/>
+      <c r="BD13" s="12"/>
+      <c r="BE13" s="12"/>
+      <c r="BF13" s="12"/>
+      <c r="BG13" s="12"/>
+      <c r="BH13" s="12"/>
+      <c r="BI13" s="12"/>
+      <c r="BJ13" s="12"/>
+      <c r="BK13" s="12"/>
+      <c r="BL13" s="12"/>
+      <c r="BM13" s="12"/>
+      <c r="BN13" s="12"/>
+    </row>
+    <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12">
         <v>485</v>
       </c>
-      <c r="F14" s="4">
-        <f t="shared" ref="F14:F30" si="4">+N14-E14</f>
+      <c r="F14" s="12">
+        <f t="shared" ref="F14:F30" si="4">+P14-E14</f>
         <v>532</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="12">
         <v>392</v>
       </c>
-      <c r="H14" s="4">
-        <f t="shared" ref="H14:H30" si="5">+O14-G14</f>
+      <c r="H14" s="12">
+        <f t="shared" ref="H14:H30" si="5">+Q14-G14</f>
         <v>450</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4">
+      <c r="I14" s="12">
+        <v>381</v>
+      </c>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12">
         <v>1017</v>
       </c>
-      <c r="O14" s="4">
+      <c r="Q14" s="12">
         <v>842</v>
       </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
-      <c r="AJ14" s="4"/>
-      <c r="AK14" s="4"/>
-      <c r="AL14" s="4"/>
-      <c r="AM14" s="4"/>
-      <c r="AN14" s="4"/>
-      <c r="AO14" s="4"/>
-      <c r="AP14" s="4"/>
-      <c r="AQ14" s="4"/>
-      <c r="AR14" s="4"/>
-      <c r="AS14" s="4"/>
-      <c r="AT14" s="4"/>
-      <c r="AU14" s="4"/>
-      <c r="AV14" s="4"/>
-    </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="12"/>
+      <c r="AI14" s="12"/>
+      <c r="AJ14" s="12"/>
+      <c r="AK14" s="12"/>
+      <c r="AL14" s="12"/>
+      <c r="AM14" s="12"/>
+      <c r="AN14" s="12"/>
+      <c r="AO14" s="12"/>
+      <c r="AP14" s="12"/>
+      <c r="AQ14" s="12"/>
+      <c r="AR14" s="12"/>
+      <c r="AS14" s="12"/>
+      <c r="AT14" s="12"/>
+      <c r="AU14" s="12"/>
+      <c r="AV14" s="12"/>
+      <c r="AW14" s="12"/>
+      <c r="AX14" s="12"/>
+      <c r="AY14" s="12"/>
+      <c r="AZ14" s="12"/>
+      <c r="BA14" s="12"/>
+      <c r="BB14" s="12"/>
+      <c r="BC14" s="12"/>
+      <c r="BD14" s="12"/>
+      <c r="BE14" s="12"/>
+      <c r="BF14" s="12"/>
+      <c r="BG14" s="12"/>
+      <c r="BH14" s="12"/>
+      <c r="BI14" s="12"/>
+      <c r="BJ14" s="12"/>
+      <c r="BK14" s="12"/>
+      <c r="BL14" s="12"/>
+      <c r="BM14" s="12"/>
+      <c r="BN14" s="12"/>
+    </row>
+    <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4">
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12">
         <v>296</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="12">
         <f t="shared" si="4"/>
         <v>307</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="12">
         <v>218</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="12">
         <f t="shared" si="5"/>
         <v>292</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4">
+      <c r="I15" s="12">
+        <v>216</v>
+      </c>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12">
         <v>603</v>
       </c>
-      <c r="O15" s="4">
+      <c r="Q15" s="12">
         <v>510</v>
       </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
-      <c r="AH15" s="4"/>
-      <c r="AI15" s="4"/>
-      <c r="AJ15" s="4"/>
-      <c r="AK15" s="4"/>
-      <c r="AL15" s="4"/>
-      <c r="AM15" s="4"/>
-      <c r="AN15" s="4"/>
-      <c r="AO15" s="4"/>
-      <c r="AP15" s="4"/>
-      <c r="AQ15" s="4"/>
-      <c r="AR15" s="4"/>
-      <c r="AS15" s="4"/>
-      <c r="AT15" s="4"/>
-      <c r="AU15" s="4"/>
-      <c r="AV15" s="4"/>
-    </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="12"/>
+      <c r="AG15" s="12"/>
+      <c r="AH15" s="12"/>
+      <c r="AI15" s="12"/>
+      <c r="AJ15" s="12"/>
+      <c r="AK15" s="12"/>
+      <c r="AL15" s="12"/>
+      <c r="AM15" s="12"/>
+      <c r="AN15" s="12"/>
+      <c r="AO15" s="12"/>
+      <c r="AP15" s="12"/>
+      <c r="AQ15" s="12"/>
+      <c r="AR15" s="12"/>
+      <c r="AS15" s="12"/>
+      <c r="AT15" s="12"/>
+      <c r="AU15" s="12"/>
+      <c r="AV15" s="12"/>
+      <c r="AW15" s="12"/>
+      <c r="AX15" s="12"/>
+      <c r="AY15" s="12"/>
+      <c r="AZ15" s="12"/>
+      <c r="BA15" s="12"/>
+      <c r="BB15" s="12"/>
+      <c r="BC15" s="12"/>
+      <c r="BD15" s="12"/>
+      <c r="BE15" s="12"/>
+      <c r="BF15" s="12"/>
+      <c r="BG15" s="12"/>
+      <c r="BH15" s="12"/>
+      <c r="BI15" s="12"/>
+      <c r="BJ15" s="12"/>
+      <c r="BK15" s="12"/>
+      <c r="BL15" s="12"/>
+      <c r="BM15" s="12"/>
+      <c r="BN15" s="12"/>
+    </row>
+    <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4">
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12">
         <v>1124</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="12">
         <f t="shared" si="4"/>
         <v>1276</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="12">
         <v>885</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="12">
         <f t="shared" si="5"/>
         <v>1191</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4">
+      <c r="I16" s="12">
+        <v>854</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12">
         <v>2400</v>
       </c>
-      <c r="O16" s="4">
+      <c r="Q16" s="12">
         <v>2076</v>
       </c>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
-      <c r="AJ16" s="4"/>
-      <c r="AK16" s="4"/>
-      <c r="AL16" s="4"/>
-      <c r="AM16" s="4"/>
-      <c r="AN16" s="4"/>
-      <c r="AO16" s="4"/>
-      <c r="AP16" s="4"/>
-      <c r="AQ16" s="4"/>
-      <c r="AR16" s="4"/>
-      <c r="AS16" s="4"/>
-      <c r="AT16" s="4"/>
-      <c r="AU16" s="4"/>
-      <c r="AV16" s="4"/>
-      <c r="AW16" s="4"/>
-      <c r="AX16" s="4"/>
-      <c r="AY16" s="4"/>
-      <c r="AZ16" s="4"/>
-      <c r="BA16" s="4"/>
-      <c r="BB16" s="4"/>
-      <c r="BC16" s="4"/>
-      <c r="BD16" s="4"/>
-      <c r="BE16" s="4"/>
-      <c r="BF16" s="4"/>
-      <c r="BG16" s="4"/>
-      <c r="BH16" s="4"/>
-      <c r="BI16" s="4"/>
-      <c r="BJ16" s="4"/>
-      <c r="BK16" s="4"/>
-      <c r="BL16" s="4"/>
-    </row>
-    <row r="17" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="12"/>
+      <c r="AV16" s="12"/>
+      <c r="AW16" s="12"/>
+      <c r="AX16" s="12"/>
+      <c r="AY16" s="12"/>
+      <c r="AZ16" s="12"/>
+      <c r="BA16" s="12"/>
+      <c r="BB16" s="12"/>
+      <c r="BC16" s="12"/>
+      <c r="BD16" s="12"/>
+      <c r="BE16" s="12"/>
+      <c r="BF16" s="12"/>
+      <c r="BG16" s="12"/>
+      <c r="BH16" s="12"/>
+      <c r="BI16" s="12"/>
+      <c r="BJ16" s="12"/>
+      <c r="BK16" s="12"/>
+      <c r="BL16" s="12"/>
+      <c r="BM16" s="12"/>
+      <c r="BN16" s="12"/>
+    </row>
+    <row r="17" spans="2:66" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12">
         <v>241</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="12">
         <f t="shared" si="4"/>
         <v>265</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="12">
         <v>169</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="12">
         <f t="shared" si="5"/>
         <v>150</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4">
+      <c r="I17" s="12">
+        <v>148</v>
+      </c>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12">
         <v>506</v>
       </c>
-      <c r="O17" s="4">
+      <c r="Q17" s="12">
         <v>319</v>
       </c>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
-      <c r="AI17" s="4"/>
-      <c r="AJ17" s="4"/>
-      <c r="AK17" s="4"/>
-      <c r="AL17" s="4"/>
-      <c r="AM17" s="4"/>
-      <c r="AN17" s="4"/>
-      <c r="AO17" s="4"/>
-      <c r="AP17" s="4"/>
-      <c r="AQ17" s="4"/>
-      <c r="AR17" s="4"/>
-      <c r="AS17" s="4"/>
-      <c r="AT17" s="4"/>
-      <c r="AU17" s="4"/>
-      <c r="AV17" s="4"/>
-      <c r="AW17" s="4"/>
-      <c r="AX17" s="4"/>
-      <c r="AY17" s="4"/>
-      <c r="AZ17" s="4"/>
-      <c r="BA17" s="4"/>
-      <c r="BB17" s="4"/>
-      <c r="BC17" s="4"/>
-      <c r="BD17" s="4"/>
-      <c r="BE17" s="4"/>
-      <c r="BF17" s="4"/>
-      <c r="BG17" s="4"/>
-      <c r="BH17" s="4"/>
-      <c r="BI17" s="4"/>
-      <c r="BJ17" s="4"/>
-      <c r="BK17" s="4"/>
-      <c r="BL17" s="4"/>
-    </row>
-    <row r="18" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="12"/>
+      <c r="AJ17" s="12"/>
+      <c r="AK17" s="12"/>
+      <c r="AL17" s="12"/>
+      <c r="AM17" s="12"/>
+      <c r="AN17" s="12"/>
+      <c r="AO17" s="12"/>
+      <c r="AP17" s="12"/>
+      <c r="AQ17" s="12"/>
+      <c r="AR17" s="12"/>
+      <c r="AS17" s="12"/>
+      <c r="AT17" s="12"/>
+      <c r="AU17" s="12"/>
+      <c r="AV17" s="12"/>
+      <c r="AW17" s="12"/>
+      <c r="AX17" s="12"/>
+      <c r="AY17" s="12"/>
+      <c r="AZ17" s="12"/>
+      <c r="BA17" s="12"/>
+      <c r="BB17" s="12"/>
+      <c r="BC17" s="12"/>
+      <c r="BD17" s="12"/>
+      <c r="BE17" s="12"/>
+      <c r="BF17" s="12"/>
+      <c r="BG17" s="12"/>
+      <c r="BH17" s="12"/>
+      <c r="BI17" s="12"/>
+      <c r="BJ17" s="12"/>
+      <c r="BK17" s="12"/>
+      <c r="BL17" s="12"/>
+      <c r="BM17" s="12"/>
+      <c r="BN17" s="12"/>
+    </row>
+    <row r="18" spans="2:66" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4">
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12">
         <v>31</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="12">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="12">
         <v>32</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="12">
         <f t="shared" si="5"/>
         <v>34</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4">
+      <c r="I18" s="14">
+        <v>30</v>
+      </c>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12">
         <v>62</v>
       </c>
-      <c r="O18" s="4">
+      <c r="Q18" s="12">
         <v>66</v>
       </c>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
-      <c r="AI18" s="4"/>
-      <c r="AJ18" s="4"/>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="4"/>
-      <c r="AM18" s="4"/>
-      <c r="AN18" s="4"/>
-      <c r="AO18" s="4"/>
-      <c r="AP18" s="4"/>
-      <c r="AQ18" s="4"/>
-      <c r="AR18" s="4"/>
-      <c r="AS18" s="4"/>
-      <c r="AT18" s="4"/>
-      <c r="AU18" s="4"/>
-      <c r="AV18" s="4"/>
-      <c r="AW18" s="4"/>
-      <c r="AX18" s="4"/>
-      <c r="AY18" s="4"/>
-      <c r="AZ18" s="4"/>
-      <c r="BA18" s="4"/>
-      <c r="BB18" s="4"/>
-      <c r="BC18" s="4"/>
-      <c r="BD18" s="4"/>
-      <c r="BE18" s="4"/>
-      <c r="BF18" s="4"/>
-      <c r="BG18" s="4"/>
-      <c r="BH18" s="4"/>
-      <c r="BI18" s="4"/>
-      <c r="BJ18" s="4"/>
-      <c r="BK18" s="4"/>
-      <c r="BL18" s="4"/>
-    </row>
-    <row r="19" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="12"/>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="12"/>
+      <c r="AI18" s="12"/>
+      <c r="AJ18" s="12"/>
+      <c r="AK18" s="12"/>
+      <c r="AL18" s="12"/>
+      <c r="AM18" s="12"/>
+      <c r="AN18" s="12"/>
+      <c r="AO18" s="12"/>
+      <c r="AP18" s="12"/>
+      <c r="AQ18" s="12"/>
+      <c r="AR18" s="12"/>
+      <c r="AS18" s="12"/>
+      <c r="AT18" s="12"/>
+      <c r="AU18" s="12"/>
+      <c r="AV18" s="12"/>
+      <c r="AW18" s="12"/>
+      <c r="AX18" s="12"/>
+      <c r="AY18" s="12"/>
+      <c r="AZ18" s="12"/>
+      <c r="BA18" s="12"/>
+      <c r="BB18" s="12"/>
+      <c r="BC18" s="12"/>
+      <c r="BD18" s="12"/>
+      <c r="BE18" s="12"/>
+      <c r="BF18" s="12"/>
+      <c r="BG18" s="12"/>
+      <c r="BH18" s="12"/>
+      <c r="BI18" s="12"/>
+      <c r="BJ18" s="12"/>
+      <c r="BK18" s="12"/>
+      <c r="BL18" s="12"/>
+      <c r="BM18" s="12"/>
+      <c r="BN18" s="12"/>
+    </row>
+    <row r="19" spans="2:66" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="13">
         <f>+SUM(C16:C18)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="13">
         <f t="shared" ref="D19:H19" si="6">+SUM(D16:D18)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="13">
         <f t="shared" si="6"/>
         <v>1396</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="13">
         <f t="shared" si="6"/>
         <v>1572</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="13">
         <f t="shared" si="6"/>
         <v>1086</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="13">
         <f t="shared" si="6"/>
         <v>1375</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="6">
+      <c r="I19" s="13">
+        <v>1032</v>
+      </c>
+      <c r="J19" s="13"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="13">
         <v>2968</v>
       </c>
-      <c r="O19" s="6">
+      <c r="Q19" s="13">
         <v>2461</v>
       </c>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-      <c r="AI19" s="4"/>
-      <c r="AJ19" s="4"/>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="4"/>
-      <c r="AM19" s="4"/>
-      <c r="AN19" s="4"/>
-      <c r="AO19" s="4"/>
-      <c r="AP19" s="4"/>
-      <c r="AQ19" s="4"/>
-      <c r="AR19" s="4"/>
-      <c r="AS19" s="4"/>
-      <c r="AT19" s="4"/>
-      <c r="AU19" s="4"/>
-      <c r="AV19" s="4"/>
-      <c r="AW19" s="4"/>
-      <c r="AX19" s="4"/>
-      <c r="AY19" s="4"/>
-      <c r="AZ19" s="4"/>
-      <c r="BA19" s="4"/>
-      <c r="BB19" s="4"/>
-      <c r="BC19" s="4"/>
-      <c r="BD19" s="4"/>
-      <c r="BE19" s="4"/>
-      <c r="BF19" s="4"/>
-      <c r="BG19" s="4"/>
-      <c r="BH19" s="4"/>
-      <c r="BI19" s="4"/>
-      <c r="BJ19" s="4"/>
-      <c r="BK19" s="4"/>
-      <c r="BL19" s="4"/>
-    </row>
-    <row r="20" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="12"/>
+      <c r="AF19" s="12"/>
+      <c r="AG19" s="12"/>
+      <c r="AH19" s="12"/>
+      <c r="AI19" s="12"/>
+      <c r="AJ19" s="12"/>
+      <c r="AK19" s="12"/>
+      <c r="AL19" s="12"/>
+      <c r="AM19" s="12"/>
+      <c r="AN19" s="12"/>
+      <c r="AO19" s="12"/>
+      <c r="AP19" s="12"/>
+      <c r="AQ19" s="12"/>
+      <c r="AR19" s="12"/>
+      <c r="AS19" s="12"/>
+      <c r="AT19" s="12"/>
+      <c r="AU19" s="12"/>
+      <c r="AV19" s="12"/>
+      <c r="AW19" s="12"/>
+      <c r="AX19" s="12"/>
+      <c r="AY19" s="12"/>
+      <c r="AZ19" s="12"/>
+      <c r="BA19" s="12"/>
+      <c r="BB19" s="12"/>
+      <c r="BC19" s="12"/>
+      <c r="BD19" s="12"/>
+      <c r="BE19" s="12"/>
+      <c r="BF19" s="12"/>
+      <c r="BG19" s="12"/>
+      <c r="BH19" s="12"/>
+      <c r="BI19" s="12"/>
+      <c r="BJ19" s="12"/>
+      <c r="BK19" s="12"/>
+      <c r="BL19" s="12"/>
+      <c r="BM19" s="12"/>
+      <c r="BN19" s="12"/>
+    </row>
+    <row r="20" spans="2:66" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4">
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12">
         <v>421</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="12">
         <f t="shared" si="4"/>
         <v>538</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="12">
         <v>397</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="12">
         <f t="shared" si="5"/>
         <v>526</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4">
+      <c r="I20" s="12">
+        <v>331</v>
+      </c>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12">
         <v>959</v>
       </c>
-      <c r="O20" s="4">
+      <c r="Q20" s="12">
         <v>923</v>
       </c>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
-      <c r="AI20" s="4"/>
-      <c r="AJ20" s="4"/>
-      <c r="AK20" s="4"/>
-      <c r="AL20" s="4"/>
-      <c r="AM20" s="4"/>
-      <c r="AN20" s="4"/>
-      <c r="AO20" s="4"/>
-      <c r="AP20" s="4"/>
-      <c r="AQ20" s="4"/>
-      <c r="AR20" s="4"/>
-      <c r="AS20" s="4"/>
-      <c r="AT20" s="4"/>
-      <c r="AU20" s="4"/>
-      <c r="AV20" s="4"/>
-      <c r="AW20" s="4"/>
-      <c r="AX20" s="4"/>
-      <c r="AY20" s="4"/>
-      <c r="AZ20" s="4"/>
-      <c r="BA20" s="4"/>
-      <c r="BB20" s="4"/>
-      <c r="BC20" s="4"/>
-      <c r="BD20" s="4"/>
-      <c r="BE20" s="4"/>
-      <c r="BF20" s="4"/>
-      <c r="BG20" s="4"/>
-      <c r="BH20" s="4"/>
-      <c r="BI20" s="4"/>
-      <c r="BJ20" s="4"/>
-      <c r="BK20" s="4"/>
-      <c r="BL20" s="4"/>
-    </row>
-    <row r="21" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12"/>
+      <c r="AF20" s="12"/>
+      <c r="AG20" s="12"/>
+      <c r="AH20" s="12"/>
+      <c r="AI20" s="12"/>
+      <c r="AJ20" s="12"/>
+      <c r="AK20" s="12"/>
+      <c r="AL20" s="12"/>
+      <c r="AM20" s="12"/>
+      <c r="AN20" s="12"/>
+      <c r="AO20" s="12"/>
+      <c r="AP20" s="12"/>
+      <c r="AQ20" s="12"/>
+      <c r="AR20" s="12"/>
+      <c r="AS20" s="12"/>
+      <c r="AT20" s="12"/>
+      <c r="AU20" s="12"/>
+      <c r="AV20" s="12"/>
+      <c r="AW20" s="12"/>
+      <c r="AX20" s="12"/>
+      <c r="AY20" s="12"/>
+      <c r="AZ20" s="12"/>
+      <c r="BA20" s="12"/>
+      <c r="BB20" s="12"/>
+      <c r="BC20" s="12"/>
+      <c r="BD20" s="12"/>
+      <c r="BE20" s="12"/>
+      <c r="BF20" s="12"/>
+      <c r="BG20" s="12"/>
+      <c r="BH20" s="12"/>
+      <c r="BI20" s="12"/>
+      <c r="BJ20" s="12"/>
+      <c r="BK20" s="12"/>
+      <c r="BL20" s="12"/>
+      <c r="BM20" s="12"/>
+      <c r="BN20" s="12"/>
+    </row>
+    <row r="21" spans="2:66" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="12">
         <f t="shared" ref="C21:F21" si="7">+C19-C20</f>
         <v>0</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="12">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="12">
         <f t="shared" si="7"/>
         <v>975</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="12">
         <f t="shared" si="7"/>
         <v>1034</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="12">
         <f>+G19-G20</f>
         <v>689</v>
       </c>
-      <c r="H21" s="4">
-        <f t="shared" ref="H21" si="8">+H19-H20</f>
+      <c r="H21" s="12">
+        <f t="shared" ref="H21:I21" si="8">+H19-H20</f>
         <v>849</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4">
-        <f>+N19-N20</f>
+      <c r="I21" s="12">
+        <f t="shared" si="8"/>
+        <v>701</v>
+      </c>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12">
+        <f>+P19-P20</f>
         <v>2009</v>
       </c>
-      <c r="O21" s="4">
-        <f>+O19-O20</f>
+      <c r="Q21" s="12">
+        <f>+Q19-Q20</f>
         <v>1538</v>
       </c>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4"/>
-      <c r="AF21" s="4"/>
-      <c r="AG21" s="4"/>
-      <c r="AH21" s="4"/>
-      <c r="AI21" s="4"/>
-      <c r="AJ21" s="4"/>
-      <c r="AK21" s="4"/>
-      <c r="AL21" s="4"/>
-      <c r="AM21" s="4"/>
-      <c r="AN21" s="4"/>
-      <c r="AO21" s="4"/>
-      <c r="AP21" s="4"/>
-      <c r="AQ21" s="4"/>
-      <c r="AR21" s="4"/>
-      <c r="AS21" s="4"/>
-      <c r="AT21" s="4"/>
-      <c r="AU21" s="4"/>
-      <c r="AV21" s="4"/>
-      <c r="AW21" s="4"/>
-      <c r="AX21" s="4"/>
-      <c r="AY21" s="4"/>
-      <c r="AZ21" s="4"/>
-      <c r="BA21" s="4"/>
-      <c r="BB21" s="4"/>
-      <c r="BC21" s="4"/>
-      <c r="BD21" s="4"/>
-      <c r="BE21" s="4"/>
-      <c r="BF21" s="4"/>
-      <c r="BG21" s="4"/>
-      <c r="BH21" s="4"/>
-      <c r="BI21" s="4"/>
-      <c r="BJ21" s="4"/>
-      <c r="BK21" s="4"/>
-      <c r="BL21" s="4"/>
-    </row>
-    <row r="22" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="12"/>
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="12"/>
+      <c r="AJ21" s="12"/>
+      <c r="AK21" s="12"/>
+      <c r="AL21" s="12"/>
+      <c r="AM21" s="12"/>
+      <c r="AN21" s="12"/>
+      <c r="AO21" s="12"/>
+      <c r="AP21" s="12"/>
+      <c r="AQ21" s="12"/>
+      <c r="AR21" s="12"/>
+      <c r="AS21" s="12"/>
+      <c r="AT21" s="12"/>
+      <c r="AU21" s="12"/>
+      <c r="AV21" s="12"/>
+      <c r="AW21" s="12"/>
+      <c r="AX21" s="12"/>
+      <c r="AY21" s="12"/>
+      <c r="AZ21" s="12"/>
+      <c r="BA21" s="12"/>
+      <c r="BB21" s="12"/>
+      <c r="BC21" s="12"/>
+      <c r="BD21" s="12"/>
+      <c r="BE21" s="12"/>
+      <c r="BF21" s="12"/>
+      <c r="BG21" s="12"/>
+      <c r="BH21" s="12"/>
+      <c r="BI21" s="12"/>
+      <c r="BJ21" s="12"/>
+      <c r="BK21" s="12"/>
+      <c r="BL21" s="12"/>
+      <c r="BM21" s="12"/>
+      <c r="BN21" s="12"/>
+    </row>
+    <row r="22" spans="2:66" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4">
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12">
         <v>758</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="12">
         <f t="shared" si="4"/>
         <v>846</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="12">
         <v>755</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="12">
         <f t="shared" si="5"/>
         <v>757</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4">
+      <c r="I22" s="12">
+        <v>724</v>
+      </c>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12">
         <v>1604</v>
       </c>
-      <c r="O22" s="4">
+      <c r="Q22" s="12">
         <v>1512</v>
       </c>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
-      <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
-      <c r="AI22" s="4"/>
-      <c r="AJ22" s="4"/>
-      <c r="AK22" s="4"/>
-      <c r="AL22" s="4"/>
-      <c r="AM22" s="4"/>
-      <c r="AN22" s="4"/>
-      <c r="AO22" s="4"/>
-      <c r="AP22" s="4"/>
-      <c r="AQ22" s="4"/>
-      <c r="AR22" s="4"/>
-      <c r="AS22" s="4"/>
-      <c r="AT22" s="4"/>
-      <c r="AU22" s="4"/>
-      <c r="AV22" s="4"/>
-      <c r="AW22" s="4"/>
-      <c r="AX22" s="4"/>
-      <c r="AY22" s="4"/>
-      <c r="AZ22" s="4"/>
-      <c r="BA22" s="4"/>
-      <c r="BB22" s="4"/>
-      <c r="BC22" s="4"/>
-      <c r="BD22" s="4"/>
-      <c r="BE22" s="4"/>
-      <c r="BF22" s="4"/>
-      <c r="BG22" s="4"/>
-      <c r="BH22" s="4"/>
-      <c r="BI22" s="4"/>
-      <c r="BJ22" s="4"/>
-      <c r="BK22" s="4"/>
-      <c r="BL22" s="4"/>
-    </row>
-    <row r="23" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="12"/>
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="12"/>
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="12"/>
+      <c r="AJ22" s="12"/>
+      <c r="AK22" s="12"/>
+      <c r="AL22" s="12"/>
+      <c r="AM22" s="12"/>
+      <c r="AN22" s="12"/>
+      <c r="AO22" s="12"/>
+      <c r="AP22" s="12"/>
+      <c r="AQ22" s="12"/>
+      <c r="AR22" s="12"/>
+      <c r="AS22" s="12"/>
+      <c r="AT22" s="12"/>
+      <c r="AU22" s="12"/>
+      <c r="AV22" s="12"/>
+      <c r="AW22" s="12"/>
+      <c r="AX22" s="12"/>
+      <c r="AY22" s="12"/>
+      <c r="AZ22" s="12"/>
+      <c r="BA22" s="12"/>
+      <c r="BB22" s="12"/>
+      <c r="BC22" s="12"/>
+      <c r="BD22" s="12"/>
+      <c r="BE22" s="12"/>
+      <c r="BF22" s="12"/>
+      <c r="BG22" s="12"/>
+      <c r="BH22" s="12"/>
+      <c r="BI22" s="12"/>
+      <c r="BJ22" s="12"/>
+      <c r="BK22" s="12"/>
+      <c r="BL22" s="12"/>
+      <c r="BM22" s="12"/>
+      <c r="BN22" s="12"/>
+    </row>
+    <row r="23" spans="2:66" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4">
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12">
         <v>6</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="12">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="12">
         <v>13</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="12">
         <f t="shared" si="5"/>
         <v>-42</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4">
+      <c r="I23" s="12">
+        <v>5</v>
+      </c>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12">
         <v>13</v>
       </c>
-      <c r="O23" s="4">
+      <c r="Q23" s="12">
         <v>-29</v>
       </c>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
-      <c r="AE23" s="4"/>
-      <c r="AF23" s="4"/>
-      <c r="AG23" s="4"/>
-      <c r="AH23" s="4"/>
-      <c r="AI23" s="4"/>
-      <c r="AJ23" s="4"/>
-      <c r="AK23" s="4"/>
-      <c r="AL23" s="4"/>
-      <c r="AM23" s="4"/>
-      <c r="AN23" s="4"/>
-      <c r="AO23" s="4"/>
-      <c r="AP23" s="4"/>
-      <c r="AQ23" s="4"/>
-      <c r="AR23" s="4"/>
-      <c r="AS23" s="4"/>
-      <c r="AT23" s="4"/>
-      <c r="AU23" s="4"/>
-      <c r="AV23" s="4"/>
-      <c r="AW23" s="4"/>
-      <c r="AX23" s="4"/>
-      <c r="AY23" s="4"/>
-      <c r="AZ23" s="4"/>
-      <c r="BA23" s="4"/>
-      <c r="BB23" s="4"/>
-      <c r="BC23" s="4"/>
-      <c r="BD23" s="4"/>
-      <c r="BE23" s="4"/>
-      <c r="BF23" s="4"/>
-      <c r="BG23" s="4"/>
-      <c r="BH23" s="4"/>
-      <c r="BI23" s="4"/>
-      <c r="BJ23" s="4"/>
-      <c r="BK23" s="4"/>
-      <c r="BL23" s="4"/>
-    </row>
-    <row r="24" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="12"/>
+      <c r="AD23" s="12"/>
+      <c r="AE23" s="12"/>
+      <c r="AF23" s="12"/>
+      <c r="AG23" s="12"/>
+      <c r="AH23" s="12"/>
+      <c r="AI23" s="12"/>
+      <c r="AJ23" s="12"/>
+      <c r="AK23" s="12"/>
+      <c r="AL23" s="12"/>
+      <c r="AM23" s="12"/>
+      <c r="AN23" s="12"/>
+      <c r="AO23" s="12"/>
+      <c r="AP23" s="12"/>
+      <c r="AQ23" s="12"/>
+      <c r="AR23" s="12"/>
+      <c r="AS23" s="12"/>
+      <c r="AT23" s="12"/>
+      <c r="AU23" s="12"/>
+      <c r="AV23" s="12"/>
+      <c r="AW23" s="12"/>
+      <c r="AX23" s="12"/>
+      <c r="AY23" s="12"/>
+      <c r="AZ23" s="12"/>
+      <c r="BA23" s="12"/>
+      <c r="BB23" s="12"/>
+      <c r="BC23" s="12"/>
+      <c r="BD23" s="12"/>
+      <c r="BE23" s="12"/>
+      <c r="BF23" s="12"/>
+      <c r="BG23" s="12"/>
+      <c r="BH23" s="12"/>
+      <c r="BI23" s="12"/>
+      <c r="BJ23" s="12"/>
+      <c r="BK23" s="12"/>
+      <c r="BL23" s="12"/>
+      <c r="BM23" s="12"/>
+      <c r="BN23" s="12"/>
+    </row>
+    <row r="24" spans="2:66" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="12">
         <f t="shared" ref="C24:F24" si="9">+C21-C22+C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="12">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="12">
         <f t="shared" si="9"/>
         <v>223</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="12">
         <f t="shared" si="9"/>
         <v>195</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="12">
         <f>+G21-G22+G23</f>
         <v>-53</v>
       </c>
-      <c r="H24" s="4">
-        <f t="shared" ref="H24:O24" si="10">+H21-H22+H23</f>
+      <c r="H24" s="12">
+        <f t="shared" ref="H24:Q24" si="10">+H21-H22+H23</f>
         <v>50</v>
       </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4">
+      <c r="I24" s="12">
+        <f t="shared" si="10"/>
+        <v>-18</v>
+      </c>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K24" s="4">
+      <c r="M24" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L24" s="4">
+      <c r="N24" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M24" s="4">
+      <c r="O24" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N24" s="4">
+      <c r="P24" s="12">
         <f t="shared" si="10"/>
         <v>418</v>
       </c>
-      <c r="O24" s="4">
+      <c r="Q24" s="12">
         <f t="shared" si="10"/>
         <v>-3</v>
       </c>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
-      <c r="AD24" s="4"/>
-      <c r="AE24" s="4"/>
-      <c r="AF24" s="4"/>
-      <c r="AG24" s="4"/>
-      <c r="AH24" s="4"/>
-      <c r="AI24" s="4"/>
-      <c r="AJ24" s="4"/>
-      <c r="AK24" s="4"/>
-      <c r="AL24" s="4"/>
-      <c r="AM24" s="4"/>
-      <c r="AN24" s="4"/>
-      <c r="AO24" s="4"/>
-      <c r="AP24" s="4"/>
-      <c r="AQ24" s="4"/>
-      <c r="AR24" s="4"/>
-      <c r="AS24" s="4"/>
-      <c r="AT24" s="4"/>
-      <c r="AU24" s="4"/>
-      <c r="AV24" s="4"/>
-      <c r="AW24" s="4"/>
-      <c r="AX24" s="4"/>
-      <c r="AY24" s="4"/>
-      <c r="AZ24" s="4"/>
-      <c r="BA24" s="4"/>
-      <c r="BB24" s="4"/>
-      <c r="BC24" s="4"/>
-      <c r="BD24" s="4"/>
-      <c r="BE24" s="4"/>
-      <c r="BF24" s="4"/>
-      <c r="BG24" s="4"/>
-      <c r="BH24" s="4"/>
-      <c r="BI24" s="4"/>
-      <c r="BJ24" s="4"/>
-      <c r="BK24" s="4"/>
-      <c r="BL24" s="4"/>
-    </row>
-    <row r="25" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="12"/>
+      <c r="AE24" s="12"/>
+      <c r="AF24" s="12"/>
+      <c r="AG24" s="12"/>
+      <c r="AH24" s="12"/>
+      <c r="AI24" s="12"/>
+      <c r="AJ24" s="12"/>
+      <c r="AK24" s="12"/>
+      <c r="AL24" s="12"/>
+      <c r="AM24" s="12"/>
+      <c r="AN24" s="12"/>
+      <c r="AO24" s="12"/>
+      <c r="AP24" s="12"/>
+      <c r="AQ24" s="12"/>
+      <c r="AR24" s="12"/>
+      <c r="AS24" s="12"/>
+      <c r="AT24" s="12"/>
+      <c r="AU24" s="12"/>
+      <c r="AV24" s="12"/>
+      <c r="AW24" s="12"/>
+      <c r="AX24" s="12"/>
+      <c r="AY24" s="12"/>
+      <c r="AZ24" s="12"/>
+      <c r="BA24" s="12"/>
+      <c r="BB24" s="12"/>
+      <c r="BC24" s="12"/>
+      <c r="BD24" s="12"/>
+      <c r="BE24" s="12"/>
+      <c r="BF24" s="12"/>
+      <c r="BG24" s="12"/>
+      <c r="BH24" s="12"/>
+      <c r="BI24" s="12"/>
+      <c r="BJ24" s="12"/>
+      <c r="BK24" s="12"/>
+      <c r="BL24" s="12"/>
+      <c r="BM24" s="12"/>
+      <c r="BN24" s="12"/>
+    </row>
+    <row r="25" spans="2:66" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4">
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12">
         <v>20</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="12">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="12">
         <v>11</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="12">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4">
+      <c r="I25" s="12">
+        <v>14</v>
+      </c>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12">
         <v>31</v>
       </c>
-      <c r="O25" s="4">
+      <c r="Q25" s="12">
         <v>25</v>
       </c>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="4"/>
-      <c r="AD25" s="4"/>
-      <c r="AE25" s="4"/>
-      <c r="AF25" s="4"/>
-      <c r="AG25" s="4"/>
-      <c r="AH25" s="4"/>
-      <c r="AI25" s="4"/>
-      <c r="AJ25" s="4"/>
-      <c r="AK25" s="4"/>
-      <c r="AL25" s="4"/>
-      <c r="AM25" s="4"/>
-      <c r="AN25" s="4"/>
-      <c r="AO25" s="4"/>
-      <c r="AP25" s="4"/>
-      <c r="AQ25" s="4"/>
-      <c r="AR25" s="4"/>
-      <c r="AS25" s="4"/>
-      <c r="AT25" s="4"/>
-      <c r="AU25" s="4"/>
-      <c r="AV25" s="4"/>
-      <c r="AW25" s="4"/>
-      <c r="AX25" s="4"/>
-      <c r="AY25" s="4"/>
-      <c r="AZ25" s="4"/>
-      <c r="BA25" s="4"/>
-      <c r="BB25" s="4"/>
-      <c r="BC25" s="4"/>
-      <c r="BD25" s="4"/>
-      <c r="BE25" s="4"/>
-      <c r="BF25" s="4"/>
-      <c r="BG25" s="4"/>
-      <c r="BH25" s="4"/>
-      <c r="BI25" s="4"/>
-      <c r="BJ25" s="4"/>
-      <c r="BK25" s="4"/>
-      <c r="BL25" s="4"/>
-    </row>
-    <row r="26" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12"/>
+      <c r="AE25" s="12"/>
+      <c r="AF25" s="12"/>
+      <c r="AG25" s="12"/>
+      <c r="AH25" s="12"/>
+      <c r="AI25" s="12"/>
+      <c r="AJ25" s="12"/>
+      <c r="AK25" s="12"/>
+      <c r="AL25" s="12"/>
+      <c r="AM25" s="12"/>
+      <c r="AN25" s="12"/>
+      <c r="AO25" s="12"/>
+      <c r="AP25" s="12"/>
+      <c r="AQ25" s="12"/>
+      <c r="AR25" s="12"/>
+      <c r="AS25" s="12"/>
+      <c r="AT25" s="12"/>
+      <c r="AU25" s="12"/>
+      <c r="AV25" s="12"/>
+      <c r="AW25" s="12"/>
+      <c r="AX25" s="12"/>
+      <c r="AY25" s="12"/>
+      <c r="AZ25" s="12"/>
+      <c r="BA25" s="12"/>
+      <c r="BB25" s="12"/>
+      <c r="BC25" s="12"/>
+      <c r="BD25" s="12"/>
+      <c r="BE25" s="12"/>
+      <c r="BF25" s="12"/>
+      <c r="BG25" s="12"/>
+      <c r="BH25" s="12"/>
+      <c r="BI25" s="12"/>
+      <c r="BJ25" s="12"/>
+      <c r="BK25" s="12"/>
+      <c r="BL25" s="12"/>
+      <c r="BM25" s="12"/>
+      <c r="BN25" s="12"/>
+    </row>
+    <row r="26" spans="2:66" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4">
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12">
         <v>24</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="12">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="12">
         <v>38</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="12">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4">
+      <c r="I26" s="12">
+        <v>44</v>
+      </c>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12">
         <v>66</v>
       </c>
-      <c r="O26" s="4">
+      <c r="Q26" s="12">
         <v>88</v>
       </c>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="4"/>
-      <c r="AC26" s="4"/>
-      <c r="AD26" s="4"/>
-      <c r="AE26" s="4"/>
-      <c r="AF26" s="4"/>
-      <c r="AG26" s="4"/>
-      <c r="AH26" s="4"/>
-      <c r="AI26" s="4"/>
-      <c r="AJ26" s="4"/>
-      <c r="AK26" s="4"/>
-      <c r="AL26" s="4"/>
-      <c r="AM26" s="4"/>
-      <c r="AN26" s="4"/>
-      <c r="AO26" s="4"/>
-      <c r="AP26" s="4"/>
-      <c r="AQ26" s="4"/>
-      <c r="AR26" s="4"/>
-      <c r="AS26" s="4"/>
-      <c r="AT26" s="4"/>
-      <c r="AU26" s="4"/>
-      <c r="AV26" s="4"/>
-      <c r="AW26" s="4"/>
-      <c r="AX26" s="4"/>
-      <c r="AY26" s="4"/>
-      <c r="AZ26" s="4"/>
-      <c r="BA26" s="4"/>
-      <c r="BB26" s="4"/>
-      <c r="BC26" s="4"/>
-      <c r="BD26" s="4"/>
-      <c r="BE26" s="4"/>
-      <c r="BF26" s="4"/>
-      <c r="BG26" s="4"/>
-      <c r="BH26" s="4"/>
-      <c r="BI26" s="4"/>
-      <c r="BJ26" s="4"/>
-      <c r="BK26" s="4"/>
-      <c r="BL26" s="4"/>
-    </row>
-    <row r="27" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="12"/>
+      <c r="AF26" s="12"/>
+      <c r="AG26" s="12"/>
+      <c r="AH26" s="12"/>
+      <c r="AI26" s="12"/>
+      <c r="AJ26" s="12"/>
+      <c r="AK26" s="12"/>
+      <c r="AL26" s="12"/>
+      <c r="AM26" s="12"/>
+      <c r="AN26" s="12"/>
+      <c r="AO26" s="12"/>
+      <c r="AP26" s="12"/>
+      <c r="AQ26" s="12"/>
+      <c r="AR26" s="12"/>
+      <c r="AS26" s="12"/>
+      <c r="AT26" s="12"/>
+      <c r="AU26" s="12"/>
+      <c r="AV26" s="12"/>
+      <c r="AW26" s="12"/>
+      <c r="AX26" s="12"/>
+      <c r="AY26" s="12"/>
+      <c r="AZ26" s="12"/>
+      <c r="BA26" s="12"/>
+      <c r="BB26" s="12"/>
+      <c r="BC26" s="12"/>
+      <c r="BD26" s="12"/>
+      <c r="BE26" s="12"/>
+      <c r="BF26" s="12"/>
+      <c r="BG26" s="12"/>
+      <c r="BH26" s="12"/>
+      <c r="BI26" s="12"/>
+      <c r="BJ26" s="12"/>
+      <c r="BK26" s="12"/>
+      <c r="BL26" s="12"/>
+      <c r="BM26" s="12"/>
+      <c r="BN26" s="12"/>
+    </row>
+    <row r="27" spans="2:66" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="12">
         <f t="shared" ref="C27:F27" si="11">+C24+C25-C26</f>
         <v>0</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="12">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="12">
         <f t="shared" si="11"/>
         <v>219</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="12">
         <f t="shared" si="11"/>
         <v>164</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="12">
         <f>+G24+G25-G26</f>
         <v>-80</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="12">
         <f>+H24+H25-H26</f>
         <v>14</v>
       </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4">
-        <f t="shared" ref="J27:O27" si="12">+J24+J25-J26</f>
+      <c r="I27" s="12">
+        <f>+I24+I25-I26</f>
+        <v>-48</v>
+      </c>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12">
+        <f t="shared" ref="L27:Q27" si="12">+L24+L25-L26</f>
         <v>0</v>
       </c>
-      <c r="K27" s="4">
+      <c r="M27" s="12">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L27" s="4">
+      <c r="N27" s="12">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M27" s="4">
+      <c r="O27" s="12">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N27" s="4">
+      <c r="P27" s="12">
         <f t="shared" si="12"/>
         <v>383</v>
       </c>
-      <c r="O27" s="4">
+      <c r="Q27" s="12">
         <f t="shared" si="12"/>
         <v>-66</v>
       </c>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="4"/>
-      <c r="AD27" s="4"/>
-      <c r="AE27" s="4"/>
-      <c r="AF27" s="4"/>
-      <c r="AG27" s="4"/>
-      <c r="AH27" s="4"/>
-      <c r="AI27" s="4"/>
-      <c r="AJ27" s="4"/>
-      <c r="AK27" s="4"/>
-      <c r="AL27" s="4"/>
-      <c r="AM27" s="4"/>
-      <c r="AN27" s="4"/>
-      <c r="AO27" s="4"/>
-      <c r="AP27" s="4"/>
-      <c r="AQ27" s="4"/>
-      <c r="AR27" s="4"/>
-      <c r="AS27" s="4"/>
-      <c r="AT27" s="4"/>
-      <c r="AU27" s="4"/>
-      <c r="AV27" s="4"/>
-      <c r="AW27" s="4"/>
-      <c r="AX27" s="4"/>
-      <c r="AY27" s="4"/>
-      <c r="AZ27" s="4"/>
-      <c r="BA27" s="4"/>
-      <c r="BB27" s="4"/>
-      <c r="BC27" s="4"/>
-      <c r="BD27" s="4"/>
-      <c r="BE27" s="4"/>
-      <c r="BF27" s="4"/>
-      <c r="BG27" s="4"/>
-      <c r="BH27" s="4"/>
-      <c r="BI27" s="4"/>
-      <c r="BJ27" s="4"/>
-      <c r="BK27" s="4"/>
-      <c r="BL27" s="4"/>
-    </row>
-    <row r="28" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12"/>
+      <c r="AE27" s="12"/>
+      <c r="AF27" s="12"/>
+      <c r="AG27" s="12"/>
+      <c r="AH27" s="12"/>
+      <c r="AI27" s="12"/>
+      <c r="AJ27" s="12"/>
+      <c r="AK27" s="12"/>
+      <c r="AL27" s="12"/>
+      <c r="AM27" s="12"/>
+      <c r="AN27" s="12"/>
+      <c r="AO27" s="12"/>
+      <c r="AP27" s="12"/>
+      <c r="AQ27" s="12"/>
+      <c r="AR27" s="12"/>
+      <c r="AS27" s="12"/>
+      <c r="AT27" s="12"/>
+      <c r="AU27" s="12"/>
+      <c r="AV27" s="12"/>
+      <c r="AW27" s="12"/>
+      <c r="AX27" s="12"/>
+      <c r="AY27" s="12"/>
+      <c r="AZ27" s="12"/>
+      <c r="BA27" s="12"/>
+      <c r="BB27" s="12"/>
+      <c r="BC27" s="12"/>
+      <c r="BD27" s="12"/>
+      <c r="BE27" s="12"/>
+      <c r="BF27" s="12"/>
+      <c r="BG27" s="12"/>
+      <c r="BH27" s="12"/>
+      <c r="BI27" s="12"/>
+      <c r="BJ27" s="12"/>
+      <c r="BK27" s="12"/>
+      <c r="BL27" s="12"/>
+      <c r="BM27" s="12"/>
+      <c r="BN27" s="12"/>
+    </row>
+    <row r="28" spans="2:66" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4">
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12">
         <v>60</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="12">
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="12">
         <v>-6</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="12">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4">
+      <c r="I28" s="12">
+        <v>-21</v>
+      </c>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12">
         <v>112</v>
       </c>
-      <c r="O28" s="4">
+      <c r="Q28" s="12">
         <v>9</v>
       </c>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="4"/>
-      <c r="AD28" s="4"/>
-      <c r="AE28" s="4"/>
-      <c r="AF28" s="4"/>
-      <c r="AG28" s="4"/>
-      <c r="AH28" s="4"/>
-      <c r="AI28" s="4"/>
-      <c r="AJ28" s="4"/>
-      <c r="AK28" s="4"/>
-      <c r="AL28" s="4"/>
-      <c r="AM28" s="4"/>
-      <c r="AN28" s="4"/>
-      <c r="AO28" s="4"/>
-      <c r="AP28" s="4"/>
-      <c r="AQ28" s="4"/>
-      <c r="AR28" s="4"/>
-      <c r="AS28" s="4"/>
-      <c r="AT28" s="4"/>
-      <c r="AU28" s="4"/>
-      <c r="AV28" s="4"/>
-      <c r="AW28" s="4"/>
-      <c r="AX28" s="4"/>
-      <c r="AY28" s="4"/>
-      <c r="AZ28" s="4"/>
-      <c r="BA28" s="4"/>
-      <c r="BB28" s="4"/>
-      <c r="BC28" s="4"/>
-      <c r="BD28" s="4"/>
-      <c r="BE28" s="4"/>
-      <c r="BF28" s="4"/>
-      <c r="BG28" s="4"/>
-      <c r="BH28" s="4"/>
-      <c r="BI28" s="4"/>
-      <c r="BJ28" s="4"/>
-      <c r="BK28" s="4"/>
-      <c r="BL28" s="4"/>
-    </row>
-    <row r="29" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+      <c r="AE28" s="12"/>
+      <c r="AF28" s="12"/>
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="12"/>
+      <c r="AI28" s="12"/>
+      <c r="AJ28" s="12"/>
+      <c r="AK28" s="12"/>
+      <c r="AL28" s="12"/>
+      <c r="AM28" s="12"/>
+      <c r="AN28" s="12"/>
+      <c r="AO28" s="12"/>
+      <c r="AP28" s="12"/>
+      <c r="AQ28" s="12"/>
+      <c r="AR28" s="12"/>
+      <c r="AS28" s="12"/>
+      <c r="AT28" s="12"/>
+      <c r="AU28" s="12"/>
+      <c r="AV28" s="12"/>
+      <c r="AW28" s="12"/>
+      <c r="AX28" s="12"/>
+      <c r="AY28" s="12"/>
+      <c r="AZ28" s="12"/>
+      <c r="BA28" s="12"/>
+      <c r="BB28" s="12"/>
+      <c r="BC28" s="12"/>
+      <c r="BD28" s="12"/>
+      <c r="BE28" s="12"/>
+      <c r="BF28" s="12"/>
+      <c r="BG28" s="12"/>
+      <c r="BH28" s="12"/>
+      <c r="BI28" s="12"/>
+      <c r="BJ28" s="12"/>
+      <c r="BK28" s="12"/>
+      <c r="BL28" s="12"/>
+      <c r="BM28" s="12"/>
+      <c r="BN28" s="12"/>
+    </row>
+    <row r="29" spans="2:66" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="12">
         <f t="shared" ref="C29:F29" si="13">+C27-C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="12">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="12">
         <f t="shared" si="13"/>
         <v>159</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="12">
         <f t="shared" si="13"/>
         <v>112</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="12">
         <f>+G27-G28</f>
         <v>-74</v>
       </c>
-      <c r="H29" s="4">
-        <f t="shared" ref="H29:O29" si="14">+H27-H28</f>
+      <c r="H29" s="12">
+        <f t="shared" ref="H29:Q29" si="14">+H27-H28</f>
         <v>-1</v>
       </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4">
+      <c r="I29" s="12">
+        <f t="shared" si="14"/>
+        <v>-27</v>
+      </c>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K29" s="4">
+      <c r="M29" s="12">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="L29" s="4">
+      <c r="N29" s="12">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M29" s="4">
+      <c r="O29" s="12">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N29" s="4">
+      <c r="P29" s="12">
         <f t="shared" si="14"/>
         <v>271</v>
       </c>
-      <c r="O29" s="4">
+      <c r="Q29" s="12">
         <f t="shared" si="14"/>
         <v>-75</v>
       </c>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="4"/>
-      <c r="AC29" s="4"/>
-      <c r="AD29" s="4"/>
-      <c r="AE29" s="4"/>
-      <c r="AF29" s="4"/>
-      <c r="AG29" s="4"/>
-      <c r="AH29" s="4"/>
-      <c r="AI29" s="4"/>
-      <c r="AJ29" s="4"/>
-      <c r="AK29" s="4"/>
-      <c r="AL29" s="4"/>
-      <c r="AM29" s="4"/>
-      <c r="AN29" s="4"/>
-      <c r="AO29" s="4"/>
-      <c r="AP29" s="4"/>
-      <c r="AQ29" s="4"/>
-      <c r="AR29" s="4"/>
-      <c r="AS29" s="4"/>
-      <c r="AT29" s="4"/>
-      <c r="AU29" s="4"/>
-      <c r="AV29" s="4"/>
-      <c r="AW29" s="4"/>
-      <c r="AX29" s="4"/>
-      <c r="AY29" s="4"/>
-      <c r="AZ29" s="4"/>
-      <c r="BA29" s="4"/>
-      <c r="BB29" s="4"/>
-      <c r="BC29" s="4"/>
-      <c r="BD29" s="4"/>
-      <c r="BE29" s="4"/>
-      <c r="BF29" s="4"/>
-      <c r="BG29" s="4"/>
-      <c r="BH29" s="4"/>
-      <c r="BI29" s="4"/>
-      <c r="BJ29" s="4"/>
-      <c r="BK29" s="4"/>
-      <c r="BL29" s="4"/>
-    </row>
-    <row r="30" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="12"/>
+      <c r="AC29" s="12"/>
+      <c r="AD29" s="12"/>
+      <c r="AE29" s="12"/>
+      <c r="AF29" s="12"/>
+      <c r="AG29" s="12"/>
+      <c r="AH29" s="12"/>
+      <c r="AI29" s="12"/>
+      <c r="AJ29" s="12"/>
+      <c r="AK29" s="12"/>
+      <c r="AL29" s="12"/>
+      <c r="AM29" s="12"/>
+      <c r="AN29" s="12"/>
+      <c r="AO29" s="12"/>
+      <c r="AP29" s="12"/>
+      <c r="AQ29" s="12"/>
+      <c r="AR29" s="12"/>
+      <c r="AS29" s="12"/>
+      <c r="AT29" s="12"/>
+      <c r="AU29" s="12"/>
+      <c r="AV29" s="12"/>
+      <c r="AW29" s="12"/>
+      <c r="AX29" s="12"/>
+      <c r="AY29" s="12"/>
+      <c r="AZ29" s="12"/>
+      <c r="BA29" s="12"/>
+      <c r="BB29" s="12"/>
+      <c r="BC29" s="12"/>
+      <c r="BD29" s="12"/>
+      <c r="BE29" s="12"/>
+      <c r="BF29" s="12"/>
+      <c r="BG29" s="12"/>
+      <c r="BH29" s="12"/>
+      <c r="BI29" s="12"/>
+      <c r="BJ29" s="12"/>
+      <c r="BK29" s="12"/>
+      <c r="BL29" s="12"/>
+      <c r="BM29" s="12"/>
+      <c r="BN29" s="12"/>
+    </row>
+    <row r="30" spans="2:66" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4">
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12">
         <v>1</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="12">
         <v>0</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4">
+      <c r="I30" s="12">
+        <v>-1</v>
+      </c>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12">
         <v>1</v>
       </c>
-      <c r="O30" s="4">
+      <c r="Q30" s="12">
         <v>0</v>
       </c>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
-      <c r="AA30" s="4"/>
-      <c r="AB30" s="4"/>
-      <c r="AC30" s="4"/>
-      <c r="AD30" s="4"/>
-      <c r="AE30" s="4"/>
-      <c r="AF30" s="4"/>
-      <c r="AG30" s="4"/>
-      <c r="AH30" s="4"/>
-      <c r="AI30" s="4"/>
-      <c r="AJ30" s="4"/>
-      <c r="AK30" s="4"/>
-      <c r="AL30" s="4"/>
-      <c r="AM30" s="4"/>
-      <c r="AN30" s="4"/>
-      <c r="AO30" s="4"/>
-      <c r="AP30" s="4"/>
-      <c r="AQ30" s="4"/>
-      <c r="AR30" s="4"/>
-      <c r="AS30" s="4"/>
-      <c r="AT30" s="4"/>
-      <c r="AU30" s="4"/>
-      <c r="AV30" s="4"/>
-      <c r="AW30" s="4"/>
-      <c r="AX30" s="4"/>
-      <c r="AY30" s="4"/>
-      <c r="AZ30" s="4"/>
-      <c r="BA30" s="4"/>
-      <c r="BB30" s="4"/>
-      <c r="BC30" s="4"/>
-      <c r="BD30" s="4"/>
-      <c r="BE30" s="4"/>
-      <c r="BF30" s="4"/>
-      <c r="BG30" s="4"/>
-      <c r="BH30" s="4"/>
-      <c r="BI30" s="4"/>
-      <c r="BJ30" s="4"/>
-      <c r="BK30" s="4"/>
-      <c r="BL30" s="4"/>
-    </row>
-    <row r="31" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="12"/>
+      <c r="AF30" s="12"/>
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="12"/>
+      <c r="AI30" s="12"/>
+      <c r="AJ30" s="12"/>
+      <c r="AK30" s="12"/>
+      <c r="AL30" s="12"/>
+      <c r="AM30" s="12"/>
+      <c r="AN30" s="12"/>
+      <c r="AO30" s="12"/>
+      <c r="AP30" s="12"/>
+      <c r="AQ30" s="12"/>
+      <c r="AR30" s="12"/>
+      <c r="AS30" s="12"/>
+      <c r="AT30" s="12"/>
+      <c r="AU30" s="12"/>
+      <c r="AV30" s="12"/>
+      <c r="AW30" s="12"/>
+      <c r="AX30" s="12"/>
+      <c r="AY30" s="12"/>
+      <c r="AZ30" s="12"/>
+      <c r="BA30" s="12"/>
+      <c r="BB30" s="12"/>
+      <c r="BC30" s="12"/>
+      <c r="BD30" s="12"/>
+      <c r="BE30" s="12"/>
+      <c r="BF30" s="12"/>
+      <c r="BG30" s="12"/>
+      <c r="BH30" s="12"/>
+      <c r="BI30" s="12"/>
+      <c r="BJ30" s="12"/>
+      <c r="BK30" s="12"/>
+      <c r="BL30" s="12"/>
+      <c r="BM30" s="12"/>
+      <c r="BN30" s="12"/>
+    </row>
+    <row r="31" spans="2:66" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="12">
         <f t="shared" ref="C31:D31" si="15">+C29-C30</f>
         <v>0</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="12">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="12">
         <f>+E29-E30</f>
         <v>158</v>
       </c>
-      <c r="F31" s="4">
-        <f t="shared" ref="F31:O31" si="16">+F29-F30</f>
+      <c r="F31" s="12">
+        <f t="shared" ref="F31:Q31" si="16">+F29-F30</f>
         <v>112</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="12">
         <f t="shared" si="16"/>
         <v>-74</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="12">
         <f t="shared" si="16"/>
         <v>-1</v>
       </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4">
+      <c r="I31" s="12">
+        <f t="shared" si="16"/>
+        <v>-26</v>
+      </c>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="K31" s="4">
+      <c r="M31" s="12">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L31" s="4">
+      <c r="N31" s="12">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M31" s="4">
+      <c r="O31" s="12">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="N31" s="4">
+      <c r="P31" s="12">
         <f t="shared" si="16"/>
         <v>270</v>
       </c>
-      <c r="O31" s="4">
+      <c r="Q31" s="12">
         <f t="shared" si="16"/>
         <v>-75</v>
       </c>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
-      <c r="AA31" s="4"/>
-      <c r="AB31" s="4"/>
-      <c r="AC31" s="4"/>
-      <c r="AD31" s="4"/>
-      <c r="AE31" s="4"/>
-      <c r="AF31" s="4"/>
-      <c r="AG31" s="4"/>
-      <c r="AH31" s="4"/>
-      <c r="AI31" s="4"/>
-      <c r="AJ31" s="4"/>
-      <c r="AK31" s="4"/>
-      <c r="AL31" s="4"/>
-      <c r="AM31" s="4"/>
-      <c r="AN31" s="4"/>
-      <c r="AO31" s="4"/>
-      <c r="AP31" s="4"/>
-      <c r="AQ31" s="4"/>
-      <c r="AR31" s="4"/>
-      <c r="AS31" s="4"/>
-      <c r="AT31" s="4"/>
-      <c r="AU31" s="4"/>
-      <c r="AV31" s="4"/>
-      <c r="AW31" s="4"/>
-      <c r="AX31" s="4"/>
-      <c r="AY31" s="4"/>
-      <c r="AZ31" s="4"/>
-      <c r="BA31" s="4"/>
-      <c r="BB31" s="4"/>
-      <c r="BC31" s="4"/>
-      <c r="BD31" s="4"/>
-      <c r="BE31" s="4"/>
-      <c r="BF31" s="4"/>
-      <c r="BG31" s="4"/>
-      <c r="BH31" s="4"/>
-      <c r="BI31" s="4"/>
-      <c r="BJ31" s="4"/>
-      <c r="BK31" s="4"/>
-      <c r="BL31" s="4"/>
-    </row>
-    <row r="32" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+      <c r="AA31" s="12"/>
+      <c r="AB31" s="12"/>
+      <c r="AC31" s="12"/>
+      <c r="AD31" s="12"/>
+      <c r="AE31" s="12"/>
+      <c r="AF31" s="12"/>
+      <c r="AG31" s="12"/>
+      <c r="AH31" s="12"/>
+      <c r="AI31" s="12"/>
+      <c r="AJ31" s="12"/>
+      <c r="AK31" s="12"/>
+      <c r="AL31" s="12"/>
+      <c r="AM31" s="12"/>
+      <c r="AN31" s="12"/>
+      <c r="AO31" s="12"/>
+      <c r="AP31" s="12"/>
+      <c r="AQ31" s="12"/>
+      <c r="AR31" s="12"/>
+      <c r="AS31" s="12"/>
+      <c r="AT31" s="12"/>
+      <c r="AU31" s="12"/>
+      <c r="AV31" s="12"/>
+      <c r="AW31" s="12"/>
+      <c r="AX31" s="12"/>
+      <c r="AY31" s="12"/>
+      <c r="AZ31" s="12"/>
+      <c r="BA31" s="12"/>
+      <c r="BB31" s="12"/>
+      <c r="BC31" s="12"/>
+      <c r="BD31" s="12"/>
+      <c r="BE31" s="12"/>
+      <c r="BF31" s="12"/>
+      <c r="BG31" s="12"/>
+      <c r="BH31" s="12"/>
+      <c r="BI31" s="12"/>
+      <c r="BJ31" s="12"/>
+      <c r="BK31" s="12"/>
+      <c r="BL31" s="12"/>
+      <c r="BM31" s="12"/>
+      <c r="BN31" s="12"/>
+    </row>
+    <row r="32" spans="2:66" x14ac:dyDescent="0.2">
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -3106,8 +3465,10 @@
       <c r="BJ32" s="4"/>
       <c r="BK32" s="4"/>
       <c r="BL32" s="4"/>
-    </row>
-    <row r="33" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="BM32" s="4"/>
+      <c r="BN32" s="4"/>
+    </row>
+    <row r="33" spans="2:66" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>34</v>
       </c>
@@ -3124,7 +3485,7 @@
         <v>0.42347896006432589</v>
       </c>
       <c r="F33" s="7">
-        <f t="shared" ref="F33:H33" si="18">+F31/F34</f>
+        <f t="shared" ref="F33:I33" si="18">+F31/F34</f>
         <v>0.30584380120152921</v>
       </c>
       <c r="G33" s="7">
@@ -3135,30 +3496,33 @@
         <f t="shared" si="18"/>
         <v>-2.7901785714285715E-3</v>
       </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="7" t="e">
-        <f t="shared" ref="K33:N33" si="19">+K31/K34</f>
+      <c r="I33" s="7">
+        <f t="shared" si="18"/>
+        <v>-7.2142064372918979E-2</v>
+      </c>
+      <c r="J33" s="7"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="7" t="e">
+        <f t="shared" ref="M33:P33" si="19">+M31/M34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L33" s="7" t="e">
+      <c r="N33" s="7" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M33" s="7" t="e">
+      <c r="O33" s="7" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N33" s="7">
+      <c r="P33" s="7">
         <f t="shared" si="19"/>
         <v>0.73730202075368656</v>
       </c>
-      <c r="O33" s="7">
-        <f>+O31/O34</f>
+      <c r="Q33" s="7">
+        <f>+Q31/Q34</f>
         <v>-0.20926339285714288</v>
       </c>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
@@ -3206,8 +3570,10 @@
       <c r="BJ33" s="4"/>
       <c r="BK33" s="4"/>
       <c r="BL33" s="4"/>
-    </row>
-    <row r="34" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="BM33" s="4"/>
+      <c r="BN33" s="4"/>
+    </row>
+    <row r="34" spans="2:66" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>4</v>
       </c>
@@ -3217,29 +3583,31 @@
         <v>373.1</v>
       </c>
       <c r="F34" s="4">
-        <f>+N34</f>
+        <f>+P34</f>
         <v>366.2</v>
       </c>
       <c r="G34" s="4">
         <v>357.3</v>
       </c>
       <c r="H34" s="4">
-        <f>+O34</f>
+        <f>+Q34</f>
         <v>358.4</v>
       </c>
-      <c r="I34" s="4"/>
+      <c r="I34" s="4">
+        <v>360.4</v>
+      </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
-      <c r="N34" s="4">
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4">
         <v>366.2</v>
       </c>
-      <c r="O34" s="4">
+      <c r="Q34" s="4">
         <v>358.4</v>
       </c>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
@@ -3287,8 +3655,10 @@
       <c r="BJ34" s="4"/>
       <c r="BK34" s="4"/>
       <c r="BL34" s="4"/>
-    </row>
-    <row r="35" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="BM34" s="4"/>
+      <c r="BN34" s="4"/>
+    </row>
+    <row r="35" spans="2:66" x14ac:dyDescent="0.2">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -3351,8 +3721,10 @@
       <c r="BJ35" s="4"/>
       <c r="BK35" s="4"/>
       <c r="BL35" s="4"/>
-    </row>
-    <row r="36" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="BM35" s="4"/>
+      <c r="BN35" s="4"/>
+    </row>
+    <row r="36" spans="2:66" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>54</v>
       </c>
@@ -3374,18 +3746,15 @@
         <f>+H6/F6-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4" t="e">
-        <f t="shared" ref="K36:N36" si="21">+K6/J6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L36" s="4" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="I36" s="8">
+        <f>+I6/G6-1</f>
+        <v>-3.2634032634032639E-2</v>
+      </c>
+      <c r="J36" s="8"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
       <c r="M36" s="4" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="M36:P36" si="21">+M6/L6-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N36" s="4" t="e">
@@ -3393,11 +3762,17 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O36" s="4" t="e">
-        <f>+O6/N6-1</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
+      <c r="P36" s="4" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q36" s="4" t="e">
+        <f>+Q6/P6-1</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
@@ -3445,8 +3820,10 @@
       <c r="BJ36" s="4"/>
       <c r="BK36" s="4"/>
       <c r="BL36" s="4"/>
-    </row>
-    <row r="37" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="BM36" s="4"/>
+      <c r="BN36" s="4"/>
+    </row>
+    <row r="37" spans="2:66" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>55</v>
       </c>
@@ -3468,30 +3845,33 @@
         <f>+H13/F13-1</f>
         <v>-0.14672364672364668</v>
       </c>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="8" t="e">
-        <f t="shared" ref="K37:N38" si="23">+K13/J13-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L37" s="8" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="I37" s="8">
+        <f>+I13/G13-1</f>
+        <v>-8.7837837837837829E-2</v>
+      </c>
+      <c r="J37" s="8"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
       <c r="M37" s="8" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="M37:P38" si="23">+M13/L13-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N37" s="8" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O37" s="8">
-        <f t="shared" ref="O37:O38" si="24">+O13/N13-1</f>
+      <c r="O37" s="8" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P37" s="8" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q37" s="8">
+        <f t="shared" ref="Q37:Q38" si="24">+Q13/P13-1</f>
         <v>-0.18895800933125972</v>
       </c>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
@@ -3539,8 +3919,10 @@
       <c r="BJ37" s="4"/>
       <c r="BK37" s="4"/>
       <c r="BL37" s="4"/>
-    </row>
-    <row r="38" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="BM37" s="4"/>
+      <c r="BN37" s="4"/>
+    </row>
+    <row r="38" spans="2:66" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>56</v>
       </c>
@@ -3559,19 +3941,16 @@
         <v>-0.19175257731958761</v>
       </c>
       <c r="H38" s="8">
-        <f t="shared" ref="H38:H39" si="25">+H14/F14-1</f>
+        <f t="shared" ref="H38:I39" si="25">+H14/F14-1</f>
         <v>-0.15413533834586468</v>
       </c>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="8" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L38" s="8" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="I38" s="8">
+        <f t="shared" si="25"/>
+        <v>-2.8061224489795866E-2</v>
+      </c>
+      <c r="J38" s="8"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
       <c r="M38" s="8" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
@@ -3580,12 +3959,18 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O38" s="8">
+      <c r="O38" s="8" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P38" s="8" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q38" s="8">
         <f t="shared" si="24"/>
         <v>-0.17207472959685344</v>
       </c>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
@@ -3633,8 +4018,10 @@
       <c r="BJ38" s="4"/>
       <c r="BK38" s="4"/>
       <c r="BL38" s="4"/>
-    </row>
-    <row r="39" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="BM38" s="4"/>
+      <c r="BN38" s="4"/>
+    </row>
+    <row r="39" spans="2:66" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>57</v>
       </c>
@@ -3656,30 +4043,33 @@
         <f t="shared" si="25"/>
         <v>-4.8859934853420217E-2</v>
       </c>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="8" t="e">
-        <f t="shared" ref="K39:N39" si="26">+K15/J15-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L39" s="8" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="I39" s="8">
+        <f t="shared" si="25"/>
+        <v>-9.1743119266054496E-3</v>
+      </c>
+      <c r="J39" s="8"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
       <c r="M39" s="8" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="M39:P39" si="26">+M15/L15-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N39" s="8" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O39" s="8">
-        <f>+O15/N15-1</f>
+      <c r="O39" s="8" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P39" s="8" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q39" s="8">
+        <f>+Q15/P15-1</f>
         <v>-0.154228855721393</v>
       </c>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
@@ -3727,8 +4117,10 @@
       <c r="BJ39" s="4"/>
       <c r="BK39" s="4"/>
       <c r="BL39" s="4"/>
-    </row>
-    <row r="40" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="BM39" s="4"/>
+      <c r="BN39" s="4"/>
+    </row>
+    <row r="40" spans="2:66" x14ac:dyDescent="0.2">
       <c r="B40" s="5" t="s">
         <v>58</v>
       </c>
@@ -3750,30 +4142,33 @@
         <f>+H19/F19-1</f>
         <v>-0.12531806615776087</v>
       </c>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="9" t="e">
-        <f t="shared" ref="K40:N40" si="28">+K19/J19-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L40" s="9" t="e">
-        <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="I40" s="9">
+        <f>+I19/G19-1</f>
+        <v>-4.9723756906077332E-2</v>
+      </c>
+      <c r="J40" s="9"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
       <c r="M40" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="M40:P40" si="28">+M19/L19-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N40" s="9" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O40" s="9">
-        <f>+O19/N19-1</f>
+      <c r="O40" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P40" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q40" s="9">
+        <f>+Q19/P19-1</f>
         <v>-0.17082210242587603</v>
       </c>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
       <c r="T40" s="6"/>
@@ -3782,8 +4177,8 @@
       <c r="W40" s="6"/>
       <c r="X40" s="6"/>
       <c r="Y40" s="6"/>
-      <c r="Z40" s="4"/>
-      <c r="AA40" s="4"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
       <c r="AD40" s="4"/>
@@ -3821,8 +4216,10 @@
       <c r="BJ40" s="4"/>
       <c r="BK40" s="4"/>
       <c r="BL40" s="4"/>
-    </row>
-    <row r="41" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="BM40" s="4"/>
+      <c r="BN40" s="4"/>
+    </row>
+    <row r="41" spans="2:66" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>59</v>
       </c>
@@ -3850,33 +4247,36 @@
         <f>+H21/H19</f>
         <v>0.61745454545454548</v>
       </c>
-      <c r="I41" s="4"/>
-      <c r="J41" s="8" t="e">
-        <f t="shared" ref="J41:O41" si="30">+J21/J19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K41" s="8" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="I41" s="8">
+        <f>+I21/I19</f>
+        <v>0.67926356589147285</v>
+      </c>
+      <c r="J41" s="8"/>
+      <c r="K41" s="4"/>
       <c r="L41" s="8" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="L41:Q41" si="30">+L21/L19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M41" s="8" t="e">
         <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N41" s="8">
+      <c r="N41" s="8" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O41" s="8" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P41" s="8">
         <f t="shared" si="30"/>
         <v>0.67688679245283023</v>
       </c>
-      <c r="O41" s="8">
+      <c r="Q41" s="8">
         <f t="shared" si="30"/>
         <v>0.62494920763917106</v>
       </c>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
@@ -3924,8 +4324,10 @@
       <c r="BJ41" s="4"/>
       <c r="BK41" s="4"/>
       <c r="BL41" s="4"/>
-    </row>
-    <row r="42" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="BM41" s="4"/>
+      <c r="BN41" s="4"/>
+    </row>
+    <row r="42" spans="2:66" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>60</v>
       </c>
@@ -3953,33 +4355,36 @@
         <f>+H24/H19</f>
         <v>3.6363636363636362E-2</v>
       </c>
-      <c r="I42" s="4"/>
-      <c r="J42" s="8" t="e">
-        <f t="shared" ref="J42:O42" si="32">+J24/J19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K42" s="8" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="I42" s="8">
+        <f>+I24/I19</f>
+        <v>-1.7441860465116279E-2</v>
+      </c>
+      <c r="J42" s="8"/>
+      <c r="K42" s="4"/>
       <c r="L42" s="8" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="L42:Q42" si="32">+L24/L19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M42" s="8" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N42" s="8">
+      <c r="N42" s="8" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O42" s="8" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P42" s="8">
         <f t="shared" si="32"/>
         <v>0.14083557951482481</v>
       </c>
-      <c r="O42" s="8">
+      <c r="Q42" s="8">
         <f t="shared" si="32"/>
         <v>-1.2190166598943519E-3</v>
       </c>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
@@ -4027,8 +4432,10 @@
       <c r="BJ42" s="4"/>
       <c r="BK42" s="4"/>
       <c r="BL42" s="4"/>
-    </row>
-    <row r="43" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="BM42" s="4"/>
+      <c r="BN42" s="4"/>
+    </row>
+    <row r="43" spans="2:66" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>61</v>
       </c>
@@ -4056,33 +4463,36 @@
         <f>+H28/H27</f>
         <v>1.0714285714285714</v>
       </c>
-      <c r="I43" s="4"/>
-      <c r="J43" s="8" t="e">
-        <f t="shared" ref="J43:O43" si="34">+J28/J27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K43" s="8" t="e">
-        <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="I43" s="8">
+        <f>+I28/I27</f>
+        <v>0.4375</v>
+      </c>
+      <c r="J43" s="8"/>
+      <c r="K43" s="4"/>
       <c r="L43" s="8" t="e">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="L43:Q43" si="34">+L28/L27</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M43" s="8" t="e">
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N43" s="8">
+      <c r="N43" s="8" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O43" s="8" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P43" s="8">
         <f t="shared" si="34"/>
         <v>0.29242819843342038</v>
       </c>
-      <c r="O43" s="8">
+      <c r="Q43" s="8">
         <f t="shared" si="34"/>
         <v>-0.13636363636363635</v>
       </c>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
@@ -4130,8 +4540,10 @@
       <c r="BJ43" s="4"/>
       <c r="BK43" s="4"/>
       <c r="BL43" s="4"/>
-    </row>
-    <row r="44" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="BM43" s="4"/>
+      <c r="BN43" s="4"/>
+    </row>
+    <row r="44" spans="2:66" x14ac:dyDescent="0.2">
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -4194,8 +4606,10 @@
       <c r="BJ44" s="4"/>
       <c r="BK44" s="4"/>
       <c r="BL44" s="4"/>
-    </row>
-    <row r="45" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="BM44" s="4"/>
+      <c r="BN44" s="4"/>
+    </row>
+    <row r="45" spans="2:66" x14ac:dyDescent="0.2">
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -4258,8 +4672,10 @@
       <c r="BJ45" s="4"/>
       <c r="BK45" s="4"/>
       <c r="BL45" s="4"/>
-    </row>
-    <row r="46" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="BM45" s="4"/>
+      <c r="BN45" s="4"/>
+    </row>
+    <row r="46" spans="2:66" x14ac:dyDescent="0.2">
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -4322,8 +4738,10 @@
       <c r="BJ46" s="4"/>
       <c r="BK46" s="4"/>
       <c r="BL46" s="4"/>
-    </row>
-    <row r="47" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="BM46" s="4"/>
+      <c r="BN46" s="4"/>
+    </row>
+    <row r="47" spans="2:66" x14ac:dyDescent="0.2">
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -4386,8 +4804,10 @@
       <c r="BJ47" s="4"/>
       <c r="BK47" s="4"/>
       <c r="BL47" s="4"/>
-    </row>
-    <row r="48" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="BM47" s="4"/>
+      <c r="BN47" s="4"/>
+    </row>
+    <row r="48" spans="2:66" x14ac:dyDescent="0.2">
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -4450,8 +4870,10 @@
       <c r="BJ48" s="4"/>
       <c r="BK48" s="4"/>
       <c r="BL48" s="4"/>
-    </row>
-    <row r="49" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM48" s="4"/>
+      <c r="BN48" s="4"/>
+    </row>
+    <row r="49" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -4514,8 +4936,10 @@
       <c r="BJ49" s="4"/>
       <c r="BK49" s="4"/>
       <c r="BL49" s="4"/>
-    </row>
-    <row r="50" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM49" s="4"/>
+      <c r="BN49" s="4"/>
+    </row>
+    <row r="50" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -4578,8 +5002,10 @@
       <c r="BJ50" s="4"/>
       <c r="BK50" s="4"/>
       <c r="BL50" s="4"/>
-    </row>
-    <row r="51" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM50" s="4"/>
+      <c r="BN50" s="4"/>
+    </row>
+    <row r="51" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -4642,8 +5068,10 @@
       <c r="BJ51" s="4"/>
       <c r="BK51" s="4"/>
       <c r="BL51" s="4"/>
-    </row>
-    <row r="52" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM51" s="4"/>
+      <c r="BN51" s="4"/>
+    </row>
+    <row r="52" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -4706,8 +5134,10 @@
       <c r="BJ52" s="4"/>
       <c r="BK52" s="4"/>
       <c r="BL52" s="4"/>
-    </row>
-    <row r="53" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM52" s="4"/>
+      <c r="BN52" s="4"/>
+    </row>
+    <row r="53" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -4770,8 +5200,10 @@
       <c r="BJ53" s="4"/>
       <c r="BK53" s="4"/>
       <c r="BL53" s="4"/>
-    </row>
-    <row r="54" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM53" s="4"/>
+      <c r="BN53" s="4"/>
+    </row>
+    <row r="54" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -4834,8 +5266,10 @@
       <c r="BJ54" s="4"/>
       <c r="BK54" s="4"/>
       <c r="BL54" s="4"/>
-    </row>
-    <row r="55" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM54" s="4"/>
+      <c r="BN54" s="4"/>
+    </row>
+    <row r="55" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -4898,8 +5332,10 @@
       <c r="BJ55" s="4"/>
       <c r="BK55" s="4"/>
       <c r="BL55" s="4"/>
-    </row>
-    <row r="56" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM55" s="4"/>
+      <c r="BN55" s="4"/>
+    </row>
+    <row r="56" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -4962,8 +5398,10 @@
       <c r="BJ56" s="4"/>
       <c r="BK56" s="4"/>
       <c r="BL56" s="4"/>
-    </row>
-    <row r="57" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM56" s="4"/>
+      <c r="BN56" s="4"/>
+    </row>
+    <row r="57" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -5026,8 +5464,10 @@
       <c r="BJ57" s="4"/>
       <c r="BK57" s="4"/>
       <c r="BL57" s="4"/>
-    </row>
-    <row r="58" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM57" s="4"/>
+      <c r="BN57" s="4"/>
+    </row>
+    <row r="58" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -5090,8 +5530,10 @@
       <c r="BJ58" s="4"/>
       <c r="BK58" s="4"/>
       <c r="BL58" s="4"/>
-    </row>
-    <row r="59" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM58" s="4"/>
+      <c r="BN58" s="4"/>
+    </row>
+    <row r="59" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -5154,8 +5596,10 @@
       <c r="BJ59" s="4"/>
       <c r="BK59" s="4"/>
       <c r="BL59" s="4"/>
-    </row>
-    <row r="60" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM59" s="4"/>
+      <c r="BN59" s="4"/>
+    </row>
+    <row r="60" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -5218,8 +5662,10 @@
       <c r="BJ60" s="4"/>
       <c r="BK60" s="4"/>
       <c r="BL60" s="4"/>
-    </row>
-    <row r="61" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM60" s="4"/>
+      <c r="BN60" s="4"/>
+    </row>
+    <row r="61" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -5282,8 +5728,10 @@
       <c r="BJ61" s="4"/>
       <c r="BK61" s="4"/>
       <c r="BL61" s="4"/>
-    </row>
-    <row r="62" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM61" s="4"/>
+      <c r="BN61" s="4"/>
+    </row>
+    <row r="62" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -5346,8 +5794,10 @@
       <c r="BJ62" s="4"/>
       <c r="BK62" s="4"/>
       <c r="BL62" s="4"/>
-    </row>
-    <row r="63" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM62" s="4"/>
+      <c r="BN62" s="4"/>
+    </row>
+    <row r="63" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -5410,8 +5860,10 @@
       <c r="BJ63" s="4"/>
       <c r="BK63" s="4"/>
       <c r="BL63" s="4"/>
-    </row>
-    <row r="64" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM63" s="4"/>
+      <c r="BN63" s="4"/>
+    </row>
+    <row r="64" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -5474,8 +5926,10 @@
       <c r="BJ64" s="4"/>
       <c r="BK64" s="4"/>
       <c r="BL64" s="4"/>
-    </row>
-    <row r="65" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM64" s="4"/>
+      <c r="BN64" s="4"/>
+    </row>
+    <row r="65" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -5538,8 +5992,10 @@
       <c r="BJ65" s="4"/>
       <c r="BK65" s="4"/>
       <c r="BL65" s="4"/>
-    </row>
-    <row r="66" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM65" s="4"/>
+      <c r="BN65" s="4"/>
+    </row>
+    <row r="66" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -5602,8 +6058,10 @@
       <c r="BJ66" s="4"/>
       <c r="BK66" s="4"/>
       <c r="BL66" s="4"/>
-    </row>
-    <row r="67" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM66" s="4"/>
+      <c r="BN66" s="4"/>
+    </row>
+    <row r="67" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -5666,8 +6124,10 @@
       <c r="BJ67" s="4"/>
       <c r="BK67" s="4"/>
       <c r="BL67" s="4"/>
-    </row>
-    <row r="68" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM67" s="4"/>
+      <c r="BN67" s="4"/>
+    </row>
+    <row r="68" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -5730,8 +6190,10 @@
       <c r="BJ68" s="4"/>
       <c r="BK68" s="4"/>
       <c r="BL68" s="4"/>
-    </row>
-    <row r="69" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM68" s="4"/>
+      <c r="BN68" s="4"/>
+    </row>
+    <row r="69" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -5794,8 +6256,10 @@
       <c r="BJ69" s="4"/>
       <c r="BK69" s="4"/>
       <c r="BL69" s="4"/>
-    </row>
-    <row r="70" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM69" s="4"/>
+      <c r="BN69" s="4"/>
+    </row>
+    <row r="70" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -5858,8 +6322,10 @@
       <c r="BJ70" s="4"/>
       <c r="BK70" s="4"/>
       <c r="BL70" s="4"/>
-    </row>
-    <row r="71" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM70" s="4"/>
+      <c r="BN70" s="4"/>
+    </row>
+    <row r="71" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
@@ -5922,8 +6388,10 @@
       <c r="BJ71" s="4"/>
       <c r="BK71" s="4"/>
       <c r="BL71" s="4"/>
-    </row>
-    <row r="72" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM71" s="4"/>
+      <c r="BN71" s="4"/>
+    </row>
+    <row r="72" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
@@ -5986,8 +6454,10 @@
       <c r="BJ72" s="4"/>
       <c r="BK72" s="4"/>
       <c r="BL72" s="4"/>
-    </row>
-    <row r="73" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM72" s="4"/>
+      <c r="BN72" s="4"/>
+    </row>
+    <row r="73" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
@@ -6050,8 +6520,10 @@
       <c r="BJ73" s="4"/>
       <c r="BK73" s="4"/>
       <c r="BL73" s="4"/>
-    </row>
-    <row r="74" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM73" s="4"/>
+      <c r="BN73" s="4"/>
+    </row>
+    <row r="74" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
@@ -6114,8 +6586,10 @@
       <c r="BJ74" s="4"/>
       <c r="BK74" s="4"/>
       <c r="BL74" s="4"/>
-    </row>
-    <row r="75" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM74" s="4"/>
+      <c r="BN74" s="4"/>
+    </row>
+    <row r="75" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -6178,8 +6652,10 @@
       <c r="BJ75" s="4"/>
       <c r="BK75" s="4"/>
       <c r="BL75" s="4"/>
-    </row>
-    <row r="76" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM75" s="4"/>
+      <c r="BN75" s="4"/>
+    </row>
+    <row r="76" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
@@ -6242,8 +6718,10 @@
       <c r="BJ76" s="4"/>
       <c r="BK76" s="4"/>
       <c r="BL76" s="4"/>
-    </row>
-    <row r="77" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM76" s="4"/>
+      <c r="BN76" s="4"/>
+    </row>
+    <row r="77" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -6306,8 +6784,10 @@
       <c r="BJ77" s="4"/>
       <c r="BK77" s="4"/>
       <c r="BL77" s="4"/>
-    </row>
-    <row r="78" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM77" s="4"/>
+      <c r="BN77" s="4"/>
+    </row>
+    <row r="78" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
@@ -6370,8 +6850,10 @@
       <c r="BJ78" s="4"/>
       <c r="BK78" s="4"/>
       <c r="BL78" s="4"/>
-    </row>
-    <row r="79" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM78" s="4"/>
+      <c r="BN78" s="4"/>
+    </row>
+    <row r="79" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -6434,8 +6916,10 @@
       <c r="BJ79" s="4"/>
       <c r="BK79" s="4"/>
       <c r="BL79" s="4"/>
-    </row>
-    <row r="80" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM79" s="4"/>
+      <c r="BN79" s="4"/>
+    </row>
+    <row r="80" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
@@ -6498,8 +6982,10 @@
       <c r="BJ80" s="4"/>
       <c r="BK80" s="4"/>
       <c r="BL80" s="4"/>
-    </row>
-    <row r="81" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM80" s="4"/>
+      <c r="BN80" s="4"/>
+    </row>
+    <row r="81" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -6562,8 +7048,10 @@
       <c r="BJ81" s="4"/>
       <c r="BK81" s="4"/>
       <c r="BL81" s="4"/>
-    </row>
-    <row r="82" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM81" s="4"/>
+      <c r="BN81" s="4"/>
+    </row>
+    <row r="82" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
@@ -6626,8 +7114,10 @@
       <c r="BJ82" s="4"/>
       <c r="BK82" s="4"/>
       <c r="BL82" s="4"/>
-    </row>
-    <row r="83" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM82" s="4"/>
+      <c r="BN82" s="4"/>
+    </row>
+    <row r="83" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -6690,8 +7180,10 @@
       <c r="BJ83" s="4"/>
       <c r="BK83" s="4"/>
       <c r="BL83" s="4"/>
-    </row>
-    <row r="84" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM83" s="4"/>
+      <c r="BN83" s="4"/>
+    </row>
+    <row r="84" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
@@ -6754,8 +7246,10 @@
       <c r="BJ84" s="4"/>
       <c r="BK84" s="4"/>
       <c r="BL84" s="4"/>
-    </row>
-    <row r="85" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM84" s="4"/>
+      <c r="BN84" s="4"/>
+    </row>
+    <row r="85" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
@@ -6818,8 +7312,10 @@
       <c r="BJ85" s="4"/>
       <c r="BK85" s="4"/>
       <c r="BL85" s="4"/>
-    </row>
-    <row r="86" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM85" s="4"/>
+      <c r="BN85" s="4"/>
+    </row>
+    <row r="86" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
@@ -6882,8 +7378,10 @@
       <c r="BJ86" s="4"/>
       <c r="BK86" s="4"/>
       <c r="BL86" s="4"/>
-    </row>
-    <row r="87" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM86" s="4"/>
+      <c r="BN86" s="4"/>
+    </row>
+    <row r="87" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -6946,8 +7444,10 @@
       <c r="BJ87" s="4"/>
       <c r="BK87" s="4"/>
       <c r="BL87" s="4"/>
-    </row>
-    <row r="88" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM87" s="4"/>
+      <c r="BN87" s="4"/>
+    </row>
+    <row r="88" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
@@ -7010,8 +7510,10 @@
       <c r="BJ88" s="4"/>
       <c r="BK88" s="4"/>
       <c r="BL88" s="4"/>
-    </row>
-    <row r="89" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM88" s="4"/>
+      <c r="BN88" s="4"/>
+    </row>
+    <row r="89" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
@@ -7074,8 +7576,10 @@
       <c r="BJ89" s="4"/>
       <c r="BK89" s="4"/>
       <c r="BL89" s="4"/>
-    </row>
-    <row r="90" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM89" s="4"/>
+      <c r="BN89" s="4"/>
+    </row>
+    <row r="90" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -7138,8 +7642,10 @@
       <c r="BJ90" s="4"/>
       <c r="BK90" s="4"/>
       <c r="BL90" s="4"/>
-    </row>
-    <row r="91" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM90" s="4"/>
+      <c r="BN90" s="4"/>
+    </row>
+    <row r="91" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
@@ -7202,8 +7708,10 @@
       <c r="BJ91" s="4"/>
       <c r="BK91" s="4"/>
       <c r="BL91" s="4"/>
-    </row>
-    <row r="92" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM91" s="4"/>
+      <c r="BN91" s="4"/>
+    </row>
+    <row r="92" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
@@ -7266,8 +7774,10 @@
       <c r="BJ92" s="4"/>
       <c r="BK92" s="4"/>
       <c r="BL92" s="4"/>
-    </row>
-    <row r="93" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM92" s="4"/>
+      <c r="BN92" s="4"/>
+    </row>
+    <row r="93" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -7330,8 +7840,10 @@
       <c r="BJ93" s="4"/>
       <c r="BK93" s="4"/>
       <c r="BL93" s="4"/>
-    </row>
-    <row r="94" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM93" s="4"/>
+      <c r="BN93" s="4"/>
+    </row>
+    <row r="94" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
@@ -7394,8 +7906,10 @@
       <c r="BJ94" s="4"/>
       <c r="BK94" s="4"/>
       <c r="BL94" s="4"/>
-    </row>
-    <row r="95" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM94" s="4"/>
+      <c r="BN94" s="4"/>
+    </row>
+    <row r="95" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
@@ -7458,8 +7972,10 @@
       <c r="BJ95" s="4"/>
       <c r="BK95" s="4"/>
       <c r="BL95" s="4"/>
-    </row>
-    <row r="96" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM95" s="4"/>
+      <c r="BN95" s="4"/>
+    </row>
+    <row r="96" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
@@ -7522,8 +8038,10 @@
       <c r="BJ96" s="4"/>
       <c r="BK96" s="4"/>
       <c r="BL96" s="4"/>
-    </row>
-    <row r="97" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM96" s="4"/>
+      <c r="BN96" s="4"/>
+    </row>
+    <row r="97" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
@@ -7586,8 +8104,10 @@
       <c r="BJ97" s="4"/>
       <c r="BK97" s="4"/>
       <c r="BL97" s="4"/>
-    </row>
-    <row r="98" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM97" s="4"/>
+      <c r="BN97" s="4"/>
+    </row>
+    <row r="98" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
@@ -7650,8 +8170,10 @@
       <c r="BJ98" s="4"/>
       <c r="BK98" s="4"/>
       <c r="BL98" s="4"/>
-    </row>
-    <row r="99" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM98" s="4"/>
+      <c r="BN98" s="4"/>
+    </row>
+    <row r="99" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
@@ -7714,8 +8236,10 @@
       <c r="BJ99" s="4"/>
       <c r="BK99" s="4"/>
       <c r="BL99" s="4"/>
-    </row>
-    <row r="100" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM99" s="4"/>
+      <c r="BN99" s="4"/>
+    </row>
+    <row r="100" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -7778,8 +8302,10 @@
       <c r="BJ100" s="4"/>
       <c r="BK100" s="4"/>
       <c r="BL100" s="4"/>
-    </row>
-    <row r="101" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM100" s="4"/>
+      <c r="BN100" s="4"/>
+    </row>
+    <row r="101" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
@@ -7842,8 +8368,10 @@
       <c r="BJ101" s="4"/>
       <c r="BK101" s="4"/>
       <c r="BL101" s="4"/>
-    </row>
-    <row r="102" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM101" s="4"/>
+      <c r="BN101" s="4"/>
+    </row>
+    <row r="102" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
@@ -7906,8 +8434,10 @@
       <c r="BJ102" s="4"/>
       <c r="BK102" s="4"/>
       <c r="BL102" s="4"/>
-    </row>
-    <row r="103" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM102" s="4"/>
+      <c r="BN102" s="4"/>
+    </row>
+    <row r="103" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
@@ -7970,8 +8500,10 @@
       <c r="BJ103" s="4"/>
       <c r="BK103" s="4"/>
       <c r="BL103" s="4"/>
-    </row>
-    <row r="104" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM103" s="4"/>
+      <c r="BN103" s="4"/>
+    </row>
+    <row r="104" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
@@ -8034,8 +8566,10 @@
       <c r="BJ104" s="4"/>
       <c r="BK104" s="4"/>
       <c r="BL104" s="4"/>
-    </row>
-    <row r="105" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM104" s="4"/>
+      <c r="BN104" s="4"/>
+    </row>
+    <row r="105" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
@@ -8098,8 +8632,10 @@
       <c r="BJ105" s="4"/>
       <c r="BK105" s="4"/>
       <c r="BL105" s="4"/>
-    </row>
-    <row r="106" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM105" s="4"/>
+      <c r="BN105" s="4"/>
+    </row>
+    <row r="106" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
@@ -8162,8 +8698,10 @@
       <c r="BJ106" s="4"/>
       <c r="BK106" s="4"/>
       <c r="BL106" s="4"/>
-    </row>
-    <row r="107" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM106" s="4"/>
+      <c r="BN106" s="4"/>
+    </row>
+    <row r="107" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
@@ -8226,8 +8764,10 @@
       <c r="BJ107" s="4"/>
       <c r="BK107" s="4"/>
       <c r="BL107" s="4"/>
-    </row>
-    <row r="108" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM107" s="4"/>
+      <c r="BN107" s="4"/>
+    </row>
+    <row r="108" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
@@ -8290,8 +8830,10 @@
       <c r="BJ108" s="4"/>
       <c r="BK108" s="4"/>
       <c r="BL108" s="4"/>
-    </row>
-    <row r="109" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM108" s="4"/>
+      <c r="BN108" s="4"/>
+    </row>
+    <row r="109" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -8354,8 +8896,10 @@
       <c r="BJ109" s="4"/>
       <c r="BK109" s="4"/>
       <c r="BL109" s="4"/>
-    </row>
-    <row r="110" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM109" s="4"/>
+      <c r="BN109" s="4"/>
+    </row>
+    <row r="110" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
@@ -8418,8 +8962,10 @@
       <c r="BJ110" s="4"/>
       <c r="BK110" s="4"/>
       <c r="BL110" s="4"/>
-    </row>
-    <row r="111" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM110" s="4"/>
+      <c r="BN110" s="4"/>
+    </row>
+    <row r="111" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -8482,8 +9028,10 @@
       <c r="BJ111" s="4"/>
       <c r="BK111" s="4"/>
       <c r="BL111" s="4"/>
-    </row>
-    <row r="112" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM111" s="4"/>
+      <c r="BN111" s="4"/>
+    </row>
+    <row r="112" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -8546,8 +9094,10 @@
       <c r="BJ112" s="4"/>
       <c r="BK112" s="4"/>
       <c r="BL112" s="4"/>
-    </row>
-    <row r="113" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM112" s="4"/>
+      <c r="BN112" s="4"/>
+    </row>
+    <row r="113" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -8610,8 +9160,10 @@
       <c r="BJ113" s="4"/>
       <c r="BK113" s="4"/>
       <c r="BL113" s="4"/>
-    </row>
-    <row r="114" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM113" s="4"/>
+      <c r="BN113" s="4"/>
+    </row>
+    <row r="114" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -8674,8 +9226,10 @@
       <c r="BJ114" s="4"/>
       <c r="BK114" s="4"/>
       <c r="BL114" s="4"/>
-    </row>
-    <row r="115" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM114" s="4"/>
+      <c r="BN114" s="4"/>
+    </row>
+    <row r="115" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -8738,8 +9292,10 @@
       <c r="BJ115" s="4"/>
       <c r="BK115" s="4"/>
       <c r="BL115" s="4"/>
-    </row>
-    <row r="116" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM115" s="4"/>
+      <c r="BN115" s="4"/>
+    </row>
+    <row r="116" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
@@ -8802,8 +9358,10 @@
       <c r="BJ116" s="4"/>
       <c r="BK116" s="4"/>
       <c r="BL116" s="4"/>
-    </row>
-    <row r="117" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM116" s="4"/>
+      <c r="BN116" s="4"/>
+    </row>
+    <row r="117" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -8866,8 +9424,10 @@
       <c r="BJ117" s="4"/>
       <c r="BK117" s="4"/>
       <c r="BL117" s="4"/>
-    </row>
-    <row r="118" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM117" s="4"/>
+      <c r="BN117" s="4"/>
+    </row>
+    <row r="118" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -8930,8 +9490,10 @@
       <c r="BJ118" s="4"/>
       <c r="BK118" s="4"/>
       <c r="BL118" s="4"/>
-    </row>
-    <row r="119" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM118" s="4"/>
+      <c r="BN118" s="4"/>
+    </row>
+    <row r="119" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -8994,8 +9556,10 @@
       <c r="BJ119" s="4"/>
       <c r="BK119" s="4"/>
       <c r="BL119" s="4"/>
-    </row>
-    <row r="120" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM119" s="4"/>
+      <c r="BN119" s="4"/>
+    </row>
+    <row r="120" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
@@ -9058,8 +9622,10 @@
       <c r="BJ120" s="4"/>
       <c r="BK120" s="4"/>
       <c r="BL120" s="4"/>
-    </row>
-    <row r="121" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM120" s="4"/>
+      <c r="BN120" s="4"/>
+    </row>
+    <row r="121" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -9122,8 +9688,10 @@
       <c r="BJ121" s="4"/>
       <c r="BK121" s="4"/>
       <c r="BL121" s="4"/>
-    </row>
-    <row r="122" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM121" s="4"/>
+      <c r="BN121" s="4"/>
+    </row>
+    <row r="122" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
@@ -9186,8 +9754,10 @@
       <c r="BJ122" s="4"/>
       <c r="BK122" s="4"/>
       <c r="BL122" s="4"/>
-    </row>
-    <row r="123" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM122" s="4"/>
+      <c r="BN122" s="4"/>
+    </row>
+    <row r="123" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
@@ -9250,8 +9820,10 @@
       <c r="BJ123" s="4"/>
       <c r="BK123" s="4"/>
       <c r="BL123" s="4"/>
-    </row>
-    <row r="124" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM123" s="4"/>
+      <c r="BN123" s="4"/>
+    </row>
+    <row r="124" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
@@ -9314,8 +9886,10 @@
       <c r="BJ124" s="4"/>
       <c r="BK124" s="4"/>
       <c r="BL124" s="4"/>
-    </row>
-    <row r="125" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM124" s="4"/>
+      <c r="BN124" s="4"/>
+    </row>
+    <row r="125" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
@@ -9378,8 +9952,10 @@
       <c r="BJ125" s="4"/>
       <c r="BK125" s="4"/>
       <c r="BL125" s="4"/>
-    </row>
-    <row r="126" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM125" s="4"/>
+      <c r="BN125" s="4"/>
+    </row>
+    <row r="126" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
@@ -9442,8 +10018,10 @@
       <c r="BJ126" s="4"/>
       <c r="BK126" s="4"/>
       <c r="BL126" s="4"/>
-    </row>
-    <row r="127" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM126" s="4"/>
+      <c r="BN126" s="4"/>
+    </row>
+    <row r="127" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
@@ -9506,8 +10084,10 @@
       <c r="BJ127" s="4"/>
       <c r="BK127" s="4"/>
       <c r="BL127" s="4"/>
-    </row>
-    <row r="128" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM127" s="4"/>
+      <c r="BN127" s="4"/>
+    </row>
+    <row r="128" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
@@ -9570,8 +10150,10 @@
       <c r="BJ128" s="4"/>
       <c r="BK128" s="4"/>
       <c r="BL128" s="4"/>
-    </row>
-    <row r="129" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM128" s="4"/>
+      <c r="BN128" s="4"/>
+    </row>
+    <row r="129" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
@@ -9634,8 +10216,10 @@
       <c r="BJ129" s="4"/>
       <c r="BK129" s="4"/>
       <c r="BL129" s="4"/>
-    </row>
-    <row r="130" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM129" s="4"/>
+      <c r="BN129" s="4"/>
+    </row>
+    <row r="130" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
@@ -9698,8 +10282,10 @@
       <c r="BJ130" s="4"/>
       <c r="BK130" s="4"/>
       <c r="BL130" s="4"/>
-    </row>
-    <row r="131" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM130" s="4"/>
+      <c r="BN130" s="4"/>
+    </row>
+    <row r="131" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
@@ -9762,8 +10348,10 @@
       <c r="BJ131" s="4"/>
       <c r="BK131" s="4"/>
       <c r="BL131" s="4"/>
-    </row>
-    <row r="132" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM131" s="4"/>
+      <c r="BN131" s="4"/>
+    </row>
+    <row r="132" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
@@ -9826,8 +10414,10 @@
       <c r="BJ132" s="4"/>
       <c r="BK132" s="4"/>
       <c r="BL132" s="4"/>
-    </row>
-    <row r="133" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM132" s="4"/>
+      <c r="BN132" s="4"/>
+    </row>
+    <row r="133" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
@@ -9890,8 +10480,10 @@
       <c r="BJ133" s="4"/>
       <c r="BK133" s="4"/>
       <c r="BL133" s="4"/>
-    </row>
-    <row r="134" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM133" s="4"/>
+      <c r="BN133" s="4"/>
+    </row>
+    <row r="134" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
@@ -9954,8 +10546,10 @@
       <c r="BJ134" s="4"/>
       <c r="BK134" s="4"/>
       <c r="BL134" s="4"/>
-    </row>
-    <row r="135" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM134" s="4"/>
+      <c r="BN134" s="4"/>
+    </row>
+    <row r="135" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
@@ -10018,8 +10612,10 @@
       <c r="BJ135" s="4"/>
       <c r="BK135" s="4"/>
       <c r="BL135" s="4"/>
-    </row>
-    <row r="136" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM135" s="4"/>
+      <c r="BN135" s="4"/>
+    </row>
+    <row r="136" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
@@ -10082,8 +10678,10 @@
       <c r="BJ136" s="4"/>
       <c r="BK136" s="4"/>
       <c r="BL136" s="4"/>
-    </row>
-    <row r="137" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM136" s="4"/>
+      <c r="BN136" s="4"/>
+    </row>
+    <row r="137" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
@@ -10146,8 +10744,10 @@
       <c r="BJ137" s="4"/>
       <c r="BK137" s="4"/>
       <c r="BL137" s="4"/>
-    </row>
-    <row r="138" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM137" s="4"/>
+      <c r="BN137" s="4"/>
+    </row>
+    <row r="138" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
@@ -10210,8 +10810,10 @@
       <c r="BJ138" s="4"/>
       <c r="BK138" s="4"/>
       <c r="BL138" s="4"/>
-    </row>
-    <row r="139" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM138" s="4"/>
+      <c r="BN138" s="4"/>
+    </row>
+    <row r="139" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
@@ -10274,8 +10876,10 @@
       <c r="BJ139" s="4"/>
       <c r="BK139" s="4"/>
       <c r="BL139" s="4"/>
-    </row>
-    <row r="140" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM139" s="4"/>
+      <c r="BN139" s="4"/>
+    </row>
+    <row r="140" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
@@ -10338,8 +10942,10 @@
       <c r="BJ140" s="4"/>
       <c r="BK140" s="4"/>
       <c r="BL140" s="4"/>
-    </row>
-    <row r="141" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM140" s="4"/>
+      <c r="BN140" s="4"/>
+    </row>
+    <row r="141" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
@@ -10402,8 +11008,10 @@
       <c r="BJ141" s="4"/>
       <c r="BK141" s="4"/>
       <c r="BL141" s="4"/>
-    </row>
-    <row r="142" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM141" s="4"/>
+      <c r="BN141" s="4"/>
+    </row>
+    <row r="142" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
@@ -10466,8 +11074,10 @@
       <c r="BJ142" s="4"/>
       <c r="BK142" s="4"/>
       <c r="BL142" s="4"/>
-    </row>
-    <row r="143" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM142" s="4"/>
+      <c r="BN142" s="4"/>
+    </row>
+    <row r="143" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
@@ -10530,8 +11140,10 @@
       <c r="BJ143" s="4"/>
       <c r="BK143" s="4"/>
       <c r="BL143" s="4"/>
-    </row>
-    <row r="144" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM143" s="4"/>
+      <c r="BN143" s="4"/>
+    </row>
+    <row r="144" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
@@ -10594,8 +11206,10 @@
       <c r="BJ144" s="4"/>
       <c r="BK144" s="4"/>
       <c r="BL144" s="4"/>
-    </row>
-    <row r="145" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM144" s="4"/>
+      <c r="BN144" s="4"/>
+    </row>
+    <row r="145" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
@@ -10658,8 +11272,10 @@
       <c r="BJ145" s="4"/>
       <c r="BK145" s="4"/>
       <c r="BL145" s="4"/>
-    </row>
-    <row r="146" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM145" s="4"/>
+      <c r="BN145" s="4"/>
+    </row>
+    <row r="146" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
@@ -10722,8 +11338,10 @@
       <c r="BJ146" s="4"/>
       <c r="BK146" s="4"/>
       <c r="BL146" s="4"/>
-    </row>
-    <row r="147" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM146" s="4"/>
+      <c r="BN146" s="4"/>
+    </row>
+    <row r="147" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
@@ -10786,8 +11404,10 @@
       <c r="BJ147" s="4"/>
       <c r="BK147" s="4"/>
       <c r="BL147" s="4"/>
-    </row>
-    <row r="148" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM147" s="4"/>
+      <c r="BN147" s="4"/>
+    </row>
+    <row r="148" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
@@ -10850,8 +11470,10 @@
       <c r="BJ148" s="4"/>
       <c r="BK148" s="4"/>
       <c r="BL148" s="4"/>
-    </row>
-    <row r="149" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM148" s="4"/>
+      <c r="BN148" s="4"/>
+    </row>
+    <row r="149" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
@@ -10914,8 +11536,10 @@
       <c r="BJ149" s="4"/>
       <c r="BK149" s="4"/>
       <c r="BL149" s="4"/>
-    </row>
-    <row r="150" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM149" s="4"/>
+      <c r="BN149" s="4"/>
+    </row>
+    <row r="150" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
@@ -10978,8 +11602,10 @@
       <c r="BJ150" s="4"/>
       <c r="BK150" s="4"/>
       <c r="BL150" s="4"/>
-    </row>
-    <row r="151" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM150" s="4"/>
+      <c r="BN150" s="4"/>
+    </row>
+    <row r="151" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
@@ -11042,8 +11668,10 @@
       <c r="BJ151" s="4"/>
       <c r="BK151" s="4"/>
       <c r="BL151" s="4"/>
-    </row>
-    <row r="152" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM151" s="4"/>
+      <c r="BN151" s="4"/>
+    </row>
+    <row r="152" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
@@ -11106,8 +11734,10 @@
       <c r="BJ152" s="4"/>
       <c r="BK152" s="4"/>
       <c r="BL152" s="4"/>
-    </row>
-    <row r="153" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM152" s="4"/>
+      <c r="BN152" s="4"/>
+    </row>
+    <row r="153" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
@@ -11170,8 +11800,10 @@
       <c r="BJ153" s="4"/>
       <c r="BK153" s="4"/>
       <c r="BL153" s="4"/>
-    </row>
-    <row r="154" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM153" s="4"/>
+      <c r="BN153" s="4"/>
+    </row>
+    <row r="154" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
@@ -11234,8 +11866,10 @@
       <c r="BJ154" s="4"/>
       <c r="BK154" s="4"/>
       <c r="BL154" s="4"/>
-    </row>
-    <row r="155" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM154" s="4"/>
+      <c r="BN154" s="4"/>
+    </row>
+    <row r="155" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
@@ -11298,8 +11932,10 @@
       <c r="BJ155" s="4"/>
       <c r="BK155" s="4"/>
       <c r="BL155" s="4"/>
-    </row>
-    <row r="156" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM155" s="4"/>
+      <c r="BN155" s="4"/>
+    </row>
+    <row r="156" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
@@ -11362,8 +11998,10 @@
       <c r="BJ156" s="4"/>
       <c r="BK156" s="4"/>
       <c r="BL156" s="4"/>
-    </row>
-    <row r="157" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM156" s="4"/>
+      <c r="BN156" s="4"/>
+    </row>
+    <row r="157" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
@@ -11426,8 +12064,10 @@
       <c r="BJ157" s="4"/>
       <c r="BK157" s="4"/>
       <c r="BL157" s="4"/>
-    </row>
-    <row r="158" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM157" s="4"/>
+      <c r="BN157" s="4"/>
+    </row>
+    <row r="158" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
@@ -11490,8 +12130,10 @@
       <c r="BJ158" s="4"/>
       <c r="BK158" s="4"/>
       <c r="BL158" s="4"/>
-    </row>
-    <row r="159" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM158" s="4"/>
+      <c r="BN158" s="4"/>
+    </row>
+    <row r="159" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
@@ -11554,8 +12196,10 @@
       <c r="BJ159" s="4"/>
       <c r="BK159" s="4"/>
       <c r="BL159" s="4"/>
-    </row>
-    <row r="160" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM159" s="4"/>
+      <c r="BN159" s="4"/>
+    </row>
+    <row r="160" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
@@ -11618,8 +12262,10 @@
       <c r="BJ160" s="4"/>
       <c r="BK160" s="4"/>
       <c r="BL160" s="4"/>
-    </row>
-    <row r="161" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM160" s="4"/>
+      <c r="BN160" s="4"/>
+    </row>
+    <row r="161" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
@@ -11682,8 +12328,10 @@
       <c r="BJ161" s="4"/>
       <c r="BK161" s="4"/>
       <c r="BL161" s="4"/>
-    </row>
-    <row r="162" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM161" s="4"/>
+      <c r="BN161" s="4"/>
+    </row>
+    <row r="162" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
@@ -11746,8 +12394,10 @@
       <c r="BJ162" s="4"/>
       <c r="BK162" s="4"/>
       <c r="BL162" s="4"/>
-    </row>
-    <row r="163" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM162" s="4"/>
+      <c r="BN162" s="4"/>
+    </row>
+    <row r="163" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
@@ -11810,8 +12460,10 @@
       <c r="BJ163" s="4"/>
       <c r="BK163" s="4"/>
       <c r="BL163" s="4"/>
-    </row>
-    <row r="164" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM163" s="4"/>
+      <c r="BN163" s="4"/>
+    </row>
+    <row r="164" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
@@ -11874,8 +12526,10 @@
       <c r="BJ164" s="4"/>
       <c r="BK164" s="4"/>
       <c r="BL164" s="4"/>
-    </row>
-    <row r="165" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM164" s="4"/>
+      <c r="BN164" s="4"/>
+    </row>
+    <row r="165" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
@@ -11938,8 +12592,10 @@
       <c r="BJ165" s="4"/>
       <c r="BK165" s="4"/>
       <c r="BL165" s="4"/>
-    </row>
-    <row r="166" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM165" s="4"/>
+      <c r="BN165" s="4"/>
+    </row>
+    <row r="166" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
@@ -12002,8 +12658,10 @@
       <c r="BJ166" s="4"/>
       <c r="BK166" s="4"/>
       <c r="BL166" s="4"/>
-    </row>
-    <row r="167" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM166" s="4"/>
+      <c r="BN166" s="4"/>
+    </row>
+    <row r="167" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
@@ -12066,8 +12724,10 @@
       <c r="BJ167" s="4"/>
       <c r="BK167" s="4"/>
       <c r="BL167" s="4"/>
-    </row>
-    <row r="168" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM167" s="4"/>
+      <c r="BN167" s="4"/>
+    </row>
+    <row r="168" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
@@ -12130,8 +12790,10 @@
       <c r="BJ168" s="4"/>
       <c r="BK168" s="4"/>
       <c r="BL168" s="4"/>
-    </row>
-    <row r="169" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM168" s="4"/>
+      <c r="BN168" s="4"/>
+    </row>
+    <row r="169" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
@@ -12194,8 +12856,10 @@
       <c r="BJ169" s="4"/>
       <c r="BK169" s="4"/>
       <c r="BL169" s="4"/>
-    </row>
-    <row r="170" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM169" s="4"/>
+      <c r="BN169" s="4"/>
+    </row>
+    <row r="170" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
@@ -12258,8 +12922,10 @@
       <c r="BJ170" s="4"/>
       <c r="BK170" s="4"/>
       <c r="BL170" s="4"/>
-    </row>
-    <row r="171" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM170" s="4"/>
+      <c r="BN170" s="4"/>
+    </row>
+    <row r="171" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
@@ -12322,8 +12988,10 @@
       <c r="BJ171" s="4"/>
       <c r="BK171" s="4"/>
       <c r="BL171" s="4"/>
-    </row>
-    <row r="172" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM171" s="4"/>
+      <c r="BN171" s="4"/>
+    </row>
+    <row r="172" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
@@ -12386,8 +13054,10 @@
       <c r="BJ172" s="4"/>
       <c r="BK172" s="4"/>
       <c r="BL172" s="4"/>
-    </row>
-    <row r="173" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM172" s="4"/>
+      <c r="BN172" s="4"/>
+    </row>
+    <row r="173" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
@@ -12450,8 +13120,10 @@
       <c r="BJ173" s="4"/>
       <c r="BK173" s="4"/>
       <c r="BL173" s="4"/>
-    </row>
-    <row r="174" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM173" s="4"/>
+      <c r="BN173" s="4"/>
+    </row>
+    <row r="174" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
@@ -12514,8 +13186,10 @@
       <c r="BJ174" s="4"/>
       <c r="BK174" s="4"/>
       <c r="BL174" s="4"/>
-    </row>
-    <row r="175" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM174" s="4"/>
+      <c r="BN174" s="4"/>
+    </row>
+    <row r="175" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
@@ -12578,8 +13252,10 @@
       <c r="BJ175" s="4"/>
       <c r="BK175" s="4"/>
       <c r="BL175" s="4"/>
-    </row>
-    <row r="176" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM175" s="4"/>
+      <c r="BN175" s="4"/>
+    </row>
+    <row r="176" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
@@ -12642,8 +13318,10 @@
       <c r="BJ176" s="4"/>
       <c r="BK176" s="4"/>
       <c r="BL176" s="4"/>
-    </row>
-    <row r="177" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM176" s="4"/>
+      <c r="BN176" s="4"/>
+    </row>
+    <row r="177" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
@@ -12706,8 +13384,10 @@
       <c r="BJ177" s="4"/>
       <c r="BK177" s="4"/>
       <c r="BL177" s="4"/>
-    </row>
-    <row r="178" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM177" s="4"/>
+      <c r="BN177" s="4"/>
+    </row>
+    <row r="178" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
@@ -12770,8 +13450,10 @@
       <c r="BJ178" s="4"/>
       <c r="BK178" s="4"/>
       <c r="BL178" s="4"/>
-    </row>
-    <row r="179" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM178" s="4"/>
+      <c r="BN178" s="4"/>
+    </row>
+    <row r="179" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
@@ -12834,8 +13516,10 @@
       <c r="BJ179" s="4"/>
       <c r="BK179" s="4"/>
       <c r="BL179" s="4"/>
-    </row>
-    <row r="180" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM179" s="4"/>
+      <c r="BN179" s="4"/>
+    </row>
+    <row r="180" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
@@ -12898,8 +13582,10 @@
       <c r="BJ180" s="4"/>
       <c r="BK180" s="4"/>
       <c r="BL180" s="4"/>
-    </row>
-    <row r="181" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM180" s="4"/>
+      <c r="BN180" s="4"/>
+    </row>
+    <row r="181" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
@@ -12962,8 +13648,10 @@
       <c r="BJ181" s="4"/>
       <c r="BK181" s="4"/>
       <c r="BL181" s="4"/>
-    </row>
-    <row r="182" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM181" s="4"/>
+      <c r="BN181" s="4"/>
+    </row>
+    <row r="182" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
@@ -13026,8 +13714,10 @@
       <c r="BJ182" s="4"/>
       <c r="BK182" s="4"/>
       <c r="BL182" s="4"/>
-    </row>
-    <row r="183" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM182" s="4"/>
+      <c r="BN182" s="4"/>
+    </row>
+    <row r="183" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
@@ -13090,8 +13780,10 @@
       <c r="BJ183" s="4"/>
       <c r="BK183" s="4"/>
       <c r="BL183" s="4"/>
-    </row>
-    <row r="184" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM183" s="4"/>
+      <c r="BN183" s="4"/>
+    </row>
+    <row r="184" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
@@ -13154,8 +13846,10 @@
       <c r="BJ184" s="4"/>
       <c r="BK184" s="4"/>
       <c r="BL184" s="4"/>
-    </row>
-    <row r="185" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM184" s="4"/>
+      <c r="BN184" s="4"/>
+    </row>
+    <row r="185" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
@@ -13218,8 +13912,10 @@
       <c r="BJ185" s="4"/>
       <c r="BK185" s="4"/>
       <c r="BL185" s="4"/>
-    </row>
-    <row r="186" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM185" s="4"/>
+      <c r="BN185" s="4"/>
+    </row>
+    <row r="186" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
@@ -13282,8 +13978,10 @@
       <c r="BJ186" s="4"/>
       <c r="BK186" s="4"/>
       <c r="BL186" s="4"/>
-    </row>
-    <row r="187" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM186" s="4"/>
+      <c r="BN186" s="4"/>
+    </row>
+    <row r="187" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
@@ -13346,8 +14044,10 @@
       <c r="BJ187" s="4"/>
       <c r="BK187" s="4"/>
       <c r="BL187" s="4"/>
-    </row>
-    <row r="188" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM187" s="4"/>
+      <c r="BN187" s="4"/>
+    </row>
+    <row r="188" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
@@ -13410,8 +14110,10 @@
       <c r="BJ188" s="4"/>
       <c r="BK188" s="4"/>
       <c r="BL188" s="4"/>
-    </row>
-    <row r="189" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM188" s="4"/>
+      <c r="BN188" s="4"/>
+    </row>
+    <row r="189" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
@@ -13474,8 +14176,10 @@
       <c r="BJ189" s="4"/>
       <c r="BK189" s="4"/>
       <c r="BL189" s="4"/>
-    </row>
-    <row r="190" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM189" s="4"/>
+      <c r="BN189" s="4"/>
+    </row>
+    <row r="190" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
@@ -13538,8 +14242,10 @@
       <c r="BJ190" s="4"/>
       <c r="BK190" s="4"/>
       <c r="BL190" s="4"/>
-    </row>
-    <row r="191" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM190" s="4"/>
+      <c r="BN190" s="4"/>
+    </row>
+    <row r="191" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
@@ -13602,8 +14308,10 @@
       <c r="BJ191" s="4"/>
       <c r="BK191" s="4"/>
       <c r="BL191" s="4"/>
-    </row>
-    <row r="192" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM191" s="4"/>
+      <c r="BN191" s="4"/>
+    </row>
+    <row r="192" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
@@ -13666,8 +14374,10 @@
       <c r="BJ192" s="4"/>
       <c r="BK192" s="4"/>
       <c r="BL192" s="4"/>
-    </row>
-    <row r="193" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM192" s="4"/>
+      <c r="BN192" s="4"/>
+    </row>
+    <row r="193" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
@@ -13730,8 +14440,10 @@
       <c r="BJ193" s="4"/>
       <c r="BK193" s="4"/>
       <c r="BL193" s="4"/>
-    </row>
-    <row r="194" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM193" s="4"/>
+      <c r="BN193" s="4"/>
+    </row>
+    <row r="194" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
@@ -13794,8 +14506,10 @@
       <c r="BJ194" s="4"/>
       <c r="BK194" s="4"/>
       <c r="BL194" s="4"/>
-    </row>
-    <row r="195" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM194" s="4"/>
+      <c r="BN194" s="4"/>
+    </row>
+    <row r="195" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
@@ -13858,8 +14572,10 @@
       <c r="BJ195" s="4"/>
       <c r="BK195" s="4"/>
       <c r="BL195" s="4"/>
-    </row>
-    <row r="196" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM195" s="4"/>
+      <c r="BN195" s="4"/>
+    </row>
+    <row r="196" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
@@ -13922,8 +14638,10 @@
       <c r="BJ196" s="4"/>
       <c r="BK196" s="4"/>
       <c r="BL196" s="4"/>
-    </row>
-    <row r="197" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM196" s="4"/>
+      <c r="BN196" s="4"/>
+    </row>
+    <row r="197" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
@@ -13986,8 +14704,10 @@
       <c r="BJ197" s="4"/>
       <c r="BK197" s="4"/>
       <c r="BL197" s="4"/>
-    </row>
-    <row r="198" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM197" s="4"/>
+      <c r="BN197" s="4"/>
+    </row>
+    <row r="198" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
@@ -14050,8 +14770,10 @@
       <c r="BJ198" s="4"/>
       <c r="BK198" s="4"/>
       <c r="BL198" s="4"/>
-    </row>
-    <row r="199" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM198" s="4"/>
+      <c r="BN198" s="4"/>
+    </row>
+    <row r="199" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
@@ -14114,8 +14836,10 @@
       <c r="BJ199" s="4"/>
       <c r="BK199" s="4"/>
       <c r="BL199" s="4"/>
-    </row>
-    <row r="200" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM199" s="4"/>
+      <c r="BN199" s="4"/>
+    </row>
+    <row r="200" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
@@ -14178,8 +14902,10 @@
       <c r="BJ200" s="4"/>
       <c r="BK200" s="4"/>
       <c r="BL200" s="4"/>
-    </row>
-    <row r="201" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM200" s="4"/>
+      <c r="BN200" s="4"/>
+    </row>
+    <row r="201" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
@@ -14242,8 +14968,10 @@
       <c r="BJ201" s="4"/>
       <c r="BK201" s="4"/>
       <c r="BL201" s="4"/>
-    </row>
-    <row r="202" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM201" s="4"/>
+      <c r="BN201" s="4"/>
+    </row>
+    <row r="202" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
@@ -14306,8 +15034,10 @@
       <c r="BJ202" s="4"/>
       <c r="BK202" s="4"/>
       <c r="BL202" s="4"/>
-    </row>
-    <row r="203" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM202" s="4"/>
+      <c r="BN202" s="4"/>
+    </row>
+    <row r="203" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
@@ -14370,8 +15100,10 @@
       <c r="BJ203" s="4"/>
       <c r="BK203" s="4"/>
       <c r="BL203" s="4"/>
-    </row>
-    <row r="204" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM203" s="4"/>
+      <c r="BN203" s="4"/>
+    </row>
+    <row r="204" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
@@ -14434,8 +15166,10 @@
       <c r="BJ204" s="4"/>
       <c r="BK204" s="4"/>
       <c r="BL204" s="4"/>
-    </row>
-    <row r="205" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM204" s="4"/>
+      <c r="BN204" s="4"/>
+    </row>
+    <row r="205" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
@@ -14498,8 +15232,10 @@
       <c r="BJ205" s="4"/>
       <c r="BK205" s="4"/>
       <c r="BL205" s="4"/>
-    </row>
-    <row r="206" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM205" s="4"/>
+      <c r="BN205" s="4"/>
+    </row>
+    <row r="206" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
@@ -14562,8 +15298,10 @@
       <c r="BJ206" s="4"/>
       <c r="BK206" s="4"/>
       <c r="BL206" s="4"/>
-    </row>
-    <row r="207" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM206" s="4"/>
+      <c r="BN206" s="4"/>
+    </row>
+    <row r="207" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
@@ -14626,8 +15364,10 @@
       <c r="BJ207" s="4"/>
       <c r="BK207" s="4"/>
       <c r="BL207" s="4"/>
-    </row>
-    <row r="208" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM207" s="4"/>
+      <c r="BN207" s="4"/>
+    </row>
+    <row r="208" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
@@ -14690,8 +15430,10 @@
       <c r="BJ208" s="4"/>
       <c r="BK208" s="4"/>
       <c r="BL208" s="4"/>
-    </row>
-    <row r="209" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM208" s="4"/>
+      <c r="BN208" s="4"/>
+    </row>
+    <row r="209" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
@@ -14754,8 +15496,10 @@
       <c r="BJ209" s="4"/>
       <c r="BK209" s="4"/>
       <c r="BL209" s="4"/>
-    </row>
-    <row r="210" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM209" s="4"/>
+      <c r="BN209" s="4"/>
+    </row>
+    <row r="210" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
@@ -14818,8 +15562,10 @@
       <c r="BJ210" s="4"/>
       <c r="BK210" s="4"/>
       <c r="BL210" s="4"/>
-    </row>
-    <row r="211" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM210" s="4"/>
+      <c r="BN210" s="4"/>
+    </row>
+    <row r="211" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
@@ -14882,8 +15628,10 @@
       <c r="BJ211" s="4"/>
       <c r="BK211" s="4"/>
       <c r="BL211" s="4"/>
-    </row>
-    <row r="212" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM211" s="4"/>
+      <c r="BN211" s="4"/>
+    </row>
+    <row r="212" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
@@ -14946,8 +15694,10 @@
       <c r="BJ212" s="4"/>
       <c r="BK212" s="4"/>
       <c r="BL212" s="4"/>
-    </row>
-    <row r="213" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM212" s="4"/>
+      <c r="BN212" s="4"/>
+    </row>
+    <row r="213" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
@@ -15010,8 +15760,10 @@
       <c r="BJ213" s="4"/>
       <c r="BK213" s="4"/>
       <c r="BL213" s="4"/>
-    </row>
-    <row r="214" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM213" s="4"/>
+      <c r="BN213" s="4"/>
+    </row>
+    <row r="214" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
@@ -15074,8 +15826,10 @@
       <c r="BJ214" s="4"/>
       <c r="BK214" s="4"/>
       <c r="BL214" s="4"/>
-    </row>
-    <row r="215" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM214" s="4"/>
+      <c r="BN214" s="4"/>
+    </row>
+    <row r="215" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
@@ -15138,8 +15892,10 @@
       <c r="BJ215" s="4"/>
       <c r="BK215" s="4"/>
       <c r="BL215" s="4"/>
-    </row>
-    <row r="216" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM215" s="4"/>
+      <c r="BN215" s="4"/>
+    </row>
+    <row r="216" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
@@ -15202,8 +15958,10 @@
       <c r="BJ216" s="4"/>
       <c r="BK216" s="4"/>
       <c r="BL216" s="4"/>
-    </row>
-    <row r="217" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM216" s="4"/>
+      <c r="BN216" s="4"/>
+    </row>
+    <row r="217" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
@@ -15266,8 +16024,10 @@
       <c r="BJ217" s="4"/>
       <c r="BK217" s="4"/>
       <c r="BL217" s="4"/>
-    </row>
-    <row r="218" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM217" s="4"/>
+      <c r="BN217" s="4"/>
+    </row>
+    <row r="218" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
@@ -15330,8 +16090,10 @@
       <c r="BJ218" s="4"/>
       <c r="BK218" s="4"/>
       <c r="BL218" s="4"/>
-    </row>
-    <row r="219" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM218" s="4"/>
+      <c r="BN218" s="4"/>
+    </row>
+    <row r="219" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
@@ -15394,8 +16156,10 @@
       <c r="BJ219" s="4"/>
       <c r="BK219" s="4"/>
       <c r="BL219" s="4"/>
-    </row>
-    <row r="220" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM219" s="4"/>
+      <c r="BN219" s="4"/>
+    </row>
+    <row r="220" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
@@ -15458,8 +16222,10 @@
       <c r="BJ220" s="4"/>
       <c r="BK220" s="4"/>
       <c r="BL220" s="4"/>
-    </row>
-    <row r="221" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM220" s="4"/>
+      <c r="BN220" s="4"/>
+    </row>
+    <row r="221" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
@@ -15522,8 +16288,10 @@
       <c r="BJ221" s="4"/>
       <c r="BK221" s="4"/>
       <c r="BL221" s="4"/>
-    </row>
-    <row r="222" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM221" s="4"/>
+      <c r="BN221" s="4"/>
+    </row>
+    <row r="222" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
@@ -15586,8 +16354,10 @@
       <c r="BJ222" s="4"/>
       <c r="BK222" s="4"/>
       <c r="BL222" s="4"/>
-    </row>
-    <row r="223" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM222" s="4"/>
+      <c r="BN222" s="4"/>
+    </row>
+    <row r="223" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
@@ -15650,8 +16420,10 @@
       <c r="BJ223" s="4"/>
       <c r="BK223" s="4"/>
       <c r="BL223" s="4"/>
-    </row>
-    <row r="224" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM223" s="4"/>
+      <c r="BN223" s="4"/>
+    </row>
+    <row r="224" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
@@ -15714,8 +16486,10 @@
       <c r="BJ224" s="4"/>
       <c r="BK224" s="4"/>
       <c r="BL224" s="4"/>
-    </row>
-    <row r="225" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM224" s="4"/>
+      <c r="BN224" s="4"/>
+    </row>
+    <row r="225" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
@@ -15778,8 +16552,10 @@
       <c r="BJ225" s="4"/>
       <c r="BK225" s="4"/>
       <c r="BL225" s="4"/>
-    </row>
-    <row r="226" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM225" s="4"/>
+      <c r="BN225" s="4"/>
+    </row>
+    <row r="226" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
@@ -15842,8 +16618,10 @@
       <c r="BJ226" s="4"/>
       <c r="BK226" s="4"/>
       <c r="BL226" s="4"/>
-    </row>
-    <row r="227" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM226" s="4"/>
+      <c r="BN226" s="4"/>
+    </row>
+    <row r="227" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
@@ -15906,8 +16684,10 @@
       <c r="BJ227" s="4"/>
       <c r="BK227" s="4"/>
       <c r="BL227" s="4"/>
-    </row>
-    <row r="228" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM227" s="4"/>
+      <c r="BN227" s="4"/>
+    </row>
+    <row r="228" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
@@ -15970,8 +16750,10 @@
       <c r="BJ228" s="4"/>
       <c r="BK228" s="4"/>
       <c r="BL228" s="4"/>
-    </row>
-    <row r="229" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM228" s="4"/>
+      <c r="BN228" s="4"/>
+    </row>
+    <row r="229" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
@@ -16034,8 +16816,10 @@
       <c r="BJ229" s="4"/>
       <c r="BK229" s="4"/>
       <c r="BL229" s="4"/>
-    </row>
-    <row r="230" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM229" s="4"/>
+      <c r="BN229" s="4"/>
+    </row>
+    <row r="230" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
@@ -16098,8 +16882,10 @@
       <c r="BJ230" s="4"/>
       <c r="BK230" s="4"/>
       <c r="BL230" s="4"/>
-    </row>
-    <row r="231" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM230" s="4"/>
+      <c r="BN230" s="4"/>
+    </row>
+    <row r="231" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
@@ -16162,8 +16948,10 @@
       <c r="BJ231" s="4"/>
       <c r="BK231" s="4"/>
       <c r="BL231" s="4"/>
-    </row>
-    <row r="232" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM231" s="4"/>
+      <c r="BN231" s="4"/>
+    </row>
+    <row r="232" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
@@ -16226,8 +17014,10 @@
       <c r="BJ232" s="4"/>
       <c r="BK232" s="4"/>
       <c r="BL232" s="4"/>
-    </row>
-    <row r="233" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM232" s="4"/>
+      <c r="BN232" s="4"/>
+    </row>
+    <row r="233" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
@@ -16290,8 +17080,10 @@
       <c r="BJ233" s="4"/>
       <c r="BK233" s="4"/>
       <c r="BL233" s="4"/>
-    </row>
-    <row r="234" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM233" s="4"/>
+      <c r="BN233" s="4"/>
+    </row>
+    <row r="234" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
@@ -16354,8 +17146,10 @@
       <c r="BJ234" s="4"/>
       <c r="BK234" s="4"/>
       <c r="BL234" s="4"/>
-    </row>
-    <row r="235" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM234" s="4"/>
+      <c r="BN234" s="4"/>
+    </row>
+    <row r="235" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
@@ -16418,8 +17212,10 @@
       <c r="BJ235" s="4"/>
       <c r="BK235" s="4"/>
       <c r="BL235" s="4"/>
-    </row>
-    <row r="236" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM235" s="4"/>
+      <c r="BN235" s="4"/>
+    </row>
+    <row r="236" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
@@ -16482,8 +17278,10 @@
       <c r="BJ236" s="4"/>
       <c r="BK236" s="4"/>
       <c r="BL236" s="4"/>
-    </row>
-    <row r="237" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM236" s="4"/>
+      <c r="BN236" s="4"/>
+    </row>
+    <row r="237" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
@@ -16546,8 +17344,10 @@
       <c r="BJ237" s="4"/>
       <c r="BK237" s="4"/>
       <c r="BL237" s="4"/>
-    </row>
-    <row r="238" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM237" s="4"/>
+      <c r="BN237" s="4"/>
+    </row>
+    <row r="238" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
@@ -16610,8 +17410,10 @@
       <c r="BJ238" s="4"/>
       <c r="BK238" s="4"/>
       <c r="BL238" s="4"/>
-    </row>
-    <row r="239" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM238" s="4"/>
+      <c r="BN238" s="4"/>
+    </row>
+    <row r="239" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
@@ -16674,8 +17476,10 @@
       <c r="BJ239" s="4"/>
       <c r="BK239" s="4"/>
       <c r="BL239" s="4"/>
-    </row>
-    <row r="240" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM239" s="4"/>
+      <c r="BN239" s="4"/>
+    </row>
+    <row r="240" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
@@ -16738,8 +17542,10 @@
       <c r="BJ240" s="4"/>
       <c r="BK240" s="4"/>
       <c r="BL240" s="4"/>
-    </row>
-    <row r="241" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM240" s="4"/>
+      <c r="BN240" s="4"/>
+    </row>
+    <row r="241" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
@@ -16802,8 +17608,10 @@
       <c r="BJ241" s="4"/>
       <c r="BK241" s="4"/>
       <c r="BL241" s="4"/>
-    </row>
-    <row r="242" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM241" s="4"/>
+      <c r="BN241" s="4"/>
+    </row>
+    <row r="242" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
@@ -16866,8 +17674,10 @@
       <c r="BJ242" s="4"/>
       <c r="BK242" s="4"/>
       <c r="BL242" s="4"/>
-    </row>
-    <row r="243" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM242" s="4"/>
+      <c r="BN242" s="4"/>
+    </row>
+    <row r="243" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
@@ -16930,8 +17740,10 @@
       <c r="BJ243" s="4"/>
       <c r="BK243" s="4"/>
       <c r="BL243" s="4"/>
-    </row>
-    <row r="244" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM243" s="4"/>
+      <c r="BN243" s="4"/>
+    </row>
+    <row r="244" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
@@ -16994,8 +17806,10 @@
       <c r="BJ244" s="4"/>
       <c r="BK244" s="4"/>
       <c r="BL244" s="4"/>
-    </row>
-    <row r="245" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="BM244" s="4"/>
+      <c r="BN244" s="4"/>
+    </row>
+    <row r="245" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="4"/>
@@ -17058,6 +17872,8 @@
       <c r="BJ245" s="4"/>
       <c r="BK245" s="4"/>
       <c r="BL245" s="4"/>
+      <c r="BM245" s="4"/>
+      <c r="BN245" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
